--- a/game_template/model/data/floor builder Level 9.xlsx
+++ b/game_template/model/data/floor builder Level 9.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="229">
   <si>
     <t>width</t>
   </si>
@@ -8431,10 +8431,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB30"/>
+  <dimension ref="A1:AB27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB1:AB20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10193,16 +10193,6 @@
       </c>
       <c r="B27" s="1">
         <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -12038,7 +12028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>

--- a/game_template/model/data/floor builder Level 9.xlsx
+++ b/game_template/model/data/floor builder Level 9.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
     <sheet name="Blank" sheetId="49" r:id="rId2"/>
     <sheet name="Basic" sheetId="68" r:id="rId3"/>
     <sheet name="Start" sheetId="92" r:id="rId4"/>
-    <sheet name="End" sheetId="93" r:id="rId5"/>
-    <sheet name="Tiles" sheetId="56" r:id="rId6"/>
+    <sheet name="Deceiver" sheetId="94" r:id="rId5"/>
+    <sheet name="End" sheetId="93" r:id="rId6"/>
+    <sheet name="Tiles" sheetId="56" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Tiles!$C$1:$C$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Tiles!$C$1:$C$64</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="229">
   <si>
     <t>width</t>
   </si>
@@ -1949,7 +1950,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4810,12 +4839,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6602,22 +6631,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="18" priority="4">
+    <cfRule type="expression" dxfId="22" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8405,22 +8434,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8434,7 +8463,7 @@
   <dimension ref="A1:AB27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9403,7 +9432,7 @@
         <v>6</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
@@ -9412,11 +9441,11 @@
       <c r="Y13" s="7"/>
       <c r="AA13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">       /\/\         </v>
+        <v xml:space="preserve">       /\/\        /</v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="1"/>
-        <v>'       /\/\         ',</v>
+        <v>'       /\/\        /',</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -9478,7 +9507,7 @@
         <v>6</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
@@ -9487,11 +9516,11 @@
       <c r="Y14" s="7"/>
       <c r="AA14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">       ::::         </v>
+        <v xml:space="preserve">       ::::        E</v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>'       ::::         ',</v>
+        <v>'       ::::        E',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -9553,7 +9582,7 @@
         <v>6</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
@@ -9562,11 +9591,11 @@
       <c r="Y15" s="7"/>
       <c r="AA15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">       (::)         </v>
+        <v xml:space="preserve">       (::)        (</v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="1"/>
-        <v>'       (::)         ',</v>
+        <v>'       (::)        (',</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -10197,22 +10226,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10225,8 +10254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB1:AB20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10245,10 +10274,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>2</v>
@@ -10266,17 +10295,17 @@
         <v>12</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>2</v>
-      </c>
       <c r="N1" s="12" t="s">
         <v>2</v>
       </c>
@@ -10296,7 +10325,7 @@
         <v>2</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>228</v>
+        <v>65</v>
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -10305,11 +10334,11 @@
       <c r="Y1" s="3"/>
       <c r="AA1" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
-        <v>/:::::::)N(::::::::\</v>
+        <v>/:)(::::)(:)(::::::\\</v>
       </c>
       <c r="AB1" t="str">
         <f>"'"&amp;AA1&amp;"',"</f>
-        <v>'/:::::::)N(::::::::\',</v>
+        <v>'/:)(::::)(:)(::::::\\',</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -10341,10 +10370,10 @@
         <v>6</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>6</v>
@@ -10380,11 +10409,11 @@
       <c r="Y2" s="7"/>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v>:)       `        (:</v>
+        <v>:)        :       (:</v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB25" si="1">"'"&amp;AA2&amp;"',"</f>
-        <v>':)       `        (:',</v>
+        <v>':)        :       (:',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -10413,16 +10442,16 @@
         <v>6</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>6</v>
+        <v>228</v>
       </c>
       <c r="M3" s="12" t="s">
         <v>6</v>
@@ -10455,11 +10484,11 @@
       <c r="Y3" s="7"/>
       <c r="AA3" t="str">
         <f t="shared" si="0"/>
-        <v>:       ```        :</v>
+        <v>:        /:\       :</v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="1"/>
-        <v>':       ```        :',</v>
+        <v>':        /:\       :',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -10485,25 +10514,25 @@
         <v>6</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="O4" s="12" t="s">
         <v>6</v>
@@ -10530,11 +10559,11 @@
       <c r="Y4" s="7"/>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
-        <v>:       ```        :</v>
+        <v>:      wwwwwww     :</v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="1"/>
-        <v>':       ```        :',</v>
+        <v>':      wwwwwww     :',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -10560,25 +10589,25 @@
         <v>6</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="O5" s="12" t="s">
         <v>6</v>
@@ -10605,16 +10634,16 @@
       <c r="Y5" s="7"/>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v>:                  :</v>
+        <v>:      w`````w     :</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>':                  :',</v>
+        <v>':      w`````w     :',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>6</v>
@@ -10629,13 +10658,13 @@
         <v>6</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>6</v>
@@ -10644,7 +10673,7 @@
         <v>6</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>6</v>
@@ -10653,13 +10682,13 @@
         <v>6</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="O6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>6</v>
@@ -10668,7 +10697,7 @@
         <v>6</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>2</v>
@@ -10680,16 +10709,16 @@
       <c r="Y6" s="7"/>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v>:                  :</v>
+        <v>)    _ w  _  w _  /:</v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>':                  :',</v>
+        <v>')    _ w  _  w _  /:',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>2</v>
+        <v>228</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>6</v>
@@ -10740,13 +10769,13 @@
         <v>6</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
@@ -10755,11 +10784,11 @@
       <c r="Y7" s="7"/>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v>:                  :</v>
+        <v>\                www</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>':                  :',</v>
+        <v>'\                www',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -10767,7 +10796,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>6</v>
+        <v>228</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>6</v>
@@ -10794,7 +10823,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>6</v>
@@ -10818,10 +10847,10 @@
         <v>6</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
@@ -10830,22 +10859,22 @@
       <c r="Y8" s="7"/>
       <c r="AA8" t="str">
         <f t="shared" si="0"/>
-        <v>:                  :</v>
+        <v>:\        B       `w</v>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="1"/>
-        <v>':                  :',</v>
+        <v>':\        B       `w',</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>6</v>
@@ -10863,19 +10892,19 @@
         <v>6</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>6</v>
+        <v>228</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>6</v>
@@ -10893,10 +10922,10 @@
         <v>6</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
@@ -10905,28 +10934,28 @@
       <c r="Y9" s="7"/>
       <c r="AA9" t="str">
         <f t="shared" si="0"/>
-        <v>:                  :</v>
+        <v>ww`     /:::\     `w</v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="1"/>
-        <v>':                  :',</v>
+        <v>'ww`     /:::\     `w',</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>6</v>
@@ -10934,26 +10963,26 @@
       <c r="G10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>6</v>
+      <c r="H10" s="12">
+        <v>8</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="N10" s="12">
+        <v>8</v>
       </c>
       <c r="O10" s="12" t="s">
         <v>6</v>
@@ -10968,10 +10997,10 @@
         <v>6</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
@@ -10980,22 +11009,22 @@
       <c r="Y10" s="7"/>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v>:                  :</v>
+        <v>W````  8D`,`D8    `w</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>':                  :',</v>
+        <v>'W````  8D`,`D8    `w',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>6</v>
@@ -11013,19 +11042,19 @@
         <v>6</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N11" s="12" t="s">
         <v>6</v>
@@ -11043,10 +11072,10 @@
         <v>6</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
@@ -11055,11 +11084,11 @@
       <c r="Y11" s="7"/>
       <c r="AA11" t="str">
         <f t="shared" si="0"/>
-        <v>:                  :</v>
+        <v>ww`     (:::)     `w</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="1"/>
-        <v>':                  :',</v>
+        <v>'ww`     (:::)     `w',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -11067,7 +11096,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>6</v>
@@ -11094,7 +11123,7 @@
         <v>6</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>6</v>
@@ -11115,13 +11144,13 @@
         <v>6</v>
       </c>
       <c r="R12" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="S12" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
@@ -11130,11 +11159,11 @@
       <c r="Y12" s="7"/>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v>:                  :</v>
+        <v>:)        B      www</v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>':                  :',</v>
+        <v>':)        B      www',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -11193,7 +11222,7 @@
         <v>6</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="T13" s="12" t="s">
         <v>2</v>
@@ -11205,11 +11234,11 @@
       <c r="Y13" s="7"/>
       <c r="AA13" t="str">
         <f t="shared" si="0"/>
-        <v>)                  :</v>
+        <v>)                 (:</v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="1"/>
-        <v>')                  :',</v>
+        <v>')                 (:',</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -11271,7 +11300,7 @@
         <v>6</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
@@ -11280,11 +11309,11 @@
       <c r="Y14" s="7"/>
       <c r="AA14" t="str">
         <f t="shared" si="0"/>
-        <v>\                  (</v>
+        <v>\                  :</v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>'\                  (',</v>
+        <v>'\                  :',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -11304,13 +11333,13 @@
         <v>6</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>6</v>
@@ -11319,7 +11348,7 @@
         <v>6</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="L15" s="12" t="s">
         <v>6</v>
@@ -11328,13 +11357,13 @@
         <v>6</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="O15" s="12" t="s">
         <v>6</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>6</v>
@@ -11346,7 +11375,7 @@
         <v>6</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
@@ -11355,11 +11384,11 @@
       <c r="Y15" s="7"/>
       <c r="AA15" t="str">
         <f t="shared" si="0"/>
-        <v>:                  /</v>
+        <v>:    _ w  _  w _   (</v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="1"/>
-        <v>':                  /',</v>
+        <v>':    _ w  _  w _   (',</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -11385,43 +11414,43 @@
         <v>6</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="O16" s="12" t="s">
         <v>6</v>
       </c>
       <c r="P16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T16" s="12" t="s">
         <v>11</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="R16" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="S16" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="T16" s="12" t="s">
-        <v>13</v>
       </c>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
@@ -11430,25 +11459,25 @@
       <c r="Y16" s="7"/>
       <c r="AA16" t="str">
         <f t="shared" si="0"/>
-        <v>:              /:\ (</v>
+        <v>:      w`````w     /</v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
-        <v>':              /:\ (',</v>
+        <v>':      w`````w     /',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>228</v>
+        <v>6</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>6</v>
@@ -11460,43 +11489,43 @@
         <v>6</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="R17" s="12" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S17" s="12" t="s">
-        <v>228</v>
+        <v>6</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
@@ -11505,28 +11534,28 @@
       <c r="Y17" s="7"/>
       <c r="AA17" t="str">
         <f t="shared" si="0"/>
-        <v>)/:\     `    /:!:\/</v>
+        <v>:      wwwwwww     :</v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="1"/>
-        <v>')/:\     `    /:!:\/',</v>
+        <v>':      wwwwwww     :',</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>228</v>
+        <v>6</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>6</v>
@@ -11538,37 +11567,37 @@
         <v>6</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M18" s="12" t="s">
         <v>6</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="R18" s="12" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="S18" s="12" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T18" s="12" t="s">
         <v>2</v>
@@ -11580,73 +11609,73 @@
       <c r="Y18" s="7"/>
       <c r="AA18" t="str">
         <f t="shared" si="0"/>
-        <v>/:!:\   ```  /:!!!::</v>
+        <v>:        (:)       :</v>
       </c>
       <c r="AB18" t="str">
         <f t="shared" si="1"/>
-        <v>'/:!:\   ```  /:!!!::',</v>
+        <v>':        (:)       :',</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>41</v>
+        <v>228</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>228</v>
+        <v>6</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="M19" s="12" t="s">
         <v>6</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="R19" s="12" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="S19" s="12" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
@@ -11655,11 +11684,11 @@
       <c r="Y19" s="7"/>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!\ ``L`` :!!!!!!</v>
+        <v>:\        :       /:</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>'!!!!!\ ``L`` :!!!!!!',</v>
+        <v>':\        :       /:',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -11679,10 +11708,10 @@
         <v>2</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>2</v>
@@ -11691,19 +11720,19 @@
         <v>228</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="K20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="M20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>228</v>
-      </c>
       <c r="N20" s="12" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="O20" s="12" t="s">
         <v>2</v>
@@ -11730,11 +11759,11 @@
       <c r="Y20" s="7"/>
       <c r="AA20" t="str">
         <f t="shared" si="0"/>
-        <v>(::::)/:\`/:\(:::::)</v>
+        <v>(:::::::\/:\/::::::)</v>
       </c>
       <c r="AB20" t="str">
         <f t="shared" si="1"/>
-        <v>'(::::)/:\`/:\(:::::)',</v>
+        <v>'(:::::::\/:\/::::::)',</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -11999,23 +12028,23 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="6" priority="4">
+  <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12026,10 +12055,1813 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB20" sqref="AB1:AB20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="3"/>
+      <c r="AA1" t="str">
+        <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
+        <v>/:::::::)N(::::::::\</v>
+      </c>
+      <c r="AB1" t="str">
+        <f>"'"&amp;AA1&amp;"',"</f>
+        <v>'/:::::::)N(::::::::\',</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="7"/>
+      <c r="AA2" t="str">
+        <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
+        <v>:)       `        (:</v>
+      </c>
+      <c r="AB2" t="str">
+        <f t="shared" ref="AB2:AB25" si="1">"'"&amp;AA2&amp;"',"</f>
+        <v>':)       `        (:',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="7"/>
+      <c r="AA3" t="str">
+        <f t="shared" si="0"/>
+        <v>:       ```        :</v>
+      </c>
+      <c r="AB3" t="str">
+        <f t="shared" si="1"/>
+        <v>':       ```        :',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="7"/>
+      <c r="AA4" t="str">
+        <f t="shared" si="0"/>
+        <v>:       ```        :</v>
+      </c>
+      <c r="AB4" t="str">
+        <f t="shared" si="1"/>
+        <v>':       ```        :',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="7"/>
+      <c r="AA5" t="str">
+        <f t="shared" si="0"/>
+        <v>:                  :</v>
+      </c>
+      <c r="AB5" t="str">
+        <f t="shared" si="1"/>
+        <v>':                  :',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="7"/>
+      <c r="AA6" t="str">
+        <f t="shared" si="0"/>
+        <v>:                  :</v>
+      </c>
+      <c r="AB6" t="str">
+        <f t="shared" si="1"/>
+        <v>':                  :',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="7"/>
+      <c r="AA7" t="str">
+        <f t="shared" si="0"/>
+        <v>:                  :</v>
+      </c>
+      <c r="AB7" t="str">
+        <f t="shared" si="1"/>
+        <v>':                  :',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="7"/>
+      <c r="AA8" t="str">
+        <f t="shared" si="0"/>
+        <v>:                  :</v>
+      </c>
+      <c r="AB8" t="str">
+        <f t="shared" si="1"/>
+        <v>':                  :',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="7"/>
+      <c r="AA9" t="str">
+        <f t="shared" si="0"/>
+        <v>:                  :</v>
+      </c>
+      <c r="AB9" t="str">
+        <f t="shared" si="1"/>
+        <v>':                  :',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="7"/>
+      <c r="AA10" t="str">
+        <f t="shared" si="0"/>
+        <v>:                  :</v>
+      </c>
+      <c r="AB10" t="str">
+        <f t="shared" si="1"/>
+        <v>':                  :',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="7"/>
+      <c r="AA11" t="str">
+        <f t="shared" si="0"/>
+        <v>:                  :</v>
+      </c>
+      <c r="AB11" t="str">
+        <f t="shared" si="1"/>
+        <v>':                  :',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="7"/>
+      <c r="AA12" t="str">
+        <f t="shared" si="0"/>
+        <v>:                  :</v>
+      </c>
+      <c r="AB12" t="str">
+        <f t="shared" si="1"/>
+        <v>':                  :',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="7"/>
+      <c r="AA13" t="str">
+        <f t="shared" si="0"/>
+        <v>)                  :</v>
+      </c>
+      <c r="AB13" t="str">
+        <f t="shared" si="1"/>
+        <v>')                  :',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="7"/>
+      <c r="AA14" t="str">
+        <f t="shared" si="0"/>
+        <v>\                  (</v>
+      </c>
+      <c r="AB14" t="str">
+        <f t="shared" si="1"/>
+        <v>'\                  (',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="7"/>
+      <c r="AA15" t="str">
+        <f t="shared" si="0"/>
+        <v>:                  /</v>
+      </c>
+      <c r="AB15" t="str">
+        <f t="shared" si="1"/>
+        <v>':                  /',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="7"/>
+      <c r="AA16" t="str">
+        <f t="shared" si="0"/>
+        <v>:              /:\ (</v>
+      </c>
+      <c r="AB16" t="str">
+        <f t="shared" si="1"/>
+        <v>':              /:\ (',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="7"/>
+      <c r="AA17" t="str">
+        <f t="shared" si="0"/>
+        <v>)/:\     `    /:!:\/</v>
+      </c>
+      <c r="AB17" t="str">
+        <f t="shared" si="1"/>
+        <v>')/:\     `    /:!:\/',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="7"/>
+      <c r="AA18" t="str">
+        <f t="shared" si="0"/>
+        <v>/:!:\   ```  /:!!!::</v>
+      </c>
+      <c r="AB18" t="str">
+        <f t="shared" si="1"/>
+        <v>'/:!:\   ```  /:!!!::',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="T19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="7"/>
+      <c r="AA19" t="str">
+        <f t="shared" si="0"/>
+        <v>!!!!!\ ``L`` :!!!!!!</v>
+      </c>
+      <c r="AB19" t="str">
+        <f t="shared" si="1"/>
+        <v>'!!!!!\ ``L`` :!!!!!!',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="7"/>
+      <c r="AA20" t="str">
+        <f t="shared" si="0"/>
+        <v>(::::)/:\`/:\(:::::)</v>
+      </c>
+      <c r="AB20" t="str">
+        <f t="shared" si="1"/>
+        <v>'(::::)/:\`/:\(:::::)',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
+        <f>COLUMN()</f>
+        <v>1</v>
+      </c>
+      <c r="B21" s="25">
+        <f>COLUMN()</f>
+        <v>2</v>
+      </c>
+      <c r="C21" s="25">
+        <f>COLUMN()</f>
+        <v>3</v>
+      </c>
+      <c r="D21" s="25">
+        <f>COLUMN()</f>
+        <v>4</v>
+      </c>
+      <c r="E21" s="25">
+        <f>COLUMN()</f>
+        <v>5</v>
+      </c>
+      <c r="F21" s="25">
+        <f>COLUMN()</f>
+        <v>6</v>
+      </c>
+      <c r="G21" s="25">
+        <f>COLUMN()</f>
+        <v>7</v>
+      </c>
+      <c r="H21" s="25">
+        <f>COLUMN()</f>
+        <v>8</v>
+      </c>
+      <c r="I21" s="25">
+        <f>COLUMN()</f>
+        <v>9</v>
+      </c>
+      <c r="J21" s="25">
+        <f>COLUMN()</f>
+        <v>10</v>
+      </c>
+      <c r="K21" s="25">
+        <f>COLUMN()</f>
+        <v>11</v>
+      </c>
+      <c r="L21" s="25">
+        <f>COLUMN()</f>
+        <v>12</v>
+      </c>
+      <c r="M21" s="25">
+        <f>COLUMN()</f>
+        <v>13</v>
+      </c>
+      <c r="N21" s="25">
+        <f>COLUMN()</f>
+        <v>14</v>
+      </c>
+      <c r="O21" s="25">
+        <f>COLUMN()</f>
+        <v>15</v>
+      </c>
+      <c r="P21" s="25">
+        <f>COLUMN()</f>
+        <v>16</v>
+      </c>
+      <c r="Q21" s="25">
+        <f>COLUMN()</f>
+        <v>17</v>
+      </c>
+      <c r="R21" s="25">
+        <f>COLUMN()</f>
+        <v>18</v>
+      </c>
+      <c r="S21" s="25">
+        <f>COLUMN()</f>
+        <v>19</v>
+      </c>
+      <c r="T21" s="25">
+        <f>COLUMN()</f>
+        <v>20</v>
+      </c>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="7"/>
+      <c r="AA21" t="str">
+        <f t="shared" si="0"/>
+        <v>1234567891011121314151617181920</v>
+      </c>
+      <c r="AB21" t="str">
+        <f t="shared" si="1"/>
+        <v>'1234567891011121314151617181920',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="7"/>
+      <c r="AA22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB22" t="str">
+        <f t="shared" si="1"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="7"/>
+      <c r="AA23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB23" t="str">
+        <f t="shared" si="1"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="7"/>
+      <c r="AA24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB24" t="str">
+        <f t="shared" si="1"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="11"/>
+      <c r="AA25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB25" t="str">
+        <f t="shared" si="1"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
+    <cfRule type="expression" dxfId="10" priority="4">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:T21">
+    <cfRule type="expression" dxfId="8" priority="2">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:T21">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
@@ -14187,17 +16019,17 @@
     <sortCondition ref="B2:B66"/>
   </sortState>
   <conditionalFormatting sqref="D1:D65 D67:D1048576">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K65">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/game_template/model/data/floor builder Level 9.xlsx
+++ b/game_template/model/data/floor builder Level 9.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -17,11 +17,12 @@
     <sheet name="Basic" sheetId="68" r:id="rId3"/>
     <sheet name="Start" sheetId="92" r:id="rId4"/>
     <sheet name="Deceiver" sheetId="94" r:id="rId5"/>
-    <sheet name="End" sheetId="93" r:id="rId6"/>
-    <sheet name="Tiles" sheetId="56" r:id="rId7"/>
+    <sheet name="Pool" sheetId="95" r:id="rId6"/>
+    <sheet name="End" sheetId="93" r:id="rId7"/>
+    <sheet name="Tiles" sheetId="56" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Tiles!$C$1:$C$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Tiles!$C$1:$C$64</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="229">
   <si>
     <t>width</t>
   </si>
@@ -1950,7 +1951,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="29">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4839,12 +4868,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6631,22 +6660,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="22" priority="4">
+    <cfRule type="expression" dxfId="26" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8434,22 +8463,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="18" priority="4">
+    <cfRule type="expression" dxfId="22" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8784,10 +8813,10 @@
         <v>6</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>6</v>
+        <v>228</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>6</v>
@@ -8841,11 +8870,11 @@
       <c r="Y5" s="7"/>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        :::   ()   :</v>
+        <v xml:space="preserve">   /\   :::   ()   :</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>'        :::   ()   :',</v>
+        <v>'   /\   :::   ()   :',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -8859,13 +8888,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>228</v>
+        <v>6</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>6</v>
@@ -8916,11 +8945,11 @@
       <c r="Y6" s="7"/>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    /\  (:)        (</v>
+        <v xml:space="preserve">   ()   (:)        (</v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>'    /\  (:)        (',</v>
+        <v>'   ()   (:)        (',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -8937,10 +8966,10 @@
         <v>6</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>6</v>
@@ -8991,16 +9020,16 @@
       <c r="Y7" s="7"/>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ()  `l`        /</v>
+        <v xml:space="preserve">        `l`        /</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>'    ()  `l`        /',</v>
+        <v>'        `l`        /',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>6</v>
+        <v>228</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>6</v>
@@ -9066,34 +9095,34 @@
       <c r="Y8" s="7"/>
       <c r="AA8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        ```        :</v>
+        <v>\       ```        :</v>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="1"/>
-        <v>'        ```        :',</v>
+        <v>'\       ```        :',</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>132</v>
@@ -9114,16 +9143,16 @@
         <v>6</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="O9" s="12" t="s">
         <v>6</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="R9" s="12" t="s">
         <v>6</v>
@@ -9141,16 +9170,16 @@
       <c r="Y9" s="7"/>
       <c r="AA9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">       `````       :</v>
+        <v>W``````````` ` ``  :</v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="1"/>
-        <v>'       `````       :',</v>
+        <v>'W``````````` ` ``  :',</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>6</v>
@@ -9198,7 +9227,7 @@
         <v>6</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="R10" s="12" t="s">
         <v>6</v>
@@ -9216,11 +9245,11 @@
       <c r="Y10" s="7"/>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">         `        /:</v>
+        <v>)        `      ` /:</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>'         `        /:',</v>
+        <v>')        `      ` /:',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -9228,10 +9257,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>228</v>
+        <v>6</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>6</v>
@@ -9273,7 +9302,7 @@
         <v>6</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="R11" s="12" t="s">
         <v>6</v>
@@ -9291,11 +9320,11 @@
       <c r="Y11" s="7"/>
       <c r="AA11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> /\          /\   ::</v>
+        <v xml:space="preserve">             /\ ` ::</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="1"/>
-        <v>' /\          /\   ::',</v>
+        <v>'             /\ ` ::',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -9303,10 +9332,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>6</v>
@@ -9348,7 +9377,7 @@
         <v>6</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="R12" s="12" t="s">
         <v>6</v>
@@ -9366,11 +9395,11 @@
       <c r="Y12" s="7"/>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> ()          ()   ()</v>
+        <v xml:space="preserve">             () ` ()</v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>' ()          ()   ()',</v>
+        <v>'             () ` ()',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -9378,10 +9407,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>6</v>
+        <v>228</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>6</v>
@@ -9423,7 +9452,7 @@
         <v>6</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="R13" s="12" t="s">
         <v>6</v>
@@ -9441,11 +9470,11 @@
       <c r="Y13" s="7"/>
       <c r="AA13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">       /\/\        /</v>
+        <v xml:space="preserve"> /\    /\/\     `  /</v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="1"/>
-        <v>'       /\/\        /',</v>
+        <v>' /\    /\/\     `  /',</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -9453,10 +9482,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>6</v>
@@ -9492,19 +9521,19 @@
         <v>6</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="R14" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="S14" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="T14" s="12" t="s">
         <v>22</v>
@@ -9516,11 +9545,11 @@
       <c r="Y14" s="7"/>
       <c r="AA14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">       ::::        E</v>
+        <v xml:space="preserve"> ()    ::::   `````E</v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>'       ::::        E',</v>
+        <v>' ()    ::::   `````E',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -9567,7 +9596,7 @@
         <v>6</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="P15" s="12" t="s">
         <v>6</v>
@@ -9591,11 +9620,11 @@
       <c r="Y15" s="7"/>
       <c r="AA15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">       (::)        (</v>
+        <v xml:space="preserve">       (::)   `    (</v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="1"/>
-        <v>'       (::)        (',</v>
+        <v>'       (::)   `    (',</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -9642,7 +9671,7 @@
         <v>6</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="P16" s="12" t="s">
         <v>6</v>
@@ -9666,11 +9695,11 @@
       <c r="Y16" s="7"/>
       <c r="AA16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                /\  </v>
+        <v xml:space="preserve">              ` /\  </v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
-        <v>'                /\  ',</v>
+        <v>'              ` /\  ',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -9702,22 +9731,22 @@
         <v>6</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="P17" s="12" t="s">
         <v>6</v>
@@ -9741,11 +9770,11 @@
       <c r="Y17" s="7"/>
       <c r="AA17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                ()  </v>
+        <v xml:space="preserve">         `````` ()  </v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="1"/>
-        <v>'                ()  ',</v>
+        <v>'         `````` ()  ',</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -9777,7 +9806,7 @@
         <v>6</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>6</v>
@@ -9816,11 +9845,11 @@
       <c r="Y18" s="7"/>
       <c r="AA18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">         `          </v>
       </c>
       <c r="AB18" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'         `          ',</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -10226,22 +10255,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10254,8 +10283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11666,7 +11695,7 @@
         <v>6</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="R19" s="12" t="s">
         <v>6</v>
@@ -11684,11 +11713,11 @@
       <c r="Y19" s="7"/>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v>:\        :       /:</v>
+        <v>:\        :     - /:</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>':\        :       /:',</v>
+        <v>':\        :     - /:',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -12029,22 +12058,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12057,8 +12086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB1:AB20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12071,64 +12100,64 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>228</v>
+        <v>41</v>
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -12137,73 +12166,73 @@
       <c r="Y1" s="3"/>
       <c r="AA1" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
-        <v>/:::::::)N(::::::::\</v>
+        <v>!!!!!!!!!!!!!!!!!!!!</v>
       </c>
       <c r="AB1" t="str">
         <f>"'"&amp;AA1&amp;"',"</f>
-        <v>'/:::::::)N(::::::::\',</v>
+        <v>'!!!!!!!!!!!!!!!!!!!!',</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
@@ -12212,73 +12241,73 @@
       <c r="Y2" s="7"/>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v>:)       `        (:</v>
+        <v>!!!!!!!!!!!!!!!!!!!!</v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB25" si="1">"'"&amp;AA2&amp;"',"</f>
-        <v>':)       `        (:',</v>
+        <v>'!!!!!!!!!!!!!!!!!!!!',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
@@ -12287,28 +12316,28 @@
       <c r="Y3" s="7"/>
       <c r="AA3" t="str">
         <f t="shared" si="0"/>
-        <v>:       ```        :</v>
+        <v>!!!!:)()()(::)(:!!!!</v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="1"/>
-        <v>':       ```        :',</v>
+        <v>'!!!!:)()()(::)(:!!!!',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>6</v>
@@ -12320,13 +12349,13 @@
         <v>6</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="L4" s="12" t="s">
         <v>6</v>
@@ -12341,19 +12370,19 @@
         <v>6</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
@@ -12362,25 +12391,25 @@
       <c r="Y4" s="7"/>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
-        <v>:       ```        :</v>
+        <v>!!!:)          (:!!!</v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="1"/>
-        <v>':       ```        :',</v>
+        <v>'!!!:)          (:!!!',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>6</v>
@@ -12419,16 +12448,16 @@
         <v>6</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
@@ -12437,22 +12466,22 @@
       <c r="Y5" s="7"/>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v>:                  :</v>
+        <v>!!:)            (:!!</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>':                  :',</v>
+        <v>'!!:)            (:!!',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>6</v>
@@ -12497,13 +12526,13 @@
         <v>6</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
@@ -12512,22 +12541,22 @@
       <c r="Y6" s="7"/>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v>:                  :</v>
+        <v>!!:              :!!</v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>':                  :',</v>
+        <v>'!!:              :!!',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>6</v>
@@ -12548,7 +12577,7 @@
         <v>6</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>6</v>
@@ -12569,16 +12598,16 @@
         <v>6</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
@@ -12587,28 +12616,28 @@
       <c r="Y7" s="7"/>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v>:                  :</v>
+        <v>!!w      `      /w!!</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>':                  :',</v>
+        <v>'!!w      `      /w!!',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>6</v>
@@ -12623,7 +12652,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>6</v>
@@ -12641,19 +12670,19 @@
         <v>6</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
@@ -12662,22 +12691,22 @@
       <c r="Y8" s="7"/>
       <c r="AA8" t="str">
         <f t="shared" si="0"/>
-        <v>:                  :</v>
+        <v>!!www    `     www!!</v>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="1"/>
-        <v>':                  :',</v>
+        <v>'!!www    `     www!!',</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>6</v>
@@ -12695,13 +12724,13 @@
         <v>6</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>6</v>
@@ -12722,13 +12751,13 @@
         <v>6</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
@@ -12737,22 +12766,22 @@
       <c r="Y9" s="7"/>
       <c r="AA9" t="str">
         <f t="shared" si="0"/>
-        <v>:                  :</v>
+        <v>!!w     ```      w!!</v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="1"/>
-        <v>':                  :',</v>
+        <v>'!!w     ```      w!!',</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>6</v>
@@ -12764,25 +12793,25 @@
         <v>6</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="N10" s="12" t="s">
         <v>6</v>
@@ -12797,13 +12826,13 @@
         <v>6</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
@@ -12812,22 +12841,22 @@
       <c r="Y10" s="7"/>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v>:                  :</v>
+        <v>!!w   ```+```    w!!</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>':                  :',</v>
+        <v>'!!w   ```+```    w!!',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>6</v>
@@ -12845,13 +12874,13 @@
         <v>6</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="L11" s="12" t="s">
         <v>6</v>
@@ -12872,13 +12901,13 @@
         <v>6</v>
       </c>
       <c r="R11" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
@@ -12887,25 +12916,25 @@
       <c r="Y11" s="7"/>
       <c r="AA11" t="str">
         <f t="shared" si="0"/>
-        <v>:                  :</v>
+        <v>!!w     ```      w!!</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="1"/>
-        <v>':                  :',</v>
+        <v>'!!w     ```      w!!',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>6</v>
+        <v>228</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>6</v>
@@ -12923,7 +12952,7 @@
         <v>6</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>6</v>
@@ -12947,13 +12976,13 @@
         <v>6</v>
       </c>
       <c r="R12" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="S12" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
@@ -12962,28 +12991,28 @@
       <c r="Y12" s="7"/>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v>:                  :</v>
+        <v>!!w\     `       w!!</v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>':                  :',</v>
+        <v>'!!w\     `       w!!',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>6</v>
@@ -12998,7 +13027,7 @@
         <v>6</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>6</v>
@@ -13016,19 +13045,19 @@
         <v>6</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
@@ -13037,25 +13066,25 @@
       <c r="Y13" s="7"/>
       <c r="AA13" t="str">
         <f t="shared" si="0"/>
-        <v>)                  :</v>
+        <v>!!www    `     www!!</v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="1"/>
-        <v>')                  :',</v>
+        <v>'!!www    `     www!!',</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>228</v>
+        <v>41</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>6</v>
@@ -13097,13 +13126,13 @@
         <v>6</v>
       </c>
       <c r="R14" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="S14" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
@@ -13112,22 +13141,22 @@
       <c r="Y14" s="7"/>
       <c r="AA14" t="str">
         <f t="shared" si="0"/>
-        <v>\                  (</v>
+        <v>!!w)             w!!</v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>'\                  (',</v>
+        <v>'!!w)             w!!',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>6</v>
+        <v>228</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>6</v>
@@ -13172,13 +13201,13 @@
         <v>6</v>
       </c>
       <c r="R15" s="12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="S15" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
@@ -13187,25 +13216,25 @@
       <c r="Y15" s="7"/>
       <c r="AA15" t="str">
         <f t="shared" si="0"/>
-        <v>:                  /</v>
+        <v>!!\              /!!</v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="1"/>
-        <v>':                  /',</v>
+        <v>'!!\              /!!',</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>6</v>
+        <v>228</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>6</v>
@@ -13241,19 +13270,19 @@
         <v>6</v>
       </c>
       <c r="P16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="Q16" s="12" t="s">
-        <v>2</v>
-      </c>
       <c r="R16" s="12" t="s">
-        <v>228</v>
+        <v>2</v>
       </c>
       <c r="S16" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
@@ -13262,73 +13291,73 @@
       <c r="Y16" s="7"/>
       <c r="AA16" t="str">
         <f t="shared" si="0"/>
-        <v>:              /:\ (</v>
+        <v>!!:\            /:!!</v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
-        <v>':              /:\ (',</v>
+        <v>'!!:\            /:!!',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="O17" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="P17" s="12" t="s">
-        <v>2</v>
-      </c>
       <c r="Q17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="R17" s="12" t="s">
-        <v>2</v>
-      </c>
       <c r="S17" s="12" t="s">
-        <v>228</v>
+        <v>41</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
@@ -13337,61 +13366,61 @@
       <c r="Y17" s="7"/>
       <c r="AA17" t="str">
         <f t="shared" si="0"/>
-        <v>)/:\     `    /:!:\/</v>
+        <v>!!!:\          /:!!!</v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="1"/>
-        <v>')/:\     `    /:!:\/',</v>
+        <v>'!!!:\          /:!!!',</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="E18" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>6</v>
-      </c>
       <c r="G18" s="12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>132</v>
+        <v>228</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>132</v>
+        <v>228</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N18" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="O18" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="O18" s="12" t="s">
-        <v>2</v>
-      </c>
       <c r="P18" s="12" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>41</v>
@@ -13400,10 +13429,10 @@
         <v>41</v>
       </c>
       <c r="S18" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
@@ -13412,11 +13441,11 @@
       <c r="Y18" s="7"/>
       <c r="AA18" t="str">
         <f t="shared" si="0"/>
-        <v>/:!:\   ```  /:!!!::</v>
+        <v>!!!!:\/:\/\/:\/:!!!!</v>
       </c>
       <c r="AB18" t="str">
         <f t="shared" si="1"/>
-        <v>'/:!:\   ```  /:!!!::',</v>
+        <v>'!!!!:\/:\/\/:\/:!!!!',</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -13436,31 +13465,31 @@
         <v>41</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>228</v>
+        <v>41</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="O19" s="12" t="s">
         <v>41</v>
@@ -13487,73 +13516,73 @@
       <c r="Y19" s="7"/>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!\ ``L`` :!!!!!!</v>
+        <v>!!!!!!!!!!!!!!!!!!!!</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>'!!!!!\ ``L`` :!!!!!!',</v>
+        <v>'!!!!!!!!!!!!!!!!!!!!',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>228</v>
+        <v>41</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>228</v>
+        <v>41</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="R20" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="S20" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
@@ -13562,11 +13591,11 @@
       <c r="Y20" s="7"/>
       <c r="AA20" t="str">
         <f t="shared" si="0"/>
-        <v>(::::)/:\`/:\(:::::)</v>
+        <v>!!!!!!!!!!!!!!!!!!!!</v>
       </c>
       <c r="AB20" t="str">
         <f t="shared" si="1"/>
-        <v>'(::::)/:\`/:\(:::::)',</v>
+        <v>'!!!!!!!!!!!!!!!!!!!!',</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -13831,23 +13860,23 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="10" priority="4">
+  <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13857,6 +13886,1809 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB20" sqref="AB1:AB20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="3"/>
+      <c r="AA1" t="str">
+        <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
+        <v>/:::::::)N(::::::::\</v>
+      </c>
+      <c r="AB1" t="str">
+        <f>"'"&amp;AA1&amp;"',"</f>
+        <v>'/:::::::)N(::::::::\',</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="7"/>
+      <c r="AA2" t="str">
+        <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
+        <v>:)       `        (:</v>
+      </c>
+      <c r="AB2" t="str">
+        <f t="shared" ref="AB2:AB25" si="1">"'"&amp;AA2&amp;"',"</f>
+        <v>':)       `        (:',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="7"/>
+      <c r="AA3" t="str">
+        <f t="shared" si="0"/>
+        <v>:       ```        :</v>
+      </c>
+      <c r="AB3" t="str">
+        <f t="shared" si="1"/>
+        <v>':       ```        :',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="7"/>
+      <c r="AA4" t="str">
+        <f t="shared" si="0"/>
+        <v>:       ```        :</v>
+      </c>
+      <c r="AB4" t="str">
+        <f t="shared" si="1"/>
+        <v>':       ```        :',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="7"/>
+      <c r="AA5" t="str">
+        <f t="shared" si="0"/>
+        <v>:                  :</v>
+      </c>
+      <c r="AB5" t="str">
+        <f t="shared" si="1"/>
+        <v>':                  :',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="7"/>
+      <c r="AA6" t="str">
+        <f t="shared" si="0"/>
+        <v>:                  :</v>
+      </c>
+      <c r="AB6" t="str">
+        <f t="shared" si="1"/>
+        <v>':                  :',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="7"/>
+      <c r="AA7" t="str">
+        <f t="shared" si="0"/>
+        <v>:                  :</v>
+      </c>
+      <c r="AB7" t="str">
+        <f t="shared" si="1"/>
+        <v>':                  :',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="7"/>
+      <c r="AA8" t="str">
+        <f t="shared" si="0"/>
+        <v>:                  :</v>
+      </c>
+      <c r="AB8" t="str">
+        <f t="shared" si="1"/>
+        <v>':                  :',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="7"/>
+      <c r="AA9" t="str">
+        <f t="shared" si="0"/>
+        <v>:                  :</v>
+      </c>
+      <c r="AB9" t="str">
+        <f t="shared" si="1"/>
+        <v>':                  :',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="7"/>
+      <c r="AA10" t="str">
+        <f t="shared" si="0"/>
+        <v>:                  :</v>
+      </c>
+      <c r="AB10" t="str">
+        <f t="shared" si="1"/>
+        <v>':                  :',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="7"/>
+      <c r="AA11" t="str">
+        <f t="shared" si="0"/>
+        <v>:                  :</v>
+      </c>
+      <c r="AB11" t="str">
+        <f t="shared" si="1"/>
+        <v>':                  :',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="7"/>
+      <c r="AA12" t="str">
+        <f t="shared" si="0"/>
+        <v>:                  :</v>
+      </c>
+      <c r="AB12" t="str">
+        <f t="shared" si="1"/>
+        <v>':                  :',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="7"/>
+      <c r="AA13" t="str">
+        <f t="shared" si="0"/>
+        <v>)                  :</v>
+      </c>
+      <c r="AB13" t="str">
+        <f t="shared" si="1"/>
+        <v>')                  :',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="7"/>
+      <c r="AA14" t="str">
+        <f t="shared" si="0"/>
+        <v>\                  (</v>
+      </c>
+      <c r="AB14" t="str">
+        <f t="shared" si="1"/>
+        <v>'\                  (',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="7"/>
+      <c r="AA15" t="str">
+        <f t="shared" si="0"/>
+        <v>:                  /</v>
+      </c>
+      <c r="AB15" t="str">
+        <f t="shared" si="1"/>
+        <v>':                  /',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="7"/>
+      <c r="AA16" t="str">
+        <f t="shared" si="0"/>
+        <v>:              /:\ (</v>
+      </c>
+      <c r="AB16" t="str">
+        <f t="shared" si="1"/>
+        <v>':              /:\ (',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="7"/>
+      <c r="AA17" t="str">
+        <f t="shared" si="0"/>
+        <v>)/:\     `    /:!:\/</v>
+      </c>
+      <c r="AB17" t="str">
+        <f t="shared" si="1"/>
+        <v>')/:\     `    /:!:\/',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="7"/>
+      <c r="AA18" t="str">
+        <f t="shared" si="0"/>
+        <v>/:!:\   ```  /:!!!::</v>
+      </c>
+      <c r="AB18" t="str">
+        <f t="shared" si="1"/>
+        <v>'/:!:\   ```  /:!!!::',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="T19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="7"/>
+      <c r="AA19" t="str">
+        <f t="shared" si="0"/>
+        <v>!!!!!\ ``L`` :!!!!!!</v>
+      </c>
+      <c r="AB19" t="str">
+        <f t="shared" si="1"/>
+        <v>'!!!!!\ ``L`` :!!!!!!',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="7"/>
+      <c r="AA20" t="str">
+        <f t="shared" si="0"/>
+        <v>(::::)/:\`/:\(:::::)</v>
+      </c>
+      <c r="AB20" t="str">
+        <f t="shared" si="1"/>
+        <v>'(::::)/:\`/:\(:::::)',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
+        <f>COLUMN()</f>
+        <v>1</v>
+      </c>
+      <c r="B21" s="25">
+        <f>COLUMN()</f>
+        <v>2</v>
+      </c>
+      <c r="C21" s="25">
+        <f>COLUMN()</f>
+        <v>3</v>
+      </c>
+      <c r="D21" s="25">
+        <f>COLUMN()</f>
+        <v>4</v>
+      </c>
+      <c r="E21" s="25">
+        <f>COLUMN()</f>
+        <v>5</v>
+      </c>
+      <c r="F21" s="25">
+        <f>COLUMN()</f>
+        <v>6</v>
+      </c>
+      <c r="G21" s="25">
+        <f>COLUMN()</f>
+        <v>7</v>
+      </c>
+      <c r="H21" s="25">
+        <f>COLUMN()</f>
+        <v>8</v>
+      </c>
+      <c r="I21" s="25">
+        <f>COLUMN()</f>
+        <v>9</v>
+      </c>
+      <c r="J21" s="25">
+        <f>COLUMN()</f>
+        <v>10</v>
+      </c>
+      <c r="K21" s="25">
+        <f>COLUMN()</f>
+        <v>11</v>
+      </c>
+      <c r="L21" s="25">
+        <f>COLUMN()</f>
+        <v>12</v>
+      </c>
+      <c r="M21" s="25">
+        <f>COLUMN()</f>
+        <v>13</v>
+      </c>
+      <c r="N21" s="25">
+        <f>COLUMN()</f>
+        <v>14</v>
+      </c>
+      <c r="O21" s="25">
+        <f>COLUMN()</f>
+        <v>15</v>
+      </c>
+      <c r="P21" s="25">
+        <f>COLUMN()</f>
+        <v>16</v>
+      </c>
+      <c r="Q21" s="25">
+        <f>COLUMN()</f>
+        <v>17</v>
+      </c>
+      <c r="R21" s="25">
+        <f>COLUMN()</f>
+        <v>18</v>
+      </c>
+      <c r="S21" s="25">
+        <f>COLUMN()</f>
+        <v>19</v>
+      </c>
+      <c r="T21" s="25">
+        <f>COLUMN()</f>
+        <v>20</v>
+      </c>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="7"/>
+      <c r="AA21" t="str">
+        <f t="shared" si="0"/>
+        <v>1234567891011121314151617181920</v>
+      </c>
+      <c r="AB21" t="str">
+        <f t="shared" si="1"/>
+        <v>'1234567891011121314151617181920',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="7"/>
+      <c r="AA22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB22" t="str">
+        <f t="shared" si="1"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="7"/>
+      <c r="AA23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB23" t="str">
+        <f t="shared" si="1"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="7"/>
+      <c r="AA24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB24" t="str">
+        <f t="shared" si="1"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="11"/>
+      <c r="AA25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB25" t="str">
+        <f t="shared" si="1"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
+    <cfRule type="expression" dxfId="14" priority="4">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
+    <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:T21">
+    <cfRule type="expression" dxfId="12" priority="2">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:T21">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K67"/>
   <sheetViews>
@@ -16019,17 +17851,17 @@
     <sortCondition ref="B2:B66"/>
   </sortState>
   <conditionalFormatting sqref="D1:D65 D67:D1048576">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K65">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/game_template/model/data/floor builder Level 9.xlsx
+++ b/game_template/model/data/floor builder Level 9.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="1" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="1" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="Tiles" sheetId="56" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Tiles!$C$1:$C$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Tiles!$C$1:$C$69</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5517" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5527" uniqueCount="238">
   <si>
     <t>width</t>
   </si>
@@ -1735,6 +1735,24 @@
   <si>
     <t>BOSS</t>
   </si>
+  <si>
+    <t>DOOR_OPEN</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>BOSS_DOOR_OPEN</t>
+  </si>
+  <si>
+    <t>BOSS_KEY</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
 </sst>
 </file>
 
@@ -1980,7 +1998,49 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="75">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2422,6 +2482,48 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5135,12 +5237,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="62" priority="2">
+    <cfRule type="expression" dxfId="68" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="61" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6927,22 +7029,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="24" priority="4">
+    <cfRule type="expression" dxfId="34" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="23" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8732,22 +8834,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="30" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="19" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10538,22 +10640,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="26" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10569,8 +10671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11959,7 +12061,7 @@
         <v>11</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>39</v>
+        <v>233</v>
       </c>
       <c r="K19" s="12" t="s">
         <v>228</v>
@@ -11998,11 +12100,11 @@
       <c r="Y19" s="7"/>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        /d\         </v>
+        <v xml:space="preserve">        /F\         </v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>'        /d\         ',</v>
+        <v>'        /F\         ',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -12343,22 +12445,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="60" priority="4">
+    <cfRule type="expression" dxfId="22" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="59" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="58" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="57" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14146,22 +14248,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14175,11 +14277,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14228,7 +14330,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E35" si="0">B2&amp;"='"&amp;C2&amp;"'"</f>
+        <f>B2&amp;"='"&amp;C2&amp;"'"</f>
         <v>BANG='$'</v>
       </c>
       <c r="H2" s="23" t="s">
@@ -14262,18 +14364,18 @@
         <v>0</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" si="0"/>
+        <f>B3&amp;"='"&amp;C3&amp;"'"</f>
         <v>BOMB='q'</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>131</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I67" si="1">TRIM(MID($H3,1,FIND("=",$H3)-1))</f>
+        <f t="shared" ref="I3:I70" si="0">TRIM(MID($H3,1,FIND("=",$H3)-1))</f>
         <v>TILE1</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J67" si="2">SUBSTITUTE(TRIM(MID($H3,FIND("=",$H3)+1,200)),"'","")</f>
+        <f t="shared" ref="J3:J70" si="1">SUBSTITUTE(TRIM(MID($H3,FIND("=",$H3)+1,200)),"'","")</f>
         <v>`</v>
       </c>
       <c r="K3" s="17" t="b">
@@ -14296,18 +14398,18 @@
         <v>0</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="0"/>
+        <f>B4&amp;"='"&amp;C4&amp;"'"</f>
         <v>BOMB_LIT='Q'</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>130</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>TILE2</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>¬</v>
       </c>
       <c r="K4" s="17" t="b">
@@ -14316,92 +14418,95 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>219</v>
+      </c>
       <c r="B5" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>39</v>
+        <v>231</v>
+      </c>
+      <c r="C5" s="18">
+        <v>4</v>
       </c>
       <c r="D5" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C5)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>BOSS_DOOR='d'</v>
+        <f>B5&amp;"='"&amp;C5&amp;"'"</f>
+        <v>BOSS='4'</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>128</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>TILE3</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="K5" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J5)))&gt;1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>9</v>
+        <v>233</v>
       </c>
       <c r="D6" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C6)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>BRAZIER='B'</v>
+        <f>B6&amp;"='"&amp;C6&amp;"'"</f>
+        <v>BOSS_DOOR='F'</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="1"/>
-        <v>TILE4</v>
+        <f t="shared" si="0"/>
+        <v>TILE3</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="2"/>
-        <v>~</v>
+        <f t="shared" si="1"/>
+        <v>.</v>
       </c>
       <c r="K6" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J6)))&gt;1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
-        <v>162</v>
+        <v>235</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="D7" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C7)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>DECORATION1='z'</v>
+        <f>B7&amp;"='"&amp;C7&amp;"'"</f>
+        <v>BOSS_DOOR_OPEN='f'</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="1"/>
-        <v>BOMB</v>
+        <f t="shared" si="0"/>
+        <v>TILE4</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="2"/>
-        <v>q</v>
+        <f t="shared" si="1"/>
+        <v>~</v>
       </c>
       <c r="K7" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J7)))&gt;1</f>
@@ -14410,29 +14515,29 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D8" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C8)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>DECORATION2='Z'</v>
+        <f>B8&amp;"='"&amp;C8&amp;"'"</f>
+        <v>BRAZIER='B'</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="1"/>
-        <v>BOMB_LIT</v>
+        <f t="shared" si="0"/>
+        <v>BOMB</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="2"/>
-        <v>Q</v>
+        <f t="shared" si="1"/>
+        <v>q</v>
       </c>
       <c r="K8" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J8)))&gt;1</f>
@@ -14441,29 +14546,29 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D9" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C9)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>DOOR='D'</v>
+        <f>B9&amp;"='"&amp;C9&amp;"'"</f>
+        <v>DECORATION1='z'</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="1"/>
-        <v>BOSS_DOOR</v>
+        <f t="shared" si="0"/>
+        <v>BOMB_LIT</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="2"/>
-        <v>d</v>
+        <f t="shared" si="1"/>
+        <v>Q</v>
       </c>
       <c r="K9" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J9)))&gt;1</f>
@@ -14472,94 +14577,91 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C10)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>DOT1='!'</v>
+        <f>B10&amp;"='"&amp;C10&amp;"'"</f>
+        <v>DECORATION2='Z'</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="1"/>
-        <v>BRAZIER</v>
+        <f t="shared" si="0"/>
+        <v>BOSS_DOOR</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="2"/>
-        <v>B</v>
+        <f t="shared" si="1"/>
+        <v>d</v>
       </c>
       <c r="K10" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J10)))&gt;1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D11" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C11)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>DOT2='£'</v>
+        <f>B11&amp;"='"&amp;C11&amp;"'"</f>
+        <v>DOOR='D'</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="1"/>
-        <v>DECORATION1</v>
+        <f t="shared" si="0"/>
+        <v>BOSS_DOOR</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="2"/>
-        <v>z</v>
+        <f t="shared" si="1"/>
+        <v>d</v>
       </c>
       <c r="K11" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J11)))&gt;1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>220</v>
-      </c>
       <c r="B12" s="16" t="s">
-        <v>167</v>
+        <v>232</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D12" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C12)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>DOWN='-'</v>
+        <f>B12&amp;"='"&amp;C12&amp;"'"</f>
+        <v>DOOR_OPEN='d'</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="1"/>
-        <v>DECORATION2</v>
+        <f t="shared" si="0"/>
+        <v>BRAZIER</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="2"/>
-        <v>Z</v>
+        <f t="shared" si="1"/>
+        <v>B</v>
       </c>
       <c r="K12" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J12)))&gt;1</f>
@@ -14567,33 +14669,30 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>220</v>
-      </c>
       <c r="B13" s="16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D13" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C13)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>EAST='E'</v>
+        <f>B13&amp;"='"&amp;C13&amp;"'"</f>
+        <v>DOT1='!'</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="1"/>
-        <v>DOOR</v>
+        <f t="shared" si="0"/>
+        <v>DECORATION1</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="2"/>
-        <v>D</v>
+        <f t="shared" si="1"/>
+        <v>z</v>
       </c>
       <c r="K13" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J13)))&gt;1</f>
@@ -14602,29 +14701,29 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D14" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C14)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>EMPTY=' '</v>
+        <f>B14&amp;"='"&amp;C14&amp;"'"</f>
+        <v>DOT2='£'</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="1"/>
-        <v>DOT1</v>
+        <f t="shared" si="0"/>
+        <v>DECORATION2</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="2"/>
-        <v>!</v>
+        <f t="shared" si="1"/>
+        <v>Z</v>
       </c>
       <c r="K14" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J14)))&gt;1</f>
@@ -14632,30 +14731,33 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>220</v>
+      </c>
       <c r="B15" s="16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D15" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C15)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>EXIT_KEY='%'</v>
+        <f>B15&amp;"='"&amp;C15&amp;"'"</f>
+        <v>DOWN='-'</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="1"/>
-        <v>DOT2</v>
+        <f t="shared" si="0"/>
+        <v>DOOR</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="2"/>
-        <v>£</v>
+        <f t="shared" si="1"/>
+        <v>D</v>
       </c>
       <c r="K15" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J15)))&gt;1</f>
@@ -14663,30 +14765,33 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>220</v>
+      </c>
       <c r="B16" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D16" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C16)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>HEART='HP'</v>
+        <f>B16&amp;"='"&amp;C16&amp;"'"</f>
+        <v>EAST='E'</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="1"/>
-        <v>DOWN</v>
+        <f t="shared" si="0"/>
+        <v>DOT1</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>!</v>
       </c>
       <c r="K16" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J16)))&gt;1</f>
@@ -14694,33 +14799,30 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>223</v>
-      </c>
       <c r="B17" s="16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D17" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C17)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>KEY='?'</v>
+        <f>B17&amp;"='"&amp;C17&amp;"'"</f>
+        <v>EMPTY=' '</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="1"/>
-        <v>EAST</v>
+        <f t="shared" si="0"/>
+        <v>DOT2</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="2"/>
-        <v>E</v>
+        <f t="shared" si="1"/>
+        <v>£</v>
       </c>
       <c r="K17" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J17)))&gt;1</f>
@@ -14728,33 +14830,30 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>223</v>
-      </c>
       <c r="B18" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C18)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>MAP='M'</v>
+        <f>B18&amp;"='"&amp;C18&amp;"'"</f>
+        <v>EXIT_KEY='%'</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="1"/>
-        <v>EMPTY</v>
+        <f t="shared" si="0"/>
+        <v>DOWN</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="K18" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J18)))&gt;1</f>
@@ -14762,33 +14861,30 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>219</v>
-      </c>
       <c r="B19" s="16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>175</v>
+        <v>44</v>
       </c>
       <c r="D19" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C19)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>MONSTER1='1'</v>
+        <f>B19&amp;"='"&amp;C19&amp;"'"</f>
+        <v>HEART='HP'</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="1"/>
-        <v>EXIT_KEY</v>
+        <f t="shared" si="0"/>
+        <v>EAST</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="2"/>
-        <v>%</v>
+        <f t="shared" si="1"/>
+        <v>E</v>
       </c>
       <c r="K19" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J19)))&gt;1</f>
@@ -14797,66 +14893,66 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>177</v>
+        <v>8</v>
       </c>
       <c r="D20" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C20)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>MONSTER2='2'</v>
+        <f>B20&amp;"='"&amp;C20&amp;"'"</f>
+        <v>KEY='?'</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="1"/>
-        <v>HEART</v>
+        <f t="shared" si="0"/>
+        <v>EMPTY</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="2"/>
-        <v>HP</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K20" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J20)))&gt;1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>178</v>
+        <v>236</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="D21" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C21)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>MONSTER3='3'</v>
+        <f>B21&amp;"='"&amp;C21&amp;"'"</f>
+        <v>BOSS_KEY='K'</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="1"/>
-        <v>KEY</v>
+        <f t="shared" si="0"/>
+        <v>EMPTY</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="2"/>
-        <v>?</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K21" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J21)))&gt;1</f>
@@ -14865,66 +14961,66 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="C22" s="18">
-        <v>4</v>
+        <v>173</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="D22" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C22)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" ref="E22" si="3">B22&amp;"='"&amp;C22&amp;"'"</f>
-        <v>BOSS='4'</v>
+        <f>B22&amp;"='"&amp;C22&amp;"'"</f>
+        <v>MAP='M'</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="1"/>
-        <v>KEY</v>
+        <f t="shared" si="0"/>
+        <v>EXIT_KEY</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="2"/>
-        <v>?</v>
+        <f t="shared" si="1"/>
+        <v>%</v>
       </c>
       <c r="K22" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J22)))&gt;1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="D23" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C23)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>NEXT_LEVEL='L'</v>
+        <f>B23&amp;"='"&amp;C23&amp;"'"</f>
+        <v>MONSTER1='1'</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="1"/>
-        <v>MAP</v>
+        <f t="shared" si="0"/>
+        <v>HEART</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="2"/>
-        <v>M</v>
+        <f t="shared" si="1"/>
+        <v>HP</v>
       </c>
       <c r="K23" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J23)))&gt;1</f>
@@ -14933,94 +15029,100 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="D24" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C24)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>NORTH='N'</v>
+        <f>B24&amp;"='"&amp;C24&amp;"'"</f>
+        <v>MONSTER2='2'</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="1"/>
-        <v>MONSTER1</v>
+        <f t="shared" si="0"/>
+        <v>KEY</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>?</v>
       </c>
       <c r="K24" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J24)))&gt;1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>219</v>
+      </c>
       <c r="B25" s="16" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="D25" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C25)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>PLAYER='P'</v>
+        <f>B25&amp;"='"&amp;C25&amp;"'"</f>
+        <v>MONSTER3='3'</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="1"/>
-        <v>MONSTER2</v>
+        <f t="shared" si="0"/>
+        <v>KEY</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>?</v>
       </c>
       <c r="K25" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J25)))&gt;1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>220</v>
+      </c>
       <c r="B26" s="16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D26" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C26)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>PREVIOUS_LEVEL='l'</v>
+        <f>B26&amp;"='"&amp;C26&amp;"'"</f>
+        <v>NEXT_LEVEL='L'</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="1"/>
-        <v>MONSTER3</v>
+        <f t="shared" si="0"/>
+        <v>MAP</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>M</v>
       </c>
       <c r="K26" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J26)))&gt;1</f>
@@ -15029,97 +15131,94 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D27" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C27)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>RED_POTION='R'</v>
+        <f>B27&amp;"='"&amp;C27&amp;"'"</f>
+        <v>NORTH='N'</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="1"/>
-        <v>NEXT_LEVEL</v>
+        <f t="shared" si="0"/>
+        <v>MONSTER1</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="2"/>
-        <v>L</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K27" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J27)))&gt;1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>223</v>
-      </c>
       <c r="B28" s="16" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="D28" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C28)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" ref="E28" si="4">B28&amp;"='"&amp;C28&amp;"'"</f>
-        <v>REPLENISH='H'</v>
+        <f>B28&amp;"='"&amp;C28&amp;"'"</f>
+        <v>PLAYER='P'</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="1"/>
-        <v>NEXT_LEVEL</v>
+        <f t="shared" si="0"/>
+        <v>MONSTER2</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="2"/>
-        <v>L</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="K28" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J28)))&gt;1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D29" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C29)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v>RUNE='u'</v>
+        <f>B29&amp;"='"&amp;C29&amp;"'"</f>
+        <v>PREVIOUS_LEVEL='l'</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="1"/>
-        <v>NORTH</v>
+        <f t="shared" si="0"/>
+        <v>MONSTER3</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="2"/>
-        <v>N</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="K29" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J29)))&gt;1</f>
@@ -15127,92 +15226,98 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>223</v>
+      </c>
       <c r="B30" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D30" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C30)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v>RUNE1='R1'</v>
+        <f>B30&amp;"='"&amp;C30&amp;"'"</f>
+        <v>RED_POTION='R'</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="1"/>
-        <v>PLAYER</v>
+        <f t="shared" si="0"/>
+        <v>NEXT_LEVEL</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <f t="shared" si="1"/>
+        <v>L</v>
       </c>
       <c r="K30" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J30)))&gt;1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>223</v>
+      </c>
       <c r="B31" s="16" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="D31" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C31)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="0"/>
-        <v>RUNE2='R2'</v>
+        <f>B31&amp;"='"&amp;C31&amp;"'"</f>
+        <v>REPLENISH='H'</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="1"/>
-        <v>PREVIOUS_LEVEL</v>
+        <f t="shared" si="0"/>
+        <v>NEXT_LEVEL</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="2"/>
-        <v>l</v>
+        <f t="shared" si="1"/>
+        <v>L</v>
       </c>
       <c r="K31" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J31)))&gt;1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D32" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C32)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="0"/>
-        <v>RUNE3='R3'</v>
+        <f>B32&amp;"='"&amp;C32&amp;"'"</f>
+        <v>RUNE='u'</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="1"/>
-        <v>RED_POTION</v>
+        <f t="shared" si="0"/>
+        <v>NORTH</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="2"/>
-        <v>R</v>
+        <f t="shared" si="1"/>
+        <v>N</v>
       </c>
       <c r="K32" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J32)))&gt;1</f>
@@ -15221,29 +15326,29 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D33" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C33)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="0"/>
-        <v>RUNE4='R4'</v>
+        <f>B33&amp;"='"&amp;C33&amp;"'"</f>
+        <v>RUNE1='R1'</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="1"/>
-        <v>RUNE</v>
+        <f t="shared" si="0"/>
+        <v>PLAYER</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="2"/>
-        <v>u</v>
+        <f t="shared" si="1"/>
+        <v>P</v>
       </c>
       <c r="K33" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J33)))&gt;1</f>
@@ -15252,29 +15357,29 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D34" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C34)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="0"/>
-        <v>RUNE5='R5'</v>
+        <f>B34&amp;"='"&amp;C34&amp;"'"</f>
+        <v>RUNE2='R2'</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="1"/>
-        <v>RUNE1</v>
+        <f t="shared" si="0"/>
+        <v>PREVIOUS_LEVEL</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="2"/>
-        <v>R1</v>
+        <f t="shared" si="1"/>
+        <v>l</v>
       </c>
       <c r="K34" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J34)))&gt;1</f>
@@ -15282,33 +15387,30 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
-        <v>222</v>
-      </c>
       <c r="B35" s="16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>192</v>
+        <v>51</v>
       </c>
       <c r="D35" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C35)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="0"/>
-        <v>SAFETY='8'</v>
+        <f>B35&amp;"='"&amp;C35&amp;"'"</f>
+        <v>RUNE3='R3'</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="1"/>
-        <v>RUNE2</v>
+        <f t="shared" si="0"/>
+        <v>RED_POTION</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="2"/>
-        <v>R2</v>
+        <f t="shared" si="1"/>
+        <v>R</v>
       </c>
       <c r="K35" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J35)))&gt;1</f>
@@ -15316,33 +15418,30 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>221</v>
-      </c>
       <c r="B36" s="16" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D36" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C36)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" ref="E36:E68" si="5">B36&amp;"='"&amp;C36&amp;"'"</f>
-        <v>SECRET_TREASURE='J'</v>
+        <f>B36&amp;"='"&amp;C36&amp;"'"</f>
+        <v>RUNE4='R4'</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="1"/>
-        <v>RUNE3</v>
+        <f t="shared" si="0"/>
+        <v>RUNE</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="2"/>
-        <v>R3</v>
+        <f t="shared" si="1"/>
+        <v>u</v>
       </c>
       <c r="K36" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J36)))&gt;1</f>
@@ -15350,33 +15449,30 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
-        <v>224</v>
-      </c>
       <c r="B37" s="16" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D37" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C37)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="5"/>
-        <v>SECRET_WALL=';'</v>
+        <f>B37&amp;"='"&amp;C37&amp;"'"</f>
+        <v>RUNE5='R5'</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="1"/>
-        <v>RUNE4</v>
+        <f t="shared" si="0"/>
+        <v>RUNE1</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="2"/>
-        <v>R4</v>
+        <f t="shared" si="1"/>
+        <v>R1</v>
       </c>
       <c r="K37" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J37)))&gt;1</f>
@@ -15385,32 +15481,32 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="D38" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C38)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="5"/>
-        <v>SHIELD='O'</v>
+        <f>B38&amp;"='"&amp;C38&amp;"'"</f>
+        <v>SAFETY='8'</v>
       </c>
       <c r="H38" s="24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="1"/>
-        <v>RUNE5</v>
+        <f t="shared" si="0"/>
+        <v>RUNE2</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="2"/>
-        <v>R5</v>
+        <f t="shared" si="1"/>
+        <v>R2</v>
       </c>
       <c r="K38" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J38)))&gt;1</f>
@@ -15418,30 +15514,33 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>221</v>
+      </c>
       <c r="B39" s="16" t="s">
-        <v>55</v>
+        <v>193</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D39" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C39)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="5"/>
-        <v>SHOP='s'</v>
+        <f>B39&amp;"='"&amp;C39&amp;"'"</f>
+        <v>SECRET_TREASURE='J'</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="1"/>
-        <v>SAFETY</v>
+        <f t="shared" si="0"/>
+        <v>RUNE3</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>R3</v>
       </c>
       <c r="K39" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J39)))&gt;1</f>
@@ -15449,30 +15548,33 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>224</v>
+      </c>
       <c r="B40" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="D40" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C40)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="5"/>
-        <v>SHOP_KEEPER='SHOP'</v>
+        <f>B40&amp;"='"&amp;C40&amp;"'"</f>
+        <v>SECRET_WALL=';'</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="1"/>
-        <v>SECRET_TREASURE</v>
+        <f t="shared" si="0"/>
+        <v>RUNE4</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="2"/>
-        <v>J</v>
+        <f t="shared" si="1"/>
+        <v>R4</v>
       </c>
       <c r="K40" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J40)))&gt;1</f>
@@ -15481,32 +15583,32 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>17</v>
+        <v>195</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="D41" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C41)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="5"/>
-        <v>SOUTH='S'</v>
+        <f>B41&amp;"='"&amp;C41&amp;"'"</f>
+        <v>SHIELD='O'</v>
       </c>
       <c r="H41" s="24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="1"/>
-        <v>SECRET_WALL</v>
+        <f t="shared" si="0"/>
+        <v>RUNE5</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="2"/>
-        <v>;</v>
+        <f t="shared" si="1"/>
+        <v>R5</v>
       </c>
       <c r="K41" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J41)))&gt;1</f>
@@ -15514,33 +15616,30 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>220</v>
-      </c>
       <c r="B42" s="16" t="s">
-        <v>227</v>
+        <v>55</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D42" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C42)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="5"/>
-        <v>START_POSITION='='</v>
+        <f>B42&amp;"='"&amp;C42&amp;"'"</f>
+        <v>SHOP='s'</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="1"/>
-        <v>SHIELD</v>
+        <f t="shared" si="0"/>
+        <v>SAFETY</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="2"/>
-        <v>O</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="K42" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J42)))&gt;1</f>
@@ -15549,29 +15648,29 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D43" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C43)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="5"/>
-        <v>SWITCH=','</v>
+        <f>B43&amp;"='"&amp;C43&amp;"'"</f>
+        <v>SHOP_KEEPER='SHOP'</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="1"/>
-        <v>SHOP</v>
+        <f t="shared" si="0"/>
+        <v>SECRET_TREASURE</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="2"/>
-        <v>s</v>
+        <f t="shared" si="1"/>
+        <v>J</v>
       </c>
       <c r="K43" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J43)))&gt;1</f>
@@ -15579,30 +15678,33 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>220</v>
+      </c>
       <c r="B44" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>57</v>
+        <v>197</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="D44" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C44)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="5"/>
-        <v>SWITCH_LIT='&lt;'</v>
+        <f>B44&amp;"='"&amp;C44&amp;"'"</f>
+        <v>SOUTH='S'</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="1"/>
-        <v>SHOP_KEEPER</v>
+        <f t="shared" si="0"/>
+        <v>SECRET_WALL</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="2"/>
-        <v>SHOP</v>
+        <f t="shared" si="1"/>
+        <v>;</v>
       </c>
       <c r="K44" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J44)))&gt;1</f>
@@ -15610,30 +15712,33 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>220</v>
+      </c>
       <c r="B45" s="16" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D45" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C45)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="5"/>
-        <v>SWITCH_TILE='_'</v>
+        <f>B45&amp;"='"&amp;C45&amp;"'"</f>
+        <v>START_POSITION='='</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="1"/>
-        <v>SOUTH</v>
+        <f t="shared" si="0"/>
+        <v>SHIELD</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="2"/>
-        <v>S</v>
+        <f t="shared" si="1"/>
+        <v>O</v>
       </c>
       <c r="K45" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J45)))&gt;1</f>
@@ -15641,33 +15746,30 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
-        <v>222</v>
-      </c>
       <c r="B46" s="16" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="D46" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C46)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="5"/>
-        <v>TILE1='`'</v>
+        <f>B46&amp;"='"&amp;C46&amp;"'"</f>
+        <v>SWITCH=','</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="1"/>
-        <v>START_POSITON</v>
+        <f t="shared" si="0"/>
+        <v>SHOP</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="2"/>
-        <v>=</v>
+        <f t="shared" si="1"/>
+        <v>s</v>
       </c>
       <c r="K46" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J46)))&gt;1</f>
@@ -15675,33 +15777,30 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
-        <v>222</v>
-      </c>
       <c r="B47" s="16" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="D47" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C47)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="5"/>
-        <v>TILE2='¬'</v>
+        <f>B47&amp;"='"&amp;C47&amp;"'"</f>
+        <v>SWITCH_LIT='&lt;'</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="1"/>
-        <v>SWITCH</v>
+        <f t="shared" si="0"/>
+        <v>SHOP_KEEPER</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="2"/>
-        <v>,</v>
+        <f t="shared" si="1"/>
+        <v>SHOP</v>
       </c>
       <c r="K47" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J47)))&gt;1</f>
@@ -15709,33 +15808,30 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
-        <v>222</v>
-      </c>
       <c r="B48" s="16" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D48" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C48)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="5"/>
-        <v>TILE3='.'</v>
+        <f>B48&amp;"='"&amp;C48&amp;"'"</f>
+        <v>SWITCH_TILE='_'</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="1"/>
-        <v>SWITCH_LIT</v>
+        <f t="shared" si="0"/>
+        <v>SOUTH</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;</v>
+        <f t="shared" si="1"/>
+        <v>S</v>
       </c>
       <c r="K48" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J48)))&gt;1</f>
@@ -15747,29 +15843,29 @@
         <v>222</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="D49" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C49)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="5"/>
-        <v>TILE4='~'</v>
+        <f>B49&amp;"='"&amp;C49&amp;"'"</f>
+        <v>TILE1='`'</v>
       </c>
       <c r="H49" s="24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="1"/>
-        <v>SWITCH_TILE</v>
+        <f t="shared" si="0"/>
+        <v>START_POSITON</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="2"/>
-        <v>_</v>
+        <f t="shared" si="1"/>
+        <v>=</v>
       </c>
       <c r="K49" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J49)))&gt;1</f>
@@ -15777,30 +15873,33 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>222</v>
+      </c>
       <c r="B50" s="16" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
       <c r="D50" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C50)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="5"/>
-        <v>TRAP1='^'</v>
+        <f>B50&amp;"='"&amp;C50&amp;"'"</f>
+        <v>TILE2='¬'</v>
       </c>
       <c r="H50" s="24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="1"/>
-        <v>TRAP1</v>
+        <f t="shared" si="0"/>
+        <v>SWITCH</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="2"/>
-        <v>^</v>
+        <f t="shared" si="1"/>
+        <v>,</v>
       </c>
       <c r="K50" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J50)))&gt;1</f>
@@ -15808,30 +15907,33 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>222</v>
+      </c>
       <c r="B51" s="16" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D51" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C51)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="5"/>
-        <v>TRAP2='&amp;'</v>
+        <f>B51&amp;"='"&amp;C51&amp;"'"</f>
+        <v>TILE3='.'</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="1"/>
-        <v>TRAP2</v>
+        <f t="shared" si="0"/>
+        <v>SWITCH_LIT</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="2"/>
-        <v>&amp;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;</v>
       </c>
       <c r="K51" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J51)))&gt;1</f>
@@ -15839,30 +15941,33 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>222</v>
+      </c>
       <c r="B52" s="16" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D52" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C52)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="5"/>
-        <v>TRAP3='['</v>
+        <f>B52&amp;"='"&amp;C52&amp;"'"</f>
+        <v>TILE4='~'</v>
       </c>
       <c r="H52" s="24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="1"/>
-        <v>TRAP3</v>
+        <f t="shared" si="0"/>
+        <v>SWITCH_TILE</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="2"/>
-        <v>[</v>
+        <f t="shared" si="1"/>
+        <v>_</v>
       </c>
       <c r="K52" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J52)))&gt;1</f>
@@ -15870,33 +15975,30 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
-        <v>221</v>
-      </c>
       <c r="B53" s="16" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D53" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C53)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="5"/>
-        <v>TREASURE='*'</v>
+        <f>B53&amp;"='"&amp;C53&amp;"'"</f>
+        <v>TRAP1='^'</v>
       </c>
       <c r="H53" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="1"/>
-        <v>TREASURE</v>
+        <f t="shared" si="0"/>
+        <v>TRAP1</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="2"/>
-        <v>*</v>
+        <f t="shared" si="1"/>
+        <v>^</v>
       </c>
       <c r="K53" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J53)))&gt;1</f>
@@ -15904,33 +16006,30 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
-        <v>221</v>
-      </c>
       <c r="B54" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D54" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C54)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="5"/>
-        <v>TREASURE_CHEST='j'</v>
+        <f>B54&amp;"='"&amp;C54&amp;"'"</f>
+        <v>TRAP2='&amp;'</v>
       </c>
       <c r="H54" s="24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="1"/>
-        <v>TREASURE_CHEST</v>
+        <f t="shared" si="0"/>
+        <v>TRAP2</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="2"/>
-        <v>j</v>
+        <f t="shared" si="1"/>
+        <v>&amp;</v>
       </c>
       <c r="K54" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J54)))&gt;1</f>
@@ -15938,33 +16037,30 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
-        <v>221</v>
-      </c>
       <c r="B55" s="16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="D55" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C55)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="5"/>
-        <v>TREASURE10='x'</v>
+        <f>B55&amp;"='"&amp;C55&amp;"'"</f>
+        <v>TRAP3='['</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="1"/>
-        <v>TREASURE10</v>
+        <f t="shared" si="0"/>
+        <v>TRAP3</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="2"/>
-        <v>x</v>
+        <f t="shared" si="1"/>
+        <v>[</v>
       </c>
       <c r="K55" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J55)))&gt;1</f>
@@ -15976,29 +16072,29 @@
         <v>221</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D56" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C56)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="5"/>
-        <v>TREASURE25='X'</v>
+        <f>B56&amp;"='"&amp;C56&amp;"'"</f>
+        <v>TREASURE='*'</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="1"/>
-        <v>TREASURE25</v>
+        <f t="shared" si="0"/>
+        <v>TREASURE</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="2"/>
-        <v>X</v>
+        <f t="shared" si="1"/>
+        <v>*</v>
       </c>
       <c r="K56" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J56)))&gt;1</f>
@@ -16006,30 +16102,33 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
+        <v>221</v>
+      </c>
       <c r="B57" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D57" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C57)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="5"/>
-        <v>TREE='T'</v>
+        <f>B57&amp;"='"&amp;C57&amp;"'"</f>
+        <v>TREASURE_CHEST='j'</v>
       </c>
       <c r="H57" s="24" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="1"/>
-        <v>TREE</v>
+        <f t="shared" si="0"/>
+        <v>TREASURE_CHEST</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
+        <f t="shared" si="1"/>
+        <v>j</v>
       </c>
       <c r="K57" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J57)))&gt;1</f>
@@ -16038,32 +16137,32 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D58" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C58)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="5"/>
-        <v>TROPHY='G'</v>
+        <f>B58&amp;"='"&amp;C58&amp;"'"</f>
+        <v>TREASURE10='x'</v>
       </c>
       <c r="H58" s="24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="1"/>
-        <v>TROPHY</v>
+        <f t="shared" si="0"/>
+        <v>TREASURE10</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="2"/>
-        <v>G</v>
+        <f t="shared" si="1"/>
+        <v>x</v>
       </c>
       <c r="K58" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J58)))&gt;1</f>
@@ -16072,32 +16171,32 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="D59" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C59)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="5"/>
-        <v>UP='+'</v>
+        <f>B59&amp;"='"&amp;C59&amp;"'"</f>
+        <v>TREASURE25='X'</v>
       </c>
       <c r="H59" s="24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="1"/>
-        <v>UP</v>
+        <f t="shared" si="0"/>
+        <v>TREASURE25</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="2"/>
-        <v>+</v>
+        <f t="shared" si="1"/>
+        <v>X</v>
       </c>
       <c r="K59" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J59)))&gt;1</f>
@@ -16105,33 +16204,30 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
-        <v>224</v>
-      </c>
       <c r="B60" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D60" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C60)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="5"/>
-        <v>WALL=':'</v>
+        <f>B60&amp;"='"&amp;C60&amp;"'"</f>
+        <v>TREE='T'</v>
       </c>
       <c r="H60" s="24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="1"/>
-        <v>WALL</v>
+        <f t="shared" si="0"/>
+        <v>TREE</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="2"/>
-        <v>:</v>
+        <f t="shared" si="1"/>
+        <v>T</v>
       </c>
       <c r="K60" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J60)))&gt;1</f>
@@ -16140,32 +16236,32 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="D61" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C61)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="5"/>
-        <v>WALL_BL='('</v>
+        <f>B61&amp;"='"&amp;C61&amp;"'"</f>
+        <v>TROPHY='G'</v>
       </c>
       <c r="H61" s="24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="1"/>
-        <v>WALL_BL</v>
+        <f t="shared" si="0"/>
+        <v>TROPHY</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="2"/>
-        <v>(</v>
+        <f t="shared" si="1"/>
+        <v>G</v>
       </c>
       <c r="K61" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J61)))&gt;1</f>
@@ -16174,32 +16270,32 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D62" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C62)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="5"/>
-        <v>WALL_BR=')'</v>
+        <f>B62&amp;"='"&amp;C62&amp;"'"</f>
+        <v>UP='+'</v>
       </c>
       <c r="H62" s="24" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="1"/>
-        <v>WALL_BR</v>
+        <f t="shared" si="0"/>
+        <v>UP</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="2"/>
-        <v>)</v>
+        <f t="shared" si="1"/>
+        <v>+</v>
       </c>
       <c r="K62" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J62)))&gt;1</f>
@@ -16211,29 +16307,29 @@
         <v>224</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D63" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C63)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="5"/>
-        <v>WALL_TL='/'</v>
+        <f>B63&amp;"='"&amp;C63&amp;"'"</f>
+        <v>WALL=':'</v>
       </c>
       <c r="H63" s="24" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="1"/>
-        <v>WALL_TL</v>
+        <f t="shared" si="0"/>
+        <v>WALL</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="2"/>
-        <v>/</v>
+        <f t="shared" si="1"/>
+        <v>:</v>
       </c>
       <c r="K63" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J63)))&gt;1</f>
@@ -16245,29 +16341,29 @@
         <v>224</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="D64" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C64)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="5"/>
-        <v>WALL_TR='\\'</v>
+        <f>B64&amp;"='"&amp;C64&amp;"'"</f>
+        <v>WALL_BL='('</v>
       </c>
       <c r="H64" s="24" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="1"/>
-        <v>WALL_TR</v>
+        <f t="shared" si="0"/>
+        <v>WALL_BL</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="2"/>
-        <v>\\</v>
+        <f t="shared" si="1"/>
+        <v>(</v>
       </c>
       <c r="K64" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J64)))&gt;1</f>
@@ -16279,29 +16375,29 @@
         <v>224</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C65)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="5"/>
-        <v>WALL2='w'</v>
+        <f>B65&amp;"='"&amp;C65&amp;"'"</f>
+        <v>WALL_BR=')'</v>
       </c>
       <c r="H65" s="24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="1"/>
-        <v>WALL2</v>
+        <f t="shared" si="0"/>
+        <v>WALL_BR</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="2"/>
-        <v>w</v>
+        <f t="shared" si="1"/>
+        <v>)</v>
       </c>
       <c r="K65" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J65)))&gt;1</f>
@@ -16313,29 +16409,29 @@
         <v>224</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>226</v>
+        <v>11</v>
       </c>
       <c r="D66" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C66)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="5"/>
-        <v>WALL3='e'</v>
+        <f>B66&amp;"='"&amp;C66&amp;"'"</f>
+        <v>WALL_TL='/'</v>
       </c>
       <c r="H66" s="24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="1"/>
-        <v>WEAPON</v>
+        <f t="shared" si="0"/>
+        <v>WALL_TL</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="2"/>
-        <v>|</v>
+        <f t="shared" si="1"/>
+        <v>/</v>
       </c>
       <c r="K66" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J66)))&gt;1</f>
@@ -16344,32 +16440,32 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D67" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C67)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="5"/>
-        <v>WEAPON='|'</v>
+        <f>B67&amp;"='"&amp;C67&amp;"'"</f>
+        <v>WALL_TR='\\'</v>
       </c>
       <c r="H67" s="24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="1"/>
-        <v>WEST</v>
+        <f t="shared" si="0"/>
+        <v>WALL_TR</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" si="2"/>
-        <v>W</v>
+        <f t="shared" si="1"/>
+        <v>\\</v>
       </c>
       <c r="K67" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J67)))&gt;1</f>
@@ -16378,62 +16474,194 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>218</v>
+        <v>224</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>216</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D68" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C68)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="5"/>
+        <f>B68&amp;"='"&amp;C68&amp;"'"</f>
+        <v>WALL2='w'</v>
+      </c>
+      <c r="H68" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="0"/>
+        <v>WALL2</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" si="1"/>
+        <v>w</v>
+      </c>
+      <c r="K68" s="17" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J68)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="D69" s="17" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C69)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E69" t="str">
+        <f>B69&amp;"='"&amp;C69&amp;"'"</f>
+        <v>WALL3='e'</v>
+      </c>
+      <c r="H69" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="0"/>
+        <v>WEAPON</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
+      </c>
+      <c r="K69" s="17" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J69)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="17" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C70)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E70" t="str">
+        <f>B70&amp;"='"&amp;C70&amp;"'"</f>
+        <v>WEAPON='|'</v>
+      </c>
+      <c r="H70" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="0"/>
+        <v>WEST</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="1"/>
+        <v>W</v>
+      </c>
+      <c r="K70" s="17" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J70)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="17" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C71)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E71" t="str">
+        <f>B71&amp;"='"&amp;C71&amp;"'"</f>
         <v>WEST='W'</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B69" s="23"/>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C66"/>
-  <sortState ref="A2:E66">
-    <sortCondition ref="B2:B66"/>
+  <autoFilter ref="C1:C69"/>
+  <sortState ref="A2:E71">
+    <sortCondition ref="B2:B71"/>
   </sortState>
-  <conditionalFormatting sqref="D1:D21 D69:D1048576 D29:D67 D23:D27">
+  <conditionalFormatting sqref="D1:D5 D72:D1048576 D32:D70 D26:D30 D12:D20 D7:D10 D22:D24">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K5 K32:K70 K26:K30 K12:K20 K7:K10 K22:K24">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K21 K29:K67 K23:K27">
+  <conditionalFormatting sqref="D11">
     <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
+  <conditionalFormatting sqref="K11">
     <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
+  <conditionalFormatting sqref="D6">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
+  <conditionalFormatting sqref="K6">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
+  <conditionalFormatting sqref="D21">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
+  <conditionalFormatting sqref="K21">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -18222,22 +18450,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="56" priority="4">
+    <cfRule type="expression" dxfId="66" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="55" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="54" priority="2">
+    <cfRule type="expression" dxfId="64" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="53" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20014,22 +20242,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="52" priority="4">
+    <cfRule type="expression" dxfId="62" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="51" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="50" priority="2">
+    <cfRule type="expression" dxfId="60" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="49" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21817,22 +22045,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="48" priority="4">
+    <cfRule type="expression" dxfId="58" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="47" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="46" priority="2">
+    <cfRule type="expression" dxfId="56" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="45" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23620,22 +23848,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="44" priority="4">
+    <cfRule type="expression" dxfId="54" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="43" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="42" priority="2">
+    <cfRule type="expression" dxfId="52" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="41" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25423,22 +25651,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="40" priority="4">
+    <cfRule type="expression" dxfId="50" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="39" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="38" priority="2">
+    <cfRule type="expression" dxfId="48" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="37" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27226,22 +27454,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="36" priority="4">
+    <cfRule type="expression" dxfId="46" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="35" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="44" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="33" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29029,22 +29257,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="32" priority="4">
+    <cfRule type="expression" dxfId="42" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="31" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="30" priority="2">
+    <cfRule type="expression" dxfId="40" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30832,22 +31060,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="28" priority="4">
+    <cfRule type="expression" dxfId="38" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="27" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="26" priority="2">
+    <cfRule type="expression" dxfId="36" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="25" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/game_template/model/data/floor builder Level 9.xlsx
+++ b/game_template/model/data/floor builder Level 9.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="1" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -1998,18 +1998,172 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="75">
+  <dxfs count="91">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2482,48 +2636,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5237,12 +5349,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="68" priority="2">
+    <cfRule type="expression" dxfId="90" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="67" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7029,22 +7141,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="34" priority="4">
+    <cfRule type="expression" dxfId="56" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="33" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="32" priority="2">
+    <cfRule type="expression" dxfId="54" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8834,22 +8946,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="30" priority="4">
+    <cfRule type="expression" dxfId="52" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="29" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="50" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10640,22 +10752,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="26" priority="4">
+    <cfRule type="expression" dxfId="48" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="25" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="46" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10671,7 +10783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
@@ -10684,10 +10796,10 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>6</v>
@@ -10705,20 +10817,20 @@
         <v>6</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="12" t="s">
-        <v>6</v>
-      </c>
       <c r="M1" s="12" t="s">
         <v>6</v>
       </c>
@@ -10738,10 +10850,10 @@
         <v>6</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>65</v>
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -10750,16 +10862,16 @@
       <c r="Y1" s="3"/>
       <c r="AA1" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
-        <v xml:space="preserve">        (N)         </v>
+        <v>/)     (:N:)      (\\</v>
       </c>
       <c r="AB1" t="str">
         <f>"'"&amp;AA1&amp;"',"</f>
-        <v>'        (N)         ',</v>
+        <v>'/)     (:N:)      (\\',</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>6</v>
@@ -10816,7 +10928,7 @@
         <v>6</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
@@ -10825,11 +10937,11 @@
       <c r="Y2" s="7"/>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v xml:space="preserve">                    </v>
+        <v>)                  (</v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB25" si="1">"'"&amp;AA2&amp;"',"</f>
-        <v>'                    ',</v>
+        <v>')                  (',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -11224,7 +11336,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>6</v>
@@ -11248,7 +11360,7 @@
         <v>6</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="O8" s="12" t="s">
         <v>6</v>
@@ -11275,16 +11387,16 @@
       <c r="Y8" s="7"/>
       <c r="AA8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">     !       !      </v>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'     !       !      ',</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>6</v>
@@ -11299,7 +11411,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>6</v>
@@ -11311,7 +11423,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>6</v>
@@ -11323,7 +11435,7 @@
         <v>6</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="O9" s="12" t="s">
         <v>6</v>
@@ -11341,7 +11453,7 @@
         <v>6</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
@@ -11350,16 +11462,16 @@
       <c r="Y9" s="7"/>
       <c r="AA9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v>:    !   !   !     :</v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>':    !   !   !     :',</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>6</v>
@@ -11374,7 +11486,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>6</v>
@@ -11386,7 +11498,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>6</v>
@@ -11398,7 +11510,7 @@
         <v>6</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="O10" s="12" t="s">
         <v>6</v>
@@ -11416,7 +11528,7 @@
         <v>6</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
@@ -11425,16 +11537,16 @@
       <c r="Y10" s="7"/>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v>R    !   !   !     R</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'R    !   !   !     R',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>6</v>
@@ -11449,7 +11561,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>6</v>
@@ -11461,7 +11573,7 @@
         <v>6</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>6</v>
@@ -11473,7 +11585,7 @@
         <v>6</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="O11" s="12" t="s">
         <v>6</v>
@@ -11491,7 +11603,7 @@
         <v>6</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
@@ -11500,11 +11612,11 @@
       <c r="Y11" s="7"/>
       <c r="AA11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v>:    !   !   !     :</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>':    !   !   !     :',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -11524,7 +11636,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>6</v>
@@ -11548,7 +11660,7 @@
         <v>6</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="O12" s="12" t="s">
         <v>6</v>
@@ -11575,11 +11687,11 @@
       <c r="Y12" s="7"/>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">     !       !      </v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'     !       !      ',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -12034,7 +12146,7 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>6</v>
+        <v>228</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>6</v>
@@ -12091,7 +12203,7 @@
         <v>6</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
@@ -12100,19 +12212,19 @@
       <c r="Y19" s="7"/>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        /F\         </v>
+        <v>\       /F\        /</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>'        /F\         ',</v>
+        <v>'\       /F\        /',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>6</v>
+        <v>228</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>6</v>
@@ -12130,7 +12242,7 @@
         <v>6</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>2</v>
@@ -12142,7 +12254,7 @@
         <v>2</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="M20" s="12" t="s">
         <v>6</v>
@@ -12163,10 +12275,10 @@
         <v>6</v>
       </c>
       <c r="S20" s="12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
@@ -12175,11 +12287,11 @@
       <c r="Y20" s="7"/>
       <c r="AA20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        :S:         </v>
+        <v>(\     j:S:j      /)</v>
       </c>
       <c r="AB20" t="str">
         <f t="shared" si="1"/>
-        <v>'        :S:         ',</v>
+        <v>'(\     j:S:j      /)',</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -12444,28 +12556,31 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="22" priority="4">
+  <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
+    <cfRule type="expression" dxfId="44" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
+    <cfRule type="cellIs" dxfId="43" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="42" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="T1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14248,22 +14363,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="18" priority="4">
+    <cfRule type="expression" dxfId="40" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="38" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14279,7 +14394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
@@ -16602,67 +16717,67 @@
     <sortCondition ref="B2:B71"/>
   </sortState>
   <conditionalFormatting sqref="D1:D5 D72:D1048576 D32:D70 D26:D30 D12:D20 D7:D10 D22:D24">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="13" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5 K32:K70 K26:K30 K12:K20 K7:K10 K22:K24">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="12" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18450,22 +18565,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="66" priority="4">
+    <cfRule type="expression" dxfId="88" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="65" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="64" priority="2">
+    <cfRule type="expression" dxfId="86" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="63" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20242,22 +20357,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="62" priority="4">
+    <cfRule type="expression" dxfId="84" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="61" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="60" priority="2">
+    <cfRule type="expression" dxfId="82" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="59" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22045,22 +22160,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="58" priority="4">
+    <cfRule type="expression" dxfId="80" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="57" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="56" priority="2">
+    <cfRule type="expression" dxfId="78" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="55" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23848,22 +23963,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="54" priority="4">
+    <cfRule type="expression" dxfId="76" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="53" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="52" priority="2">
+    <cfRule type="expression" dxfId="74" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="51" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25651,22 +25766,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="50" priority="4">
+    <cfRule type="expression" dxfId="72" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="49" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="48" priority="2">
+    <cfRule type="expression" dxfId="70" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="47" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27454,22 +27569,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="46" priority="4">
+    <cfRule type="expression" dxfId="68" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="45" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="44" priority="2">
+    <cfRule type="expression" dxfId="66" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="43" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29257,22 +29372,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="42" priority="4">
+    <cfRule type="expression" dxfId="64" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="41" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="40" priority="2">
+    <cfRule type="expression" dxfId="62" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="39" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31060,22 +31175,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="38" priority="4">
+    <cfRule type="expression" dxfId="60" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="37" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="36" priority="2">
+    <cfRule type="expression" dxfId="58" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/game_template/model/data/floor builder Level 9.xlsx
+++ b/game_template/model/data/floor builder Level 9.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="1" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="1" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="Tiles" sheetId="56" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Tiles!$C$1:$C$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Tiles!$C$1:$C$71</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5527" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5533" uniqueCount="242">
   <si>
     <t>width</t>
   </si>
@@ -1753,6 +1753,18 @@
   <si>
     <t>K</t>
   </si>
+  <si>
+    <t>NPC1</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>NPC2</t>
+  </si>
 </sst>
 </file>
 
@@ -1998,172 +2010,46 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="91">
+  <dxfs count="75">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2636,6 +2522,20 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5349,12 +5249,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="90" priority="2">
+    <cfRule type="expression" dxfId="72" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="89" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7141,22 +7041,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="56" priority="4">
+    <cfRule type="expression" dxfId="38" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="55" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="54" priority="2">
+    <cfRule type="expression" dxfId="36" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="53" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8946,22 +8846,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="52" priority="4">
+    <cfRule type="expression" dxfId="34" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="51" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="50" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="49" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10752,22 +10652,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="48" priority="4">
+    <cfRule type="expression" dxfId="30" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="47" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="46" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="45" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10783,7 +10683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
@@ -12557,22 +12457,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="44" priority="4">
+    <cfRule type="expression" dxfId="26" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="43" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="42" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="41" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14363,22 +14263,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="40" priority="4">
+    <cfRule type="expression" dxfId="22" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="39" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="38" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="37" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14392,11 +14292,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14445,7 +14345,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="str">
-        <f>B2&amp;"='"&amp;C2&amp;"'"</f>
+        <f t="shared" ref="E2:E35" si="0">B2&amp;"='"&amp;C2&amp;"'"</f>
         <v>BANG='$'</v>
       </c>
       <c r="H2" s="23" t="s">
@@ -14479,18 +14379,18 @@
         <v>0</v>
       </c>
       <c r="E3" t="str">
-        <f>B3&amp;"='"&amp;C3&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>BOMB='q'</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>131</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I70" si="0">TRIM(MID($H3,1,FIND("=",$H3)-1))</f>
+        <f t="shared" ref="I3:I72" si="1">TRIM(MID($H3,1,FIND("=",$H3)-1))</f>
         <v>TILE1</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J70" si="1">SUBSTITUTE(TRIM(MID($H3,FIND("=",$H3)+1,200)),"'","")</f>
+        <f t="shared" ref="J3:J72" si="2">SUBSTITUTE(TRIM(MID($H3,FIND("=",$H3)+1,200)),"'","")</f>
         <v>`</v>
       </c>
       <c r="K3" s="17" t="b">
@@ -14513,18 +14413,18 @@
         <v>0</v>
       </c>
       <c r="E4" t="str">
-        <f>B4&amp;"='"&amp;C4&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>BOMB_LIT='Q'</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>130</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TILE2</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>¬</v>
       </c>
       <c r="K4" s="17" t="b">
@@ -14547,18 +14447,18 @@
         <v>0</v>
       </c>
       <c r="E5" t="str">
-        <f>B5&amp;"='"&amp;C5&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>BOSS='4'</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>128</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TILE3</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.</v>
       </c>
       <c r="K5" s="17" t="b">
@@ -14578,18 +14478,18 @@
         <v>0</v>
       </c>
       <c r="E6" t="str">
-        <f>B6&amp;"='"&amp;C6&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>BOSS_DOOR='F'</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>128</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TILE3</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.</v>
       </c>
       <c r="K6" s="17" t="b">
@@ -14609,18 +14509,18 @@
         <v>0</v>
       </c>
       <c r="E7" t="str">
-        <f>B7&amp;"='"&amp;C7&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>BOSS_DOOR_OPEN='f'</v>
       </c>
       <c r="H7" s="24" t="s">
         <v>129</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TILE4</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="K7" s="17" t="b">
@@ -14640,18 +14540,18 @@
         <v>0</v>
       </c>
       <c r="E8" t="str">
-        <f>B8&amp;"='"&amp;C8&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>BRAZIER='B'</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>69</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BOMB</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>q</v>
       </c>
       <c r="K8" s="17" t="b">
@@ -14671,18 +14571,18 @@
         <v>0</v>
       </c>
       <c r="E9" t="str">
-        <f>B9&amp;"='"&amp;C9&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>DECORATION1='z'</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>70</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BOMB_LIT</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Q</v>
       </c>
       <c r="K9" s="17" t="b">
@@ -14702,18 +14602,18 @@
         <v>0</v>
       </c>
       <c r="E10" t="str">
-        <f>B10&amp;"='"&amp;C10&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>DECORATION2='Z'</v>
       </c>
       <c r="H10" s="24" t="s">
         <v>71</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BOSS_DOOR</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>d</v>
       </c>
       <c r="K10" s="17" t="b">
@@ -14733,18 +14633,18 @@
         <v>0</v>
       </c>
       <c r="E11" t="str">
-        <f>B11&amp;"='"&amp;C11&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>DOOR='D'</v>
       </c>
       <c r="H11" s="24" t="s">
         <v>71</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BOSS_DOOR</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>d</v>
       </c>
       <c r="K11" s="17" t="b">
@@ -14764,18 +14664,18 @@
         <v>0</v>
       </c>
       <c r="E12" t="str">
-        <f>B12&amp;"='"&amp;C12&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>DOOR_OPEN='d'</v>
       </c>
       <c r="H12" s="24" t="s">
         <v>72</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BRAZIER</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>B</v>
       </c>
       <c r="K12" s="17" t="b">
@@ -14795,18 +14695,18 @@
         <v>0</v>
       </c>
       <c r="E13" t="str">
-        <f>B13&amp;"='"&amp;C13&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>DOT1='!'</v>
       </c>
       <c r="H13" s="24" t="s">
         <v>73</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DECORATION1</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>z</v>
       </c>
       <c r="K13" s="17" t="b">
@@ -14826,18 +14726,18 @@
         <v>0</v>
       </c>
       <c r="E14" t="str">
-        <f>B14&amp;"='"&amp;C14&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>DOT2='£'</v>
       </c>
       <c r="H14" s="24" t="s">
         <v>74</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DECORATION2</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Z</v>
       </c>
       <c r="K14" s="17" t="b">
@@ -14860,18 +14760,18 @@
         <v>0</v>
       </c>
       <c r="E15" t="str">
-        <f>B15&amp;"='"&amp;C15&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>DOWN='-'</v>
       </c>
       <c r="H15" s="24" t="s">
         <v>75</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DOOR</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>D</v>
       </c>
       <c r="K15" s="17" t="b">
@@ -14894,18 +14794,18 @@
         <v>0</v>
       </c>
       <c r="E16" t="str">
-        <f>B16&amp;"='"&amp;C16&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>EAST='E'</v>
       </c>
       <c r="H16" s="24" t="s">
         <v>76</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DOT1</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>!</v>
       </c>
       <c r="K16" s="17" t="b">
@@ -14925,18 +14825,18 @@
         <v>0</v>
       </c>
       <c r="E17" t="str">
-        <f>B17&amp;"='"&amp;C17&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>EMPTY=' '</v>
       </c>
       <c r="H17" s="24" t="s">
         <v>77</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DOT2</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>£</v>
       </c>
       <c r="K17" s="17" t="b">
@@ -14956,18 +14856,18 @@
         <v>0</v>
       </c>
       <c r="E18" t="str">
-        <f>B18&amp;"='"&amp;C18&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>EXIT_KEY='%'</v>
       </c>
       <c r="H18" s="24" t="s">
         <v>78</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DOWN</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="K18" s="17" t="b">
@@ -14987,18 +14887,18 @@
         <v>0</v>
       </c>
       <c r="E19" t="str">
-        <f>B19&amp;"='"&amp;C19&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>HEART='HP'</v>
       </c>
       <c r="H19" s="24" t="s">
         <v>79</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EAST</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>E</v>
       </c>
       <c r="K19" s="17" t="b">
@@ -15021,18 +14921,18 @@
         <v>0</v>
       </c>
       <c r="E20" t="str">
-        <f>B20&amp;"='"&amp;C20&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>KEY='?'</v>
       </c>
       <c r="H20" s="24" t="s">
         <v>80</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EMPTY</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K20" s="17" t="b">
@@ -15055,18 +14955,18 @@
         <v>0</v>
       </c>
       <c r="E21" t="str">
-        <f>B21&amp;"='"&amp;C21&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>BOSS_KEY='K'</v>
       </c>
       <c r="H21" s="24" t="s">
         <v>80</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EMPTY</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K21" s="17" t="b">
@@ -15089,18 +14989,18 @@
         <v>0</v>
       </c>
       <c r="E22" t="str">
-        <f>B22&amp;"='"&amp;C22&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>MAP='M'</v>
       </c>
       <c r="H22" s="24" t="s">
         <v>81</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EXIT_KEY</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>%</v>
       </c>
       <c r="K22" s="17" t="b">
@@ -15123,18 +15023,18 @@
         <v>0</v>
       </c>
       <c r="E23" t="str">
-        <f>B23&amp;"='"&amp;C23&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>MONSTER1='1'</v>
       </c>
       <c r="H23" s="24" t="s">
         <v>82</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HEART</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HP</v>
       </c>
       <c r="K23" s="17" t="b">
@@ -15157,18 +15057,18 @@
         <v>0</v>
       </c>
       <c r="E24" t="str">
-        <f>B24&amp;"='"&amp;C24&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>MONSTER2='2'</v>
       </c>
       <c r="H24" s="24" t="s">
         <v>83</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>KEY</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>?</v>
       </c>
       <c r="K24" s="17" t="b">
@@ -15191,18 +15091,18 @@
         <v>0</v>
       </c>
       <c r="E25" t="str">
-        <f>B25&amp;"='"&amp;C25&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>MONSTER3='3'</v>
       </c>
       <c r="H25" s="24" t="s">
         <v>83</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>KEY</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>?</v>
       </c>
       <c r="K25" s="17" t="b">
@@ -15225,18 +15125,18 @@
         <v>0</v>
       </c>
       <c r="E26" t="str">
-        <f>B26&amp;"='"&amp;C26&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>NEXT_LEVEL='L'</v>
       </c>
       <c r="H26" s="24" t="s">
         <v>84</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MAP</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>M</v>
       </c>
       <c r="K26" s="17" t="b">
@@ -15259,18 +15159,18 @@
         <v>0</v>
       </c>
       <c r="E27" t="str">
-        <f>B27&amp;"='"&amp;C27&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>NORTH='N'</v>
       </c>
       <c r="H27" s="24" t="s">
         <v>85</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MONSTER1</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K27" s="17" t="b">
@@ -15290,84 +15190,81 @@
         <v>0</v>
       </c>
       <c r="E28" t="str">
-        <f>B28&amp;"='"&amp;C28&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>PLAYER='P'</v>
       </c>
       <c r="H28" s="24" t="s">
         <v>86</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MONSTER2</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K28" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J28)))&gt;1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>28</v>
+        <v>239</v>
       </c>
       <c r="D29" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C29)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E29" t="str">
-        <f>B29&amp;"='"&amp;C29&amp;"'"</f>
-        <v>PREVIOUS_LEVEL='l'</v>
+        <f t="shared" ref="E29" si="3">B29&amp;"='"&amp;C29&amp;"'"</f>
+        <v>NPC1='Y'</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="0"/>
-        <v>MONSTER3</v>
+        <f t="shared" si="1"/>
+        <v>MONSTER2</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="K29" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J29)))&gt;1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>223</v>
-      </c>
       <c r="B30" s="16" t="s">
-        <v>184</v>
+        <v>241</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>47</v>
+        <v>240</v>
       </c>
       <c r="D30" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C30)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E30" t="str">
-        <f>B30&amp;"='"&amp;C30&amp;"'"</f>
-        <v>RED_POTION='R'</v>
+        <f t="shared" ref="E30" si="4">B30&amp;"='"&amp;C30&amp;"'"</f>
+        <v>NPC2='y'</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="0"/>
-        <v>NEXT_LEVEL</v>
+        <f t="shared" si="1"/>
+        <v>MONSTER2</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="1"/>
-        <v>L</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="K30" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J30)))&gt;1</f>
@@ -15375,126 +15272,129 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>223</v>
-      </c>
       <c r="B31" s="16" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>230</v>
+        <v>28</v>
       </c>
       <c r="D31" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C31)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E31" t="str">
-        <f>B31&amp;"='"&amp;C31&amp;"'"</f>
-        <v>REPLENISH='H'</v>
+        <f t="shared" si="0"/>
+        <v>PREVIOUS_LEVEL='l'</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="0"/>
-        <v>NEXT_LEVEL</v>
+        <f t="shared" si="1"/>
+        <v>MONSTER3</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="1"/>
-        <v>L</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="K31" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J31)))&gt;1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>223</v>
+      </c>
       <c r="B32" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C32)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E32" t="str">
-        <f>B32&amp;"='"&amp;C32&amp;"'"</f>
-        <v>RUNE='u'</v>
+        <f t="shared" si="0"/>
+        <v>RED_POTION='R'</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="0"/>
-        <v>NORTH</v>
+        <f t="shared" si="1"/>
+        <v>NEXT_LEVEL</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="1"/>
-        <v>N</v>
+        <f t="shared" si="2"/>
+        <v>L</v>
       </c>
       <c r="K32" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J32)))&gt;1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>223</v>
+      </c>
       <c r="B33" s="16" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>49</v>
+        <v>230</v>
       </c>
       <c r="D33" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C33)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E33" t="str">
-        <f>B33&amp;"='"&amp;C33&amp;"'"</f>
-        <v>RUNE1='R1'</v>
+        <f t="shared" si="0"/>
+        <v>REPLENISH='H'</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="0"/>
-        <v>PLAYER</v>
+        <f t="shared" si="1"/>
+        <v>NEXT_LEVEL</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <f t="shared" si="2"/>
+        <v>L</v>
       </c>
       <c r="K33" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J33)))&gt;1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D34" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C34)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E34" t="str">
-        <f>B34&amp;"='"&amp;C34&amp;"'"</f>
-        <v>RUNE2='R2'</v>
+        <f t="shared" si="0"/>
+        <v>RUNE='u'</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="0"/>
-        <v>PREVIOUS_LEVEL</v>
+        <f t="shared" si="1"/>
+        <v>NORTH</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="1"/>
-        <v>l</v>
+        <f t="shared" si="2"/>
+        <v>N</v>
       </c>
       <c r="K34" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J34)))&gt;1</f>
@@ -15503,29 +15403,29 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D35" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C35)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E35" t="str">
-        <f>B35&amp;"='"&amp;C35&amp;"'"</f>
-        <v>RUNE3='R3'</v>
+        <f t="shared" si="0"/>
+        <v>RUNE1='R1'</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="0"/>
-        <v>RED_POTION</v>
+        <f t="shared" si="1"/>
+        <v>PLAYER</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="1"/>
-        <v>R</v>
+        <f t="shared" si="2"/>
+        <v>P</v>
       </c>
       <c r="K35" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J35)))&gt;1</f>
@@ -15534,29 +15434,29 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D36" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C36)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E36" t="str">
-        <f>B36&amp;"='"&amp;C36&amp;"'"</f>
-        <v>RUNE4='R4'</v>
+        <f t="shared" ref="E36:E67" si="5">B36&amp;"='"&amp;C36&amp;"'"</f>
+        <v>RUNE2='R2'</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="0"/>
-        <v>RUNE</v>
+        <f t="shared" si="1"/>
+        <v>PREVIOUS_LEVEL</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="1"/>
-        <v>u</v>
+        <f t="shared" si="2"/>
+        <v>l</v>
       </c>
       <c r="K36" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J36)))&gt;1</f>
@@ -15565,29 +15465,29 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D37" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C37)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E37" t="str">
-        <f>B37&amp;"='"&amp;C37&amp;"'"</f>
-        <v>RUNE5='R5'</v>
+        <f t="shared" si="5"/>
+        <v>RUNE3='R3'</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="0"/>
-        <v>RUNE1</v>
+        <f t="shared" si="1"/>
+        <v>RED_POTION</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="1"/>
-        <v>R1</v>
+        <f t="shared" si="2"/>
+        <v>R</v>
       </c>
       <c r="K37" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J37)))&gt;1</f>
@@ -15595,33 +15495,30 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>222</v>
-      </c>
       <c r="B38" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="D38" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C38)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E38" t="str">
-        <f>B38&amp;"='"&amp;C38&amp;"'"</f>
-        <v>SAFETY='8'</v>
+        <f t="shared" si="5"/>
+        <v>RUNE4='R4'</v>
       </c>
       <c r="H38" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="0"/>
-        <v>RUNE2</v>
+        <f t="shared" si="1"/>
+        <v>RUNE</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="1"/>
-        <v>R2</v>
+        <f t="shared" si="2"/>
+        <v>u</v>
       </c>
       <c r="K38" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J38)))&gt;1</f>
@@ -15629,33 +15526,30 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>221</v>
-      </c>
       <c r="B39" s="16" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D39" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C39)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E39" t="str">
-        <f>B39&amp;"='"&amp;C39&amp;"'"</f>
-        <v>SECRET_TREASURE='J'</v>
+        <f t="shared" si="5"/>
+        <v>RUNE5='R5'</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="0"/>
-        <v>RUNE3</v>
+        <f t="shared" si="1"/>
+        <v>RUNE1</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="1"/>
-        <v>R3</v>
+        <f t="shared" si="2"/>
+        <v>R1</v>
       </c>
       <c r="K39" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J39)))&gt;1</f>
@@ -15664,32 +15558,32 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="D40" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C40)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E40" t="str">
-        <f>B40&amp;"='"&amp;C40&amp;"'"</f>
-        <v>SECRET_WALL=';'</v>
+        <f t="shared" si="5"/>
+        <v>SAFETY='8'</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="0"/>
-        <v>RUNE4</v>
+        <f t="shared" si="1"/>
+        <v>RUNE2</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="1"/>
-        <v>R4</v>
+        <f t="shared" si="2"/>
+        <v>R2</v>
       </c>
       <c r="K40" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J40)))&gt;1</f>
@@ -15698,32 +15592,32 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D41" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C41)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E41" t="str">
-        <f>B41&amp;"='"&amp;C41&amp;"'"</f>
-        <v>SHIELD='O'</v>
+        <f t="shared" si="5"/>
+        <v>SECRET_TREASURE='J'</v>
       </c>
       <c r="H41" s="24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="0"/>
-        <v>RUNE5</v>
+        <f t="shared" si="1"/>
+        <v>RUNE3</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="1"/>
-        <v>R5</v>
+        <f t="shared" si="2"/>
+        <v>R3</v>
       </c>
       <c r="K41" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J41)))&gt;1</f>
@@ -15731,30 +15625,33 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>224</v>
+      </c>
       <c r="B42" s="16" t="s">
-        <v>55</v>
+        <v>194</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D42" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C42)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E42" t="str">
-        <f>B42&amp;"='"&amp;C42&amp;"'"</f>
-        <v>SHOP='s'</v>
+        <f t="shared" si="5"/>
+        <v>SECRET_WALL=';'</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="0"/>
-        <v>SAFETY</v>
+        <f t="shared" si="1"/>
+        <v>RUNE4</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>R4</v>
       </c>
       <c r="K42" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J42)))&gt;1</f>
@@ -15762,30 +15659,33 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>223</v>
+      </c>
       <c r="B43" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D43" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C43)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E43" t="str">
-        <f>B43&amp;"='"&amp;C43&amp;"'"</f>
-        <v>SHOP_KEEPER='SHOP'</v>
+        <f t="shared" si="5"/>
+        <v>SHIELD='O'</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="0"/>
-        <v>SECRET_TREASURE</v>
+        <f t="shared" si="1"/>
+        <v>RUNE5</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="1"/>
-        <v>J</v>
+        <f t="shared" si="2"/>
+        <v>R5</v>
       </c>
       <c r="K43" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J43)))&gt;1</f>
@@ -15793,33 +15693,30 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
-        <v>220</v>
-      </c>
       <c r="B44" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>17</v>
+        <v>55</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="D44" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C44)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E44" t="str">
-        <f>B44&amp;"='"&amp;C44&amp;"'"</f>
-        <v>SOUTH='S'</v>
+        <f t="shared" si="5"/>
+        <v>SHOP='s'</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="0"/>
-        <v>SECRET_WALL</v>
+        <f t="shared" si="1"/>
+        <v>SAFETY</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="1"/>
-        <v>;</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="K44" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J44)))&gt;1</f>
@@ -15827,33 +15724,30 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
-        <v>220</v>
-      </c>
       <c r="B45" s="16" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D45" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C45)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E45" t="str">
-        <f>B45&amp;"='"&amp;C45&amp;"'"</f>
-        <v>START_POSITION='='</v>
+        <f t="shared" si="5"/>
+        <v>SHOP_KEEPER='SHOP'</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="0"/>
-        <v>SHIELD</v>
+        <f t="shared" si="1"/>
+        <v>SECRET_TREASURE</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="1"/>
-        <v>O</v>
+        <f t="shared" si="2"/>
+        <v>J</v>
       </c>
       <c r="K45" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J45)))&gt;1</f>
@@ -15861,30 +15755,33 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>220</v>
+      </c>
       <c r="B46" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>56</v>
+        <v>197</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="D46" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C46)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E46" t="str">
-        <f>B46&amp;"='"&amp;C46&amp;"'"</f>
-        <v>SWITCH=','</v>
+        <f t="shared" si="5"/>
+        <v>SOUTH='S'</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="0"/>
-        <v>SHOP</v>
+        <f t="shared" si="1"/>
+        <v>SECRET_WALL</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="1"/>
-        <v>s</v>
+        <f t="shared" si="2"/>
+        <v>;</v>
       </c>
       <c r="K46" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J46)))&gt;1</f>
@@ -15892,30 +15789,33 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>220</v>
+      </c>
       <c r="B47" s="16" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D47" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C47)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E47" t="str">
-        <f>B47&amp;"='"&amp;C47&amp;"'"</f>
-        <v>SWITCH_LIT='&lt;'</v>
+        <f t="shared" si="5"/>
+        <v>START_POSITION='='</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="0"/>
-        <v>SHOP_KEEPER</v>
+        <f t="shared" si="1"/>
+        <v>SHIELD</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="1"/>
-        <v>SHOP</v>
+        <f t="shared" si="2"/>
+        <v>O</v>
       </c>
       <c r="K47" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J47)))&gt;1</f>
@@ -15924,29 +15824,29 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D48" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C48)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E48" t="str">
-        <f>B48&amp;"='"&amp;C48&amp;"'"</f>
-        <v>SWITCH_TILE='_'</v>
+        <f t="shared" si="5"/>
+        <v>SWITCH=','</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="0"/>
-        <v>SOUTH</v>
+        <f t="shared" si="1"/>
+        <v>SHOP</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="1"/>
-        <v>S</v>
+        <f t="shared" si="2"/>
+        <v>s</v>
       </c>
       <c r="K48" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J48)))&gt;1</f>
@@ -15954,33 +15854,30 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
-        <v>222</v>
-      </c>
       <c r="B49" s="16" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="D49" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C49)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E49" t="str">
-        <f>B49&amp;"='"&amp;C49&amp;"'"</f>
-        <v>TILE1='`'</v>
+        <f t="shared" si="5"/>
+        <v>SWITCH_LIT='&lt;'</v>
       </c>
       <c r="H49" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="0"/>
-        <v>START_POSITON</v>
+        <f t="shared" si="1"/>
+        <v>SHOP_KEEPER</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="1"/>
-        <v>=</v>
+        <f t="shared" si="2"/>
+        <v>SHOP</v>
       </c>
       <c r="K49" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J49)))&gt;1</f>
@@ -15988,33 +15885,30 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
-        <v>222</v>
-      </c>
       <c r="B50" s="16" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="D50" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C50)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E50" t="str">
-        <f>B50&amp;"='"&amp;C50&amp;"'"</f>
-        <v>TILE2='¬'</v>
+        <f t="shared" si="5"/>
+        <v>SWITCH_TILE='_'</v>
       </c>
       <c r="H50" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="0"/>
-        <v>SWITCH</v>
+        <f t="shared" si="1"/>
+        <v>SOUTH</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="1"/>
-        <v>,</v>
+        <f t="shared" si="2"/>
+        <v>S</v>
       </c>
       <c r="K50" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J50)))&gt;1</f>
@@ -16026,29 +15920,29 @@
         <v>222</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="D51" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C51)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E51" t="str">
-        <f>B51&amp;"='"&amp;C51&amp;"'"</f>
-        <v>TILE3='.'</v>
+        <f t="shared" si="5"/>
+        <v>TILE1='`'</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="0"/>
-        <v>SWITCH_LIT</v>
+        <f t="shared" si="1"/>
+        <v>START_POSITON</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;</v>
+        <f t="shared" si="2"/>
+        <v>=</v>
       </c>
       <c r="K51" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J51)))&gt;1</f>
@@ -16060,29 +15954,29 @@
         <v>222</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D52" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C52)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E52" t="str">
-        <f>B52&amp;"='"&amp;C52&amp;"'"</f>
-        <v>TILE4='~'</v>
+        <f t="shared" si="5"/>
+        <v>TILE2='¬'</v>
       </c>
       <c r="H52" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="0"/>
-        <v>SWITCH_TILE</v>
+        <f t="shared" si="1"/>
+        <v>SWITCH</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="1"/>
-        <v>_</v>
+        <f t="shared" si="2"/>
+        <v>,</v>
       </c>
       <c r="K52" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J52)))&gt;1</f>
@@ -16090,30 +15984,33 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>222</v>
+      </c>
       <c r="B53" s="16" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D53" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C53)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E53" t="str">
-        <f>B53&amp;"='"&amp;C53&amp;"'"</f>
-        <v>TRAP1='^'</v>
+        <f t="shared" si="5"/>
+        <v>TILE3='.'</v>
       </c>
       <c r="H53" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="0"/>
-        <v>TRAP1</v>
+        <f t="shared" si="1"/>
+        <v>SWITCH_LIT</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="1"/>
-        <v>^</v>
+        <f t="shared" si="2"/>
+        <v>&lt;</v>
       </c>
       <c r="K53" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J53)))&gt;1</f>
@@ -16121,30 +16018,33 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>222</v>
+      </c>
       <c r="B54" s="16" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D54" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C54)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E54" t="str">
-        <f>B54&amp;"='"&amp;C54&amp;"'"</f>
-        <v>TRAP2='&amp;'</v>
+        <f t="shared" si="5"/>
+        <v>TILE4='~'</v>
       </c>
       <c r="H54" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="0"/>
-        <v>TRAP2</v>
+        <f t="shared" si="1"/>
+        <v>SWITCH_TILE</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="1"/>
-        <v>&amp;</v>
+        <f t="shared" si="2"/>
+        <v>_</v>
       </c>
       <c r="K54" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J54)))&gt;1</f>
@@ -16153,29 +16053,29 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="D55" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C55)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E55" t="str">
-        <f>B55&amp;"='"&amp;C55&amp;"'"</f>
-        <v>TRAP3='['</v>
+        <f t="shared" si="5"/>
+        <v>TRAP1='^'</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="0"/>
-        <v>TRAP3</v>
+        <f t="shared" si="1"/>
+        <v>TRAP1</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="1"/>
-        <v>[</v>
+        <f t="shared" si="2"/>
+        <v>^</v>
       </c>
       <c r="K55" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J55)))&gt;1</f>
@@ -16183,33 +16083,30 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
-        <v>221</v>
-      </c>
       <c r="B56" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D56" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C56)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E56" t="str">
-        <f>B56&amp;"='"&amp;C56&amp;"'"</f>
-        <v>TREASURE='*'</v>
+        <f t="shared" si="5"/>
+        <v>TRAP2='&amp;'</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="0"/>
-        <v>TREASURE</v>
+        <f t="shared" si="1"/>
+        <v>TRAP2</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
+        <f t="shared" si="2"/>
+        <v>&amp;</v>
       </c>
       <c r="K56" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J56)))&gt;1</f>
@@ -16217,33 +16114,30 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
-        <v>221</v>
-      </c>
       <c r="B57" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D57" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C57)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E57" t="str">
-        <f>B57&amp;"='"&amp;C57&amp;"'"</f>
-        <v>TREASURE_CHEST='j'</v>
+        <f t="shared" si="5"/>
+        <v>TRAP3='['</v>
       </c>
       <c r="H57" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="0"/>
-        <v>TREASURE_CHEST</v>
+        <f t="shared" si="1"/>
+        <v>TRAP3</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="1"/>
-        <v>j</v>
+        <f t="shared" si="2"/>
+        <v>[</v>
       </c>
       <c r="K57" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J57)))&gt;1</f>
@@ -16255,29 +16149,29 @@
         <v>221</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D58" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C58)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E58" t="str">
-        <f>B58&amp;"='"&amp;C58&amp;"'"</f>
-        <v>TREASURE10='x'</v>
+        <f t="shared" si="5"/>
+        <v>TREASURE='*'</v>
       </c>
       <c r="H58" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="0"/>
-        <v>TREASURE10</v>
+        <f t="shared" si="1"/>
+        <v>TREASURE</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="1"/>
-        <v>x</v>
+        <f t="shared" si="2"/>
+        <v>*</v>
       </c>
       <c r="K58" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J58)))&gt;1</f>
@@ -16289,29 +16183,29 @@
         <v>221</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D59" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C59)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E59" t="str">
-        <f>B59&amp;"='"&amp;C59&amp;"'"</f>
-        <v>TREASURE25='X'</v>
+        <f t="shared" si="5"/>
+        <v>TREASURE_CHEST='j'</v>
       </c>
       <c r="H59" s="24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="0"/>
-        <v>TREASURE25</v>
+        <f t="shared" si="1"/>
+        <v>TREASURE_CHEST</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
+        <f t="shared" si="2"/>
+        <v>j</v>
       </c>
       <c r="K59" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J59)))&gt;1</f>
@@ -16319,30 +16213,33 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>221</v>
+      </c>
       <c r="B60" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D60" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C60)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E60" t="str">
-        <f>B60&amp;"='"&amp;C60&amp;"'"</f>
-        <v>TREE='T'</v>
+        <f t="shared" si="5"/>
+        <v>TREASURE10='x'</v>
       </c>
       <c r="H60" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="0"/>
-        <v>TREE</v>
+        <f t="shared" si="1"/>
+        <v>TREASURE10</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="1"/>
-        <v>T</v>
+        <f t="shared" si="2"/>
+        <v>x</v>
       </c>
       <c r="K60" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J60)))&gt;1</f>
@@ -16351,32 +16248,32 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D61" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C61)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E61" t="str">
-        <f>B61&amp;"='"&amp;C61&amp;"'"</f>
-        <v>TROPHY='G'</v>
+        <f t="shared" si="5"/>
+        <v>TREASURE25='X'</v>
       </c>
       <c r="H61" s="24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="0"/>
-        <v>TROPHY</v>
+        <f t="shared" si="1"/>
+        <v>TREASURE25</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="1"/>
-        <v>G</v>
+        <f t="shared" si="2"/>
+        <v>X</v>
       </c>
       <c r="K61" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J61)))&gt;1</f>
@@ -16384,33 +16281,30 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" t="s">
-        <v>220</v>
-      </c>
       <c r="B62" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D62" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C62)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E62" t="str">
-        <f>B62&amp;"='"&amp;C62&amp;"'"</f>
-        <v>UP='+'</v>
+        <f t="shared" si="5"/>
+        <v>TREE='T'</v>
       </c>
       <c r="H62" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="0"/>
-        <v>UP</v>
+        <f t="shared" si="1"/>
+        <v>TREE</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="1"/>
-        <v>+</v>
+        <f t="shared" si="2"/>
+        <v>T</v>
       </c>
       <c r="K62" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J62)))&gt;1</f>
@@ -16419,32 +16313,32 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="D63" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C63)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E63" t="str">
-        <f>B63&amp;"='"&amp;C63&amp;"'"</f>
-        <v>WALL=':'</v>
+        <f t="shared" si="5"/>
+        <v>TROPHY='G'</v>
       </c>
       <c r="H63" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="0"/>
-        <v>WALL</v>
+        <f t="shared" si="1"/>
+        <v>TROPHY</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="1"/>
-        <v>:</v>
+        <f t="shared" si="2"/>
+        <v>G</v>
       </c>
       <c r="K63" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J63)))&gt;1</f>
@@ -16453,32 +16347,32 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D64" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C64)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E64" t="str">
-        <f>B64&amp;"='"&amp;C64&amp;"'"</f>
-        <v>WALL_BL='('</v>
+        <f t="shared" si="5"/>
+        <v>UP='+'</v>
       </c>
       <c r="H64" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="0"/>
-        <v>WALL_BL</v>
+        <f t="shared" si="1"/>
+        <v>UP</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="1"/>
-        <v>(</v>
+        <f t="shared" si="2"/>
+        <v>+</v>
       </c>
       <c r="K64" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J64)))&gt;1</f>
@@ -16490,29 +16384,29 @@
         <v>224</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D65" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C65)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E65" t="str">
-        <f>B65&amp;"='"&amp;C65&amp;"'"</f>
-        <v>WALL_BR=')'</v>
+        <f t="shared" si="5"/>
+        <v>WALL=':'</v>
       </c>
       <c r="H65" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="0"/>
-        <v>WALL_BR</v>
+        <f t="shared" si="1"/>
+        <v>WALL</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="1"/>
-        <v>)</v>
+        <f t="shared" si="2"/>
+        <v>:</v>
       </c>
       <c r="K65" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J65)))&gt;1</f>
@@ -16524,29 +16418,29 @@
         <v>224</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D66" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C66)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E66" t="str">
-        <f>B66&amp;"='"&amp;C66&amp;"'"</f>
-        <v>WALL_TL='/'</v>
+        <f t="shared" si="5"/>
+        <v>WALL_BL='('</v>
       </c>
       <c r="H66" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="0"/>
-        <v>WALL_TL</v>
+        <f t="shared" si="1"/>
+        <v>WALL_BL</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="1"/>
-        <v>/</v>
+        <f t="shared" si="2"/>
+        <v>(</v>
       </c>
       <c r="K66" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J66)))&gt;1</f>
@@ -16558,29 +16452,29 @@
         <v>224</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C67)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E67" t="str">
-        <f>B67&amp;"='"&amp;C67&amp;"'"</f>
-        <v>WALL_TR='\\'</v>
+        <f t="shared" si="5"/>
+        <v>WALL_BR=')'</v>
       </c>
       <c r="H67" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="0"/>
-        <v>WALL_TR</v>
+        <f t="shared" si="1"/>
+        <v>WALL_BR</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" si="1"/>
-        <v>\\</v>
+        <f t="shared" si="2"/>
+        <v>)</v>
       </c>
       <c r="K67" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J67)))&gt;1</f>
@@ -16592,29 +16486,29 @@
         <v>224</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D68" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C68)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E68" t="str">
-        <f>B68&amp;"='"&amp;C68&amp;"'"</f>
-        <v>WALL2='w'</v>
+        <f t="shared" ref="E68:E73" si="6">B68&amp;"='"&amp;C68&amp;"'"</f>
+        <v>WALL_TL='/'</v>
       </c>
       <c r="H68" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="0"/>
-        <v>WALL2</v>
+        <f t="shared" si="1"/>
+        <v>WALL_TL</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="1"/>
-        <v>w</v>
+        <f t="shared" si="2"/>
+        <v>/</v>
       </c>
       <c r="K68" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J68)))&gt;1</f>
@@ -16626,29 +16520,29 @@
         <v>224</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>226</v>
+        <v>65</v>
       </c>
       <c r="D69" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C69)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E69" t="str">
-        <f>B69&amp;"='"&amp;C69&amp;"'"</f>
-        <v>WALL3='e'</v>
+        <f t="shared" si="6"/>
+        <v>WALL_TR='\\'</v>
       </c>
       <c r="H69" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="0"/>
-        <v>WEAPON</v>
+        <f t="shared" si="1"/>
+        <v>WALL_TR</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" si="1"/>
-        <v>|</v>
+        <f t="shared" si="2"/>
+        <v>\\</v>
       </c>
       <c r="K69" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J69)))&gt;1</f>
@@ -16657,32 +16551,32 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D70" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C70)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E70" t="str">
-        <f>B70&amp;"='"&amp;C70&amp;"'"</f>
-        <v>WEAPON='|'</v>
+        <f t="shared" si="6"/>
+        <v>WALL2='w'</v>
       </c>
       <c r="H70" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="0"/>
-        <v>WEST</v>
+        <f t="shared" si="1"/>
+        <v>WALL2</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="1"/>
-        <v>W</v>
+        <f t="shared" si="2"/>
+        <v>w</v>
       </c>
       <c r="K70" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(J:J,J70)))&gt;1</f>
@@ -16691,93 +16585,181 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>218</v>
+        <v>224</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>225</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>21</v>
+        <v>226</v>
       </c>
       <c r="D71" s="17" t="b">
         <f>SUMPRODUCT(--(EXACT(C:C,C71)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E71" t="str">
-        <f>B71&amp;"='"&amp;C71&amp;"'"</f>
+        <f t="shared" si="6"/>
+        <v>WALL3='e'</v>
+      </c>
+      <c r="H71" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="1"/>
+        <v>WEAPON</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="2"/>
+        <v>|</v>
+      </c>
+      <c r="K71" s="17" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J71)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" s="17" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C72)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="6"/>
+        <v>WEAPON='|'</v>
+      </c>
+      <c r="H72" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="1"/>
+        <v>WEST</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="K72" s="17" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J72)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="17" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C73)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="6"/>
         <v>WEST='W'</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="23"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C69"/>
+  <autoFilter ref="C1:C71"/>
   <sortState ref="A2:E71">
     <sortCondition ref="B2:B71"/>
   </sortState>
-  <conditionalFormatting sqref="D1:D5 D72:D1048576 D32:D70 D26:D30 D12:D20 D7:D10 D22:D24">
-    <cfRule type="cellIs" dxfId="36" priority="13" operator="equal">
+  <conditionalFormatting sqref="D1:D5 D74:D1048576 D34:D72 D26:D28 D12:D20 D7:D10 D22:D24 D31:D32">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K5 K32:K70 K26:K30 K12:K20 K7:K10 K22:K24">
-    <cfRule type="cellIs" dxfId="35" priority="12" operator="equal">
+  <conditionalFormatting sqref="K2:K5 K34:K72 K26:K28 K12:K20 K7:K10 K22:K24 K31:K32">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="34" priority="11" operator="equal">
+  <conditionalFormatting sqref="D73">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
+  <conditionalFormatting sqref="D33">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31">
-    <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
+  <conditionalFormatting sqref="K33">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="31" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="cellIs" dxfId="30" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18565,22 +18547,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="88" priority="4">
+    <cfRule type="expression" dxfId="70" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="87" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="86" priority="2">
+    <cfRule type="expression" dxfId="68" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="85" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20357,22 +20339,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="84" priority="4">
+    <cfRule type="expression" dxfId="66" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="83" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="82" priority="2">
+    <cfRule type="expression" dxfId="64" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="81" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22160,22 +22142,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="80" priority="4">
+    <cfRule type="expression" dxfId="62" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="79" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="78" priority="2">
+    <cfRule type="expression" dxfId="60" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="77" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23963,22 +23945,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="76" priority="4">
+    <cfRule type="expression" dxfId="58" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="75" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="74" priority="2">
+    <cfRule type="expression" dxfId="56" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="73" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25766,22 +25748,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="72" priority="4">
+    <cfRule type="expression" dxfId="54" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="71" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="70" priority="2">
+    <cfRule type="expression" dxfId="52" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="69" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27569,22 +27551,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="68" priority="4">
+    <cfRule type="expression" dxfId="50" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="67" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="66" priority="2">
+    <cfRule type="expression" dxfId="48" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="65" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29372,22 +29354,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="64" priority="4">
+    <cfRule type="expression" dxfId="46" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="63" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="62" priority="2">
+    <cfRule type="expression" dxfId="44" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="61" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31175,22 +31157,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="60" priority="4">
+    <cfRule type="expression" dxfId="42" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="59" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="58" priority="2">
+    <cfRule type="expression" dxfId="40" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="57" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/game_template/model/data/floor builder Level 9.xlsx
+++ b/game_template/model/data/floor builder Level 9.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="1" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="1" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -2010,18 +2010,88 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="75">
+  <dxfs count="83">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2522,20 +2592,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5249,12 +5305,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="72" priority="2">
+    <cfRule type="expression" dxfId="82" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="71" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7041,22 +7097,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="38" priority="4">
+    <cfRule type="expression" dxfId="48" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="37" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="36" priority="2">
+    <cfRule type="expression" dxfId="46" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8846,22 +8902,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="34" priority="4">
+    <cfRule type="expression" dxfId="44" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="33" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="32" priority="2">
+    <cfRule type="expression" dxfId="42" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10652,22 +10708,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="30" priority="4">
+    <cfRule type="expression" dxfId="40" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="29" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="38" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12457,22 +12513,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="26" priority="4">
+    <cfRule type="expression" dxfId="36" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="25" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12488,8 +12544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB1:AB20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB30" sqref="AB30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12566,6 +12622,10 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="3"/>
+      <c r="Z1" s="26">
+        <f>ROW()-1</f>
+        <v>0</v>
+      </c>
       <c r="AA1" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
         <v>/:::::::)N(::::::::\\</v>
@@ -12641,12 +12701,16 @@
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="7"/>
+      <c r="Z2" s="26">
+        <f t="shared" ref="Z2:Z20" si="0">ROW()-1</f>
+        <v>1</v>
+      </c>
       <c r="AA2" t="str">
-        <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
+        <f t="shared" ref="AA2:AA25" si="1">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
         <v>:)       `        (:</v>
       </c>
       <c r="AB2" t="str">
-        <f t="shared" ref="AB2:AB25" si="1">"'"&amp;AA2&amp;"',"</f>
+        <f t="shared" ref="AB2:AB25" si="2">"'"&amp;AA2&amp;"',"</f>
         <v>':)       `        (:',</v>
       </c>
     </row>
@@ -12716,12 +12780,16 @@
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="7"/>
+      <c r="Z3" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="AA3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>:       ```        :</v>
       </c>
       <c r="AB3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>':       ```        :',</v>
       </c>
     </row>
@@ -12791,12 +12859,16 @@
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
       <c r="Y4" s="7"/>
+      <c r="Z4" s="26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="AA4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>:       ```        (</v>
       </c>
       <c r="AB4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>':       ```        (',</v>
       </c>
     </row>
@@ -12866,12 +12938,16 @@
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
       <c r="Y5" s="7"/>
+      <c r="Z5" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="AA5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>\      ww`ww       /</v>
       </c>
       <c r="AB5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'\      ww`ww       /',</v>
       </c>
     </row>
@@ -12941,12 +13017,16 @@
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="7"/>
+      <c r="Z6" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="AA6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>:\     ww`ww      /:</v>
       </c>
       <c r="AB6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>':\     ww`ww      /:',</v>
       </c>
     </row>
@@ -13016,12 +13096,16 @@
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="7"/>
+      <c r="Z7" s="26">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="AA7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>:::\   (w`w)     /::</v>
       </c>
       <c r="AB7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>':::\   (w`w)     /::',</v>
       </c>
     </row>
@@ -13091,12 +13175,16 @@
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="7"/>
+      <c r="Z8" s="26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="AA8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>:::)     `      /:::</v>
       </c>
       <c r="AB8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>':::)     `      /:::',</v>
       </c>
     </row>
@@ -13166,12 +13254,16 @@
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="7"/>
+      <c r="Z9" s="26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="AA9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>:)       `      (:::</v>
       </c>
       <c r="AB9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>':)       `      (:::',</v>
       </c>
     </row>
@@ -13241,12 +13333,16 @@
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="7"/>
+      <c r="Z10" s="26">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="AA10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>)        &amp;        (:</v>
       </c>
       <c r="AB10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>')        &amp;        (:',</v>
       </c>
     </row>
@@ -13316,12 +13412,16 @@
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="7"/>
+      <c r="Z11" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="AA11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>\        `         (</v>
       </c>
       <c r="AB11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'\        `         (',</v>
       </c>
     </row>
@@ -13391,12 +13491,16 @@
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="7"/>
+      <c r="Z12" s="26">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="AA12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>:     `&amp;```&amp;`      /</v>
       </c>
       <c r="AB12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>':     `&amp;```&amp;`      /',</v>
       </c>
     </row>
@@ -13466,12 +13570,16 @@
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="7"/>
+      <c r="Z13" s="26">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="AA13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>) j      &amp;      j  :</v>
       </c>
       <c r="AB13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>') j      &amp;      j  :',</v>
       </c>
     </row>
@@ -13541,12 +13649,16 @@
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="7"/>
+      <c r="Z14" s="26">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="AA14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>\        `         (</v>
       </c>
       <c r="AB14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'\        `         (',</v>
       </c>
     </row>
@@ -13616,12 +13728,16 @@
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="7"/>
+      <c r="Z15" s="26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="AA15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>:        `         /</v>
       </c>
       <c r="AB15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>':        `         /',</v>
       </c>
     </row>
@@ -13691,12 +13807,16 @@
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="7"/>
+      <c r="Z16" s="26">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="AA16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>:       `¬`    /:\ (</v>
       </c>
       <c r="AB16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>':       `¬`    /:\ (',</v>
       </c>
     </row>
@@ -13766,12 +13886,16 @@
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="7"/>
+      <c r="Z17" s="26">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="AA17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>)/:\    `¬`   /:!:\/</v>
       </c>
       <c r="AB17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>')/:\    `¬`   /:!:\/',</v>
       </c>
     </row>
@@ -13841,12 +13965,16 @@
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="7"/>
+      <c r="Z18" s="26">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="AA18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/:!:\   `¬`  /:!!!::</v>
       </c>
       <c r="AB18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'/:!:\   `¬`  /:!!!::',</v>
       </c>
     </row>
@@ -13916,12 +14044,16 @@
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="7"/>
+      <c r="Z19" s="26">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="AA19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>!!!!!\ ``L`` :!!!!!!</v>
       </c>
       <c r="AB19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'!!!!!\ ``L`` :!!!!!!',</v>
       </c>
     </row>
@@ -13991,95 +14123,99 @@
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="7"/>
+      <c r="Z20" s="26">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
       <c r="AA20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(::::)/:\`/:\(:::::)</v>
       </c>
       <c r="AB20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'(::::)/:\`/:\(:::::)',</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
-        <f>COLUMN()</f>
+        <f>COLUMN()-1</f>
+        <v>0</v>
+      </c>
+      <c r="B21" s="25">
+        <f t="shared" ref="B21:T21" si="3">COLUMN()-1</f>
         <v>1</v>
       </c>
-      <c r="B21" s="25">
-        <f>COLUMN()</f>
-        <v>2</v>
-      </c>
       <c r="C21" s="25">
-        <f>COLUMN()</f>
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D21" s="25">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="D21" s="25">
-        <f>COLUMN()</f>
+      <c r="E21" s="25">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="E21" s="25">
-        <f>COLUMN()</f>
+      <c r="F21" s="25">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="F21" s="25">
-        <f>COLUMN()</f>
-        <v>6</v>
-      </c>
       <c r="G21" s="25">
-        <f>COLUMN()</f>
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="H21" s="25">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="H21" s="25">
-        <f>COLUMN()</f>
+      <c r="I21" s="25">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="I21" s="25">
-        <f>COLUMN()</f>
+      <c r="J21" s="25">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J21" s="25">
-        <f>COLUMN()</f>
+      <c r="K21" s="25">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K21" s="25">
-        <f>COLUMN()</f>
+      <c r="L21" s="25">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="L21" s="25">
-        <f>COLUMN()</f>
+      <c r="M21" s="25">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="M21" s="25">
-        <f>COLUMN()</f>
+      <c r="N21" s="25">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="N21" s="25">
-        <f>COLUMN()</f>
+      <c r="O21" s="25">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="O21" s="25">
-        <f>COLUMN()</f>
+      <c r="P21" s="25">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="P21" s="25">
-        <f>COLUMN()</f>
+      <c r="Q21" s="25">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="Q21" s="25">
-        <f>COLUMN()</f>
+      <c r="R21" s="25">
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="R21" s="25">
-        <f>COLUMN()</f>
+      <c r="S21" s="25">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="S21" s="25">
-        <f>COLUMN()</f>
+      <c r="T21" s="25">
+        <f t="shared" si="3"/>
         <v>19</v>
-      </c>
-      <c r="T21" s="25">
-        <f>COLUMN()</f>
-        <v>20</v>
       </c>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
@@ -14087,12 +14223,12 @@
       <c r="X21" s="6"/>
       <c r="Y21" s="7"/>
       <c r="AA21" t="str">
-        <f t="shared" si="0"/>
-        <v>1234567891011121314151617181920</v>
+        <f t="shared" si="1"/>
+        <v>012345678910111213141516171819</v>
       </c>
       <c r="AB21" t="str">
-        <f t="shared" si="1"/>
-        <v>'1234567891011121314151617181920',</v>
+        <f t="shared" si="2"/>
+        <v>'012345678910111213141516171819',</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
@@ -14122,11 +14258,11 @@
       <c r="X22" s="6"/>
       <c r="Y22" s="7"/>
       <c r="AA22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'',</v>
       </c>
     </row>
@@ -14157,11 +14293,11 @@
       <c r="X23" s="6"/>
       <c r="Y23" s="7"/>
       <c r="AA23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'',</v>
       </c>
     </row>
@@ -14192,11 +14328,11 @@
       <c r="X24" s="6"/>
       <c r="Y24" s="7"/>
       <c r="AA24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'',</v>
       </c>
     </row>
@@ -14227,11 +14363,11 @@
       <c r="X25" s="10"/>
       <c r="Y25" s="11"/>
       <c r="AA25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'',</v>
       </c>
     </row>
@@ -14263,23 +14399,33 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="22" priority="4">
+    <cfRule type="expression" dxfId="32" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Y20">
+    <cfRule type="cellIs" dxfId="31" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="30" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z1:Z20">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z1:Z20">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -14294,7 +14440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E29" sqref="E29:E30"/>
     </sheetView>
@@ -14341,11 +14487,11 @@
         <v>36</v>
       </c>
       <c r="D2" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C2)))&gt;1</f>
+        <f t="shared" ref="D2:D33" si="0">SUMPRODUCT(--(EXACT(C:C,C2)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E35" si="0">B2&amp;"='"&amp;C2&amp;"'"</f>
+        <f t="shared" ref="E2:E35" si="1">B2&amp;"='"&amp;C2&amp;"'"</f>
         <v>BANG='$'</v>
       </c>
       <c r="H2" s="23" t="s">
@@ -14360,7 +14506,7 @@
         <v>$</v>
       </c>
       <c r="K2" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J2)))&gt;1</f>
+        <f t="shared" ref="K2:K33" si="2">SUMPRODUCT(--(EXACT(J:J,J2)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -14375,26 +14521,26 @@
         <v>37</v>
       </c>
       <c r="D3" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C3)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BOMB='q'</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>131</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I72" si="1">TRIM(MID($H3,1,FIND("=",$H3)-1))</f>
+        <f t="shared" ref="I3:I72" si="3">TRIM(MID($H3,1,FIND("=",$H3)-1))</f>
         <v>TILE1</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J72" si="2">SUBSTITUTE(TRIM(MID($H3,FIND("=",$H3)+1,200)),"'","")</f>
+        <f t="shared" ref="J3:J72" si="4">SUBSTITUTE(TRIM(MID($H3,FIND("=",$H3)+1,200)),"'","")</f>
         <v>`</v>
       </c>
       <c r="K3" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J3)))&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -14409,26 +14555,26 @@
         <v>38</v>
       </c>
       <c r="D4" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C4)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BOMB_LIT='Q'</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>130</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TILE2</v>
       </c>
       <c r="J4" t="str">
+        <f t="shared" si="4"/>
+        <v>¬</v>
+      </c>
+      <c r="K4" s="17" t="b">
         <f t="shared" si="2"/>
-        <v>¬</v>
-      </c>
-      <c r="K4" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J4)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -14443,26 +14589,26 @@
         <v>4</v>
       </c>
       <c r="D5" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C5)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BOSS='4'</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>128</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TILE3</v>
       </c>
       <c r="J5" t="str">
+        <f t="shared" si="4"/>
+        <v>.</v>
+      </c>
+      <c r="K5" s="17" t="b">
         <f t="shared" si="2"/>
-        <v>.</v>
-      </c>
-      <c r="K5" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J5)))&gt;1</f>
         <v>1</v>
       </c>
     </row>
@@ -14474,26 +14620,26 @@
         <v>233</v>
       </c>
       <c r="D6" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C6)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BOSS_DOOR='F'</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>128</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TILE3</v>
       </c>
       <c r="J6" t="str">
+        <f t="shared" si="4"/>
+        <v>.</v>
+      </c>
+      <c r="K6" s="17" t="b">
         <f t="shared" si="2"/>
-        <v>.</v>
-      </c>
-      <c r="K6" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J6)))&gt;1</f>
         <v>1</v>
       </c>
     </row>
@@ -14505,26 +14651,26 @@
         <v>234</v>
       </c>
       <c r="D7" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C7)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BOSS_DOOR_OPEN='f'</v>
       </c>
       <c r="H7" s="24" t="s">
         <v>129</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TILE4</v>
       </c>
       <c r="J7" t="str">
+        <f t="shared" si="4"/>
+        <v>~</v>
+      </c>
+      <c r="K7" s="17" t="b">
         <f t="shared" si="2"/>
-        <v>~</v>
-      </c>
-      <c r="K7" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J7)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -14536,26 +14682,26 @@
         <v>9</v>
       </c>
       <c r="D8" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C8)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BRAZIER='B'</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>69</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BOMB</v>
       </c>
       <c r="J8" t="str">
+        <f t="shared" si="4"/>
+        <v>q</v>
+      </c>
+      <c r="K8" s="17" t="b">
         <f t="shared" si="2"/>
-        <v>q</v>
-      </c>
-      <c r="K8" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J8)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -14567,26 +14713,26 @@
         <v>16</v>
       </c>
       <c r="D9" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C9)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DECORATION1='z'</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>70</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BOMB_LIT</v>
       </c>
       <c r="J9" t="str">
+        <f t="shared" si="4"/>
+        <v>Q</v>
+      </c>
+      <c r="K9" s="17" t="b">
         <f t="shared" si="2"/>
-        <v>Q</v>
-      </c>
-      <c r="K9" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J9)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -14598,26 +14744,26 @@
         <v>40</v>
       </c>
       <c r="D10" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C10)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DECORATION2='Z'</v>
       </c>
       <c r="H10" s="24" t="s">
         <v>71</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BOSS_DOOR</v>
       </c>
       <c r="J10" t="str">
+        <f t="shared" si="4"/>
+        <v>d</v>
+      </c>
+      <c r="K10" s="17" t="b">
         <f t="shared" si="2"/>
-        <v>d</v>
-      </c>
-      <c r="K10" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J10)))&gt;1</f>
         <v>1</v>
       </c>
     </row>
@@ -14629,26 +14775,26 @@
         <v>7</v>
       </c>
       <c r="D11" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C11)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DOOR='D'</v>
       </c>
       <c r="H11" s="24" t="s">
         <v>71</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BOSS_DOOR</v>
       </c>
       <c r="J11" t="str">
+        <f t="shared" si="4"/>
+        <v>d</v>
+      </c>
+      <c r="K11" s="17" t="b">
         <f t="shared" si="2"/>
-        <v>d</v>
-      </c>
-      <c r="K11" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J11)))&gt;1</f>
         <v>1</v>
       </c>
     </row>
@@ -14660,26 +14806,26 @@
         <v>39</v>
       </c>
       <c r="D12" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C12)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DOOR_OPEN='d'</v>
       </c>
       <c r="H12" s="24" t="s">
         <v>72</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BRAZIER</v>
       </c>
       <c r="J12" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="K12" s="17" t="b">
         <f t="shared" si="2"/>
-        <v>B</v>
-      </c>
-      <c r="K12" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J12)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -14691,26 +14837,26 @@
         <v>41</v>
       </c>
       <c r="D13" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C13)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DOT1='!'</v>
       </c>
       <c r="H13" s="24" t="s">
         <v>73</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>DECORATION1</v>
       </c>
       <c r="J13" t="str">
+        <f t="shared" si="4"/>
+        <v>z</v>
+      </c>
+      <c r="K13" s="17" t="b">
         <f t="shared" si="2"/>
-        <v>z</v>
-      </c>
-      <c r="K13" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J13)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -14722,26 +14868,26 @@
         <v>42</v>
       </c>
       <c r="D14" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C14)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DOT2='£'</v>
       </c>
       <c r="H14" s="24" t="s">
         <v>74</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>DECORATION2</v>
       </c>
       <c r="J14" t="str">
+        <f t="shared" si="4"/>
+        <v>Z</v>
+      </c>
+      <c r="K14" s="17" t="b">
         <f t="shared" si="2"/>
-        <v>Z</v>
-      </c>
-      <c r="K14" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J14)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -14756,26 +14902,26 @@
         <v>15</v>
       </c>
       <c r="D15" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C15)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DOWN='-'</v>
       </c>
       <c r="H15" s="24" t="s">
         <v>75</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>DOOR</v>
       </c>
       <c r="J15" t="str">
+        <f t="shared" si="4"/>
+        <v>D</v>
+      </c>
+      <c r="K15" s="17" t="b">
         <f t="shared" si="2"/>
-        <v>D</v>
-      </c>
-      <c r="K15" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J15)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -14790,26 +14936,26 @@
         <v>22</v>
       </c>
       <c r="D16" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C16)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EAST='E'</v>
       </c>
       <c r="H16" s="24" t="s">
         <v>76</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>DOT1</v>
       </c>
       <c r="J16" t="str">
+        <f t="shared" si="4"/>
+        <v>!</v>
+      </c>
+      <c r="K16" s="17" t="b">
         <f t="shared" si="2"/>
-        <v>!</v>
-      </c>
-      <c r="K16" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J16)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -14821,26 +14967,26 @@
         <v>6</v>
       </c>
       <c r="D17" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C17)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EMPTY=' '</v>
       </c>
       <c r="H17" s="24" t="s">
         <v>77</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>DOT2</v>
       </c>
       <c r="J17" t="str">
+        <f t="shared" si="4"/>
+        <v>£</v>
+      </c>
+      <c r="K17" s="17" t="b">
         <f t="shared" si="2"/>
-        <v>£</v>
-      </c>
-      <c r="K17" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J17)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -14852,26 +14998,26 @@
         <v>43</v>
       </c>
       <c r="D18" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C18)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EXIT_KEY='%'</v>
       </c>
       <c r="H18" s="24" t="s">
         <v>78</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>DOWN</v>
       </c>
       <c r="J18" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="K18" s="17" t="b">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="K18" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J18)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -14883,26 +15029,26 @@
         <v>44</v>
       </c>
       <c r="D19" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C19)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HEART='HP'</v>
       </c>
       <c r="H19" s="24" t="s">
         <v>79</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>EAST</v>
       </c>
       <c r="J19" t="str">
+        <f t="shared" si="4"/>
+        <v>E</v>
+      </c>
+      <c r="K19" s="17" t="b">
         <f t="shared" si="2"/>
-        <v>E</v>
-      </c>
-      <c r="K19" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J19)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -14917,26 +15063,26 @@
         <v>8</v>
       </c>
       <c r="D20" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C20)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>KEY='?'</v>
       </c>
       <c r="H20" s="24" t="s">
         <v>80</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>EMPTY</v>
       </c>
       <c r="J20" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K20" s="17" t="b">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K20" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J20)))&gt;1</f>
         <v>1</v>
       </c>
     </row>
@@ -14951,26 +15097,26 @@
         <v>237</v>
       </c>
       <c r="D21" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C21)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BOSS_KEY='K'</v>
       </c>
       <c r="H21" s="24" t="s">
         <v>80</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>EMPTY</v>
       </c>
       <c r="J21" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K21" s="17" t="b">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K21" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J21)))&gt;1</f>
         <v>1</v>
       </c>
     </row>
@@ -14985,26 +15131,26 @@
         <v>45</v>
       </c>
       <c r="D22" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C22)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MAP='M'</v>
       </c>
       <c r="H22" s="24" t="s">
         <v>81</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>EXIT_KEY</v>
       </c>
       <c r="J22" t="str">
+        <f t="shared" si="4"/>
+        <v>%</v>
+      </c>
+      <c r="K22" s="17" t="b">
         <f t="shared" si="2"/>
-        <v>%</v>
-      </c>
-      <c r="K22" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J22)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -15019,26 +15165,26 @@
         <v>175</v>
       </c>
       <c r="D23" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C23)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MONSTER1='1'</v>
       </c>
       <c r="H23" s="24" t="s">
         <v>82</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>HEART</v>
       </c>
       <c r="J23" t="str">
+        <f t="shared" si="4"/>
+        <v>HP</v>
+      </c>
+      <c r="K23" s="17" t="b">
         <f t="shared" si="2"/>
-        <v>HP</v>
-      </c>
-      <c r="K23" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J23)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -15053,26 +15199,26 @@
         <v>177</v>
       </c>
       <c r="D24" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C24)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MONSTER2='2'</v>
       </c>
       <c r="H24" s="24" t="s">
         <v>83</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>KEY</v>
       </c>
       <c r="J24" t="str">
+        <f t="shared" si="4"/>
+        <v>?</v>
+      </c>
+      <c r="K24" s="17" t="b">
         <f t="shared" si="2"/>
-        <v>?</v>
-      </c>
-      <c r="K24" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J24)))&gt;1</f>
         <v>1</v>
       </c>
     </row>
@@ -15087,26 +15233,26 @@
         <v>179</v>
       </c>
       <c r="D25" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C25)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MONSTER3='3'</v>
       </c>
       <c r="H25" s="24" t="s">
         <v>83</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>KEY</v>
       </c>
       <c r="J25" t="str">
+        <f t="shared" si="4"/>
+        <v>?</v>
+      </c>
+      <c r="K25" s="17" t="b">
         <f t="shared" si="2"/>
-        <v>?</v>
-      </c>
-      <c r="K25" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J25)))&gt;1</f>
         <v>1</v>
       </c>
     </row>
@@ -15121,26 +15267,26 @@
         <v>23</v>
       </c>
       <c r="D26" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C26)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NEXT_LEVEL='L'</v>
       </c>
       <c r="H26" s="24" t="s">
         <v>84</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>MAP</v>
       </c>
       <c r="J26" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
+      </c>
+      <c r="K26" s="17" t="b">
         <f t="shared" si="2"/>
-        <v>M</v>
-      </c>
-      <c r="K26" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J26)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -15155,26 +15301,26 @@
         <v>19</v>
       </c>
       <c r="D27" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C27)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NORTH='N'</v>
       </c>
       <c r="H27" s="24" t="s">
         <v>85</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>MONSTER1</v>
       </c>
       <c r="J27" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K27" s="17" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K27" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J27)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -15186,26 +15332,26 @@
         <v>46</v>
       </c>
       <c r="D28" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C28)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PLAYER='P'</v>
       </c>
       <c r="H28" s="24" t="s">
         <v>86</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>MONSTER2</v>
       </c>
       <c r="J28" t="str">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K28" s="17" t="b">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K28" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J28)))&gt;1</f>
         <v>1</v>
       </c>
     </row>
@@ -15217,26 +15363,26 @@
         <v>239</v>
       </c>
       <c r="D29" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C29)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" ref="E29" si="3">B29&amp;"='"&amp;C29&amp;"'"</f>
+        <f t="shared" ref="E29" si="5">B29&amp;"='"&amp;C29&amp;"'"</f>
         <v>NPC1='Y'</v>
       </c>
       <c r="H29" s="24" t="s">
         <v>86</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>MONSTER2</v>
       </c>
       <c r="J29" t="str">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K29" s="17" t="b">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K29" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J29)))&gt;1</f>
         <v>1</v>
       </c>
     </row>
@@ -15248,26 +15394,26 @@
         <v>240</v>
       </c>
       <c r="D30" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C30)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" ref="E30" si="4">B30&amp;"='"&amp;C30&amp;"'"</f>
+        <f t="shared" ref="E30" si="6">B30&amp;"='"&amp;C30&amp;"'"</f>
         <v>NPC2='y'</v>
       </c>
       <c r="H30" s="24" t="s">
         <v>86</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>MONSTER2</v>
       </c>
       <c r="J30" t="str">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K30" s="17" t="b">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K30" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J30)))&gt;1</f>
         <v>1</v>
       </c>
     </row>
@@ -15279,26 +15425,26 @@
         <v>28</v>
       </c>
       <c r="D31" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C31)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PREVIOUS_LEVEL='l'</v>
       </c>
       <c r="H31" s="24" t="s">
         <v>87</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>MONSTER3</v>
       </c>
       <c r="J31" t="str">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="K31" s="17" t="b">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="K31" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J31)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -15313,26 +15459,26 @@
         <v>47</v>
       </c>
       <c r="D32" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C32)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>RED_POTION='R'</v>
       </c>
       <c r="H32" s="24" t="s">
         <v>88</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NEXT_LEVEL</v>
       </c>
       <c r="J32" t="str">
+        <f t="shared" si="4"/>
+        <v>L</v>
+      </c>
+      <c r="K32" s="17" t="b">
         <f t="shared" si="2"/>
-        <v>L</v>
-      </c>
-      <c r="K32" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J32)))&gt;1</f>
         <v>1</v>
       </c>
     </row>
@@ -15347,26 +15493,26 @@
         <v>230</v>
       </c>
       <c r="D33" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C33)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>REPLENISH='H'</v>
       </c>
       <c r="H33" s="24" t="s">
         <v>88</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NEXT_LEVEL</v>
       </c>
       <c r="J33" t="str">
+        <f t="shared" si="4"/>
+        <v>L</v>
+      </c>
+      <c r="K33" s="17" t="b">
         <f t="shared" si="2"/>
-        <v>L</v>
-      </c>
-      <c r="K33" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J33)))&gt;1</f>
         <v>1</v>
       </c>
     </row>
@@ -15378,26 +15524,26 @@
         <v>48</v>
       </c>
       <c r="D34" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C34)))&gt;1</f>
+        <f t="shared" ref="D34:D65" si="7">SUMPRODUCT(--(EXACT(C:C,C34)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>RUNE='u'</v>
       </c>
       <c r="H34" s="24" t="s">
         <v>89</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NORTH</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="K34" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J34)))&gt;1</f>
+        <f t="shared" ref="K34:K65" si="8">SUMPRODUCT(--(EXACT(J:J,J34)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -15409,26 +15555,26 @@
         <v>49</v>
       </c>
       <c r="D35" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C35)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>RUNE1='R1'</v>
       </c>
       <c r="H35" s="24" t="s">
         <v>90</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>PLAYER</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>P</v>
       </c>
       <c r="K35" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J35)))&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -15440,26 +15586,26 @@
         <v>50</v>
       </c>
       <c r="D36" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C36)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" ref="E36:E67" si="5">B36&amp;"='"&amp;C36&amp;"'"</f>
+        <f t="shared" ref="E36:E67" si="9">B36&amp;"='"&amp;C36&amp;"'"</f>
         <v>RUNE2='R2'</v>
       </c>
       <c r="H36" s="24" t="s">
         <v>91</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>PREVIOUS_LEVEL</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>l</v>
       </c>
       <c r="K36" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J36)))&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -15471,26 +15617,26 @@
         <v>51</v>
       </c>
       <c r="D37" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C37)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>RUNE3='R3'</v>
       </c>
       <c r="H37" s="24" t="s">
         <v>92</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>RED_POTION</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>R</v>
       </c>
       <c r="K37" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J37)))&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -15502,26 +15648,26 @@
         <v>52</v>
       </c>
       <c r="D38" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C38)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>RUNE4='R4'</v>
       </c>
       <c r="H38" s="24" t="s">
         <v>93</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>RUNE</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>u</v>
       </c>
       <c r="K38" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J38)))&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -15533,26 +15679,26 @@
         <v>53</v>
       </c>
       <c r="D39" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C39)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>RUNE5='R5'</v>
       </c>
       <c r="H39" s="24" t="s">
         <v>94</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>RUNE1</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>R1</v>
       </c>
       <c r="K39" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J39)))&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -15567,26 +15713,26 @@
         <v>192</v>
       </c>
       <c r="D40" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C40)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>SAFETY='8'</v>
       </c>
       <c r="H40" s="24" t="s">
         <v>95</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>RUNE2</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>R2</v>
       </c>
       <c r="K40" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J40)))&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -15601,26 +15747,26 @@
         <v>54</v>
       </c>
       <c r="D41" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C41)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>SECRET_TREASURE='J'</v>
       </c>
       <c r="H41" s="24" t="s">
         <v>96</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>RUNE3</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>R3</v>
       </c>
       <c r="K41" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J41)))&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -15635,26 +15781,26 @@
         <v>14</v>
       </c>
       <c r="D42" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C42)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>SECRET_WALL=';'</v>
       </c>
       <c r="H42" s="24" t="s">
         <v>97</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>RUNE4</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>R4</v>
       </c>
       <c r="K42" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J42)))&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -15669,26 +15815,26 @@
         <v>27</v>
       </c>
       <c r="D43" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C43)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>SHIELD='O'</v>
       </c>
       <c r="H43" s="24" t="s">
         <v>98</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>RUNE5</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>R5</v>
       </c>
       <c r="K43" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J43)))&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -15700,26 +15846,26 @@
         <v>20</v>
       </c>
       <c r="D44" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C44)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>SHOP='s'</v>
       </c>
       <c r="H44" s="24" t="s">
         <v>99</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>SAFETY</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="K44" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J44)))&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -15731,26 +15877,26 @@
         <v>55</v>
       </c>
       <c r="D45" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C45)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>SHOP_KEEPER='SHOP'</v>
       </c>
       <c r="H45" s="24" t="s">
         <v>100</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>SECRET_TREASURE</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>J</v>
       </c>
       <c r="K45" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J45)))&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -15765,26 +15911,26 @@
         <v>17</v>
       </c>
       <c r="D46" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C46)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>SOUTH='S'</v>
       </c>
       <c r="H46" s="24" t="s">
         <v>101</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>SECRET_WALL</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>;</v>
       </c>
       <c r="K46" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J46)))&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -15799,26 +15945,26 @@
         <v>18</v>
       </c>
       <c r="D47" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C47)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>START_POSITION='='</v>
       </c>
       <c r="H47" s="24" t="s">
         <v>102</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>SHIELD</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>O</v>
       </c>
       <c r="K47" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J47)))&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -15830,26 +15976,26 @@
         <v>56</v>
       </c>
       <c r="D48" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C48)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>SWITCH=','</v>
       </c>
       <c r="H48" s="24" t="s">
         <v>103</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>SHOP</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>s</v>
       </c>
       <c r="K48" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J48)))&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -15861,26 +16007,26 @@
         <v>57</v>
       </c>
       <c r="D49" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C49)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>SWITCH_LIT='&lt;'</v>
       </c>
       <c r="H49" s="24" t="s">
         <v>104</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>SHOP_KEEPER</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SHOP</v>
       </c>
       <c r="K49" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J49)))&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -15892,26 +16038,26 @@
         <v>58</v>
       </c>
       <c r="D50" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C50)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>SWITCH_TILE='_'</v>
       </c>
       <c r="H50" s="24" t="s">
         <v>105</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>SOUTH</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="K50" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J50)))&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -15926,26 +16072,26 @@
         <v>132</v>
       </c>
       <c r="D51" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C51)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>TILE1='`'</v>
       </c>
       <c r="H51" s="24" t="s">
         <v>106</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>START_POSITON</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>=</v>
       </c>
       <c r="K51" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J51)))&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -15960,26 +16106,26 @@
         <v>152</v>
       </c>
       <c r="D52" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C52)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>TILE2='¬'</v>
       </c>
       <c r="H52" s="24" t="s">
         <v>107</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>SWITCH</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="K52" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J52)))&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -15994,26 +16140,26 @@
         <v>26</v>
       </c>
       <c r="D53" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C53)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>TILE3='.'</v>
       </c>
       <c r="H53" s="24" t="s">
         <v>108</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>SWITCH_LIT</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>&lt;</v>
       </c>
       <c r="K53" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J53)))&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -16028,26 +16174,26 @@
         <v>25</v>
       </c>
       <c r="D54" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C54)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>TILE4='~'</v>
       </c>
       <c r="H54" s="24" t="s">
         <v>109</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>SWITCH_TILE</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>_</v>
       </c>
       <c r="K54" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J54)))&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -16059,26 +16205,26 @@
         <v>59</v>
       </c>
       <c r="D55" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C55)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>TRAP1='^'</v>
       </c>
       <c r="H55" s="24" t="s">
         <v>110</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TRAP1</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>^</v>
       </c>
       <c r="K55" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J55)))&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -16090,26 +16236,26 @@
         <v>60</v>
       </c>
       <c r="D56" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C56)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>TRAP2='&amp;'</v>
       </c>
       <c r="H56" s="24" t="s">
         <v>111</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TRAP2</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>&amp;</v>
       </c>
       <c r="K56" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J56)))&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -16121,26 +16267,26 @@
         <v>34</v>
       </c>
       <c r="D57" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C57)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>TRAP3='['</v>
       </c>
       <c r="H57" s="24" t="s">
         <v>112</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TRAP3</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[</v>
       </c>
       <c r="K57" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J57)))&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -16155,26 +16301,26 @@
         <v>61</v>
       </c>
       <c r="D58" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C58)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>TREASURE='*'</v>
       </c>
       <c r="H58" s="24" t="s">
         <v>113</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TREASURE</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>*</v>
       </c>
       <c r="K58" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J58)))&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -16189,26 +16335,26 @@
         <v>24</v>
       </c>
       <c r="D59" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C59)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>TREASURE_CHEST='j'</v>
       </c>
       <c r="H59" s="24" t="s">
         <v>114</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TREASURE_CHEST</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>j</v>
       </c>
       <c r="K59" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J59)))&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -16223,26 +16369,26 @@
         <v>62</v>
       </c>
       <c r="D60" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C60)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>TREASURE10='x'</v>
       </c>
       <c r="H60" s="24" t="s">
         <v>115</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TREASURE10</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>x</v>
       </c>
       <c r="K60" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J60)))&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -16257,26 +16403,26 @@
         <v>63</v>
       </c>
       <c r="D61" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C61)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>TREASURE25='X'</v>
       </c>
       <c r="H61" s="24" t="s">
         <v>116</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TREASURE25</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>X</v>
       </c>
       <c r="K61" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J61)))&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -16288,26 +16434,26 @@
         <v>10</v>
       </c>
       <c r="D62" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C62)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>TREE='T'</v>
       </c>
       <c r="H62" s="24" t="s">
         <v>117</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TREE</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>T</v>
       </c>
       <c r="K62" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J62)))&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -16322,26 +16468,26 @@
         <v>64</v>
       </c>
       <c r="D63" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C63)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>TROPHY='G'</v>
       </c>
       <c r="H63" s="24" t="s">
         <v>118</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TROPHY</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>G</v>
       </c>
       <c r="K63" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J63)))&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -16356,26 +16502,26 @@
         <v>5</v>
       </c>
       <c r="D64" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C64)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>UP='+'</v>
       </c>
       <c r="H64" s="24" t="s">
         <v>119</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>UP</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>+</v>
       </c>
       <c r="K64" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J64)))&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -16390,26 +16536,26 @@
         <v>2</v>
       </c>
       <c r="D65" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C65)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>WALL=':'</v>
       </c>
       <c r="H65" s="24" t="s">
         <v>120</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>WALL</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>:</v>
       </c>
       <c r="K65" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J65)))&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -16424,26 +16570,26 @@
         <v>13</v>
       </c>
       <c r="D66" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C66)))&gt;1</f>
+        <f t="shared" ref="D66:D97" si="10">SUMPRODUCT(--(EXACT(C:C,C66)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>WALL_BL='('</v>
       </c>
       <c r="H66" s="24" t="s">
         <v>121</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>WALL_BL</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>(</v>
       </c>
       <c r="K66" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J66)))&gt;1</f>
+        <f t="shared" ref="K66:K97" si="11">SUMPRODUCT(--(EXACT(J:J,J66)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -16458,26 +16604,26 @@
         <v>12</v>
       </c>
       <c r="D67" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C67)))&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>WALL_BR=')'</v>
       </c>
       <c r="H67" s="24" t="s">
         <v>122</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>WALL_BR</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>)</v>
       </c>
       <c r="K67" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J67)))&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16492,26 +16638,26 @@
         <v>11</v>
       </c>
       <c r="D68" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C68)))&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" ref="E68:E73" si="6">B68&amp;"='"&amp;C68&amp;"'"</f>
+        <f t="shared" ref="E68:E73" si="12">B68&amp;"='"&amp;C68&amp;"'"</f>
         <v>WALL_TL='/'</v>
       </c>
       <c r="H68" s="24" t="s">
         <v>123</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>WALL_TL</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="K68" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J68)))&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16526,26 +16672,26 @@
         <v>65</v>
       </c>
       <c r="D69" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C69)))&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>WALL_TR='\\'</v>
       </c>
       <c r="H69" s="24" t="s">
         <v>124</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>WALL_TR</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>\\</v>
       </c>
       <c r="K69" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J69)))&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16560,26 +16706,26 @@
         <v>30</v>
       </c>
       <c r="D70" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C70)))&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>WALL2='w'</v>
       </c>
       <c r="H70" s="24" t="s">
         <v>125</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>WALL2</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>w</v>
       </c>
       <c r="K70" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J70)))&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16594,26 +16740,26 @@
         <v>226</v>
       </c>
       <c r="D71" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C71)))&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>WALL3='e'</v>
       </c>
       <c r="H71" s="24" t="s">
         <v>126</v>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>WEAPON</v>
       </c>
       <c r="J71" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>|</v>
       </c>
       <c r="K71" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J71)))&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16628,26 +16774,26 @@
         <v>29</v>
       </c>
       <c r="D72" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C72)))&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>WEAPON='|'</v>
       </c>
       <c r="H72" s="24" t="s">
         <v>127</v>
       </c>
       <c r="I72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>WEST</v>
       </c>
       <c r="J72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>W</v>
       </c>
       <c r="K72" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J72)))&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16662,11 +16808,11 @@
         <v>21</v>
       </c>
       <c r="D73" s="17" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C73)))&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>WEST='W'</v>
       </c>
     </row>
@@ -16679,87 +16825,87 @@
     <sortCondition ref="B2:B71"/>
   </sortState>
   <conditionalFormatting sqref="D1:D5 D74:D1048576 D34:D72 D26:D28 D12:D20 D7:D10 D22:D24 D31:D32">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5 K34:K72 K26:K28 K12:K20 K7:K10 K22:K24 K31:K32">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="16" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="15" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18547,22 +18693,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="70" priority="4">
+    <cfRule type="expression" dxfId="80" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="69" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="68" priority="2">
+    <cfRule type="expression" dxfId="78" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="67" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18576,7 +18722,7 @@
   <dimension ref="A1:AB27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AA29" sqref="AA29"/>
+      <selection activeCell="Z20" sqref="Z1:Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18652,6 +18798,10 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="3"/>
+      <c r="Z1" s="26">
+        <f>ROW()-1</f>
+        <v>0</v>
+      </c>
       <c r="AA1" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
         <v>:\    (:::::)  N  (:</v>
@@ -18727,12 +18877,16 @@
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="7"/>
+      <c r="Z2" s="26">
+        <f t="shared" ref="Z2:Z20" si="0">ROW()-1</f>
+        <v>1</v>
+      </c>
       <c r="AA2" t="str">
-        <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
+        <f t="shared" ref="AA2:AA25" si="1">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
         <v>::      (:)        (</v>
       </c>
       <c r="AB2" t="str">
-        <f t="shared" ref="AB2:AB20" si="1">"'"&amp;AA2&amp;"',"</f>
+        <f t="shared" ref="AB2:AB20" si="2">"'"&amp;AA2&amp;"',"</f>
         <v>'::      (:)        (',</v>
       </c>
     </row>
@@ -18802,12 +18956,16 @@
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="7"/>
+      <c r="Z3" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="AA3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">:)       :          </v>
       </c>
       <c r="AB3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>':)       :          ',</v>
       </c>
     </row>
@@ -18877,12 +19035,16 @@
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
       <c r="Y4" s="7"/>
+      <c r="Z4" s="26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="AA4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>)       /:\   /\   /</v>
       </c>
       <c r="AB4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>')       /:\   /\   /',</v>
       </c>
     </row>
@@ -18952,12 +19114,16 @@
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
       <c r="Y5" s="7"/>
+      <c r="Z5" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="AA5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">   /\   :::   ()   :</v>
       </c>
       <c r="AB5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'   /\   :::   ()   :',</v>
       </c>
     </row>
@@ -19027,12 +19193,16 @@
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="7"/>
+      <c r="Z6" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="AA6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">   ()   (:)        (</v>
       </c>
       <c r="AB6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'   ()   (:)        (',</v>
       </c>
     </row>
@@ -19102,12 +19272,16 @@
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="7"/>
+      <c r="Z7" s="26">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="AA7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">        `l`        /</v>
       </c>
       <c r="AB7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'        `l`        /',</v>
       </c>
     </row>
@@ -19177,12 +19351,16 @@
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="7"/>
+      <c r="Z8" s="26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="AA8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>\       ```        :</v>
       </c>
       <c r="AB8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'\       ```        :',</v>
       </c>
     </row>
@@ -19252,12 +19430,16 @@
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="7"/>
+      <c r="Z9" s="26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="AA9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>W``````````` ` ``  :</v>
       </c>
       <c r="AB9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'W``````````` ` ``  :',</v>
       </c>
     </row>
@@ -19327,12 +19509,16 @@
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="7"/>
+      <c r="Z10" s="26">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="AA10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>)        `      ` /:</v>
       </c>
       <c r="AB10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>')        `      ` /:',</v>
       </c>
     </row>
@@ -19402,12 +19588,16 @@
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="7"/>
+      <c r="Z11" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="AA11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">             /\ ` ::</v>
       </c>
       <c r="AB11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'             /\ ` ::',</v>
       </c>
     </row>
@@ -19477,12 +19667,16 @@
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="7"/>
+      <c r="Z12" s="26">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="AA12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">             () ` ()</v>
       </c>
       <c r="AB12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'             () ` ()',</v>
       </c>
     </row>
@@ -19552,12 +19746,16 @@
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="7"/>
+      <c r="Z13" s="26">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="AA13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> /\    /\/\     `  /</v>
       </c>
       <c r="AB13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>' /\    /\/\     `  /',</v>
       </c>
     </row>
@@ -19627,12 +19825,16 @@
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="7"/>
+      <c r="Z14" s="26">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="AA14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> ()    ::::   `````E</v>
       </c>
       <c r="AB14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>' ()    ::::   `````E',</v>
       </c>
     </row>
@@ -19702,12 +19904,16 @@
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="7"/>
+      <c r="Z15" s="26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="AA15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">       (::)   `    (</v>
       </c>
       <c r="AB15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'       (::)   `    (',</v>
       </c>
     </row>
@@ -19777,12 +19983,16 @@
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="7"/>
+      <c r="Z16" s="26">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="AA16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">              ` /\  </v>
       </c>
       <c r="AB16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'              ` /\  ',</v>
       </c>
     </row>
@@ -19852,12 +20062,16 @@
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="7"/>
+      <c r="Z17" s="26">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="AA17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">         `````` ()  </v>
       </c>
       <c r="AB17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'         `````` ()  ',</v>
       </c>
     </row>
@@ -19927,12 +20141,16 @@
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="7"/>
+      <c r="Z18" s="26">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="AA18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">         `          </v>
       </c>
       <c r="AB18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'         `          ',</v>
       </c>
     </row>
@@ -20002,12 +20220,16 @@
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="7"/>
+      <c r="Z19" s="26">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="AA19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">\/\     /D\         </v>
       </c>
       <c r="AB19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'\/\     /D\         ',</v>
       </c>
     </row>
@@ -20077,95 +20299,99 @@
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="7"/>
+      <c r="Z20" s="26">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
       <c r="AA20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>:::\    :S:        H</v>
       </c>
       <c r="AB20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>':::\    :S:        H',</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
-        <f>COLUMN()</f>
+        <f>COLUMN()-1</f>
+        <v>0</v>
+      </c>
+      <c r="B21" s="26">
+        <f t="shared" ref="B21:T21" si="3">COLUMN()-1</f>
         <v>1</v>
       </c>
-      <c r="B21" s="26">
-        <f>COLUMN()</f>
-        <v>2</v>
-      </c>
       <c r="C21" s="26">
-        <f>COLUMN()</f>
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D21" s="26">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="D21" s="26">
-        <f>COLUMN()</f>
+      <c r="E21" s="26">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="E21" s="26">
-        <f>COLUMN()</f>
+      <c r="F21" s="26">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="F21" s="26">
-        <f>COLUMN()</f>
-        <v>6</v>
-      </c>
       <c r="G21" s="26">
-        <f>COLUMN()</f>
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="H21" s="26">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="H21" s="26">
-        <f>COLUMN()</f>
+      <c r="I21" s="26">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="I21" s="26">
-        <f>COLUMN()</f>
+      <c r="J21" s="26">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J21" s="26">
-        <f>COLUMN()</f>
+      <c r="K21" s="26">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K21" s="26">
-        <f>COLUMN()</f>
+      <c r="L21" s="26">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="L21" s="26">
-        <f>COLUMN()</f>
+      <c r="M21" s="26">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="M21" s="26">
-        <f>COLUMN()</f>
+      <c r="N21" s="26">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="N21" s="26">
-        <f>COLUMN()</f>
+      <c r="O21" s="26">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="O21" s="26">
-        <f>COLUMN()</f>
+      <c r="P21" s="26">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="P21" s="26">
-        <f>COLUMN()</f>
+      <c r="Q21" s="26">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="Q21" s="26">
-        <f>COLUMN()</f>
+      <c r="R21" s="26">
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="R21" s="26">
-        <f>COLUMN()</f>
+      <c r="S21" s="26">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="S21" s="26">
-        <f>COLUMN()</f>
+      <c r="T21" s="26">
+        <f t="shared" si="3"/>
         <v>19</v>
-      </c>
-      <c r="T21" s="26">
-        <f>COLUMN()</f>
-        <v>20</v>
       </c>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
@@ -20173,12 +20399,12 @@
       <c r="X21" s="6"/>
       <c r="Y21" s="7"/>
       <c r="AA21" t="str">
-        <f t="shared" si="0"/>
-        <v>1234567891011121314151617181920</v>
+        <f t="shared" si="1"/>
+        <v>012345678910111213141516171819</v>
       </c>
       <c r="AB21" t="str">
-        <f t="shared" ref="AB21:AB25" si="2">"'"&amp;AA21&amp;"',"</f>
-        <v>'1234567891011121314151617181920',</v>
+        <f t="shared" ref="AB21:AB25" si="4">"'"&amp;AA21&amp;"',"</f>
+        <v>'012345678910111213141516171819',</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
@@ -20208,11 +20434,11 @@
       <c r="X22" s="6"/>
       <c r="Y22" s="7"/>
       <c r="AA22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>'',</v>
       </c>
     </row>
@@ -20243,11 +20469,11 @@
       <c r="X23" s="6"/>
       <c r="Y23" s="7"/>
       <c r="AA23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>'',</v>
       </c>
     </row>
@@ -20278,11 +20504,11 @@
       <c r="X24" s="6"/>
       <c r="Y24" s="7"/>
       <c r="AA24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>'',</v>
       </c>
     </row>
@@ -20313,11 +20539,11 @@
       <c r="X25" s="10"/>
       <c r="Y25" s="11"/>
       <c r="AA25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>'',</v>
       </c>
     </row>
@@ -20339,23 +20565,33 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="66" priority="4">
+    <cfRule type="expression" dxfId="76" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="65" priority="3" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Y20">
+    <cfRule type="cellIs" dxfId="75" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="64" priority="2">
+    <cfRule type="expression" dxfId="74" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="63" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z1:Z20">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z1:Z20">
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22142,22 +22378,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="62" priority="4">
+    <cfRule type="expression" dxfId="72" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="61" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="60" priority="2">
+    <cfRule type="expression" dxfId="70" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="59" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23945,22 +24181,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="58" priority="4">
+    <cfRule type="expression" dxfId="68" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="57" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="56" priority="2">
+    <cfRule type="expression" dxfId="66" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="55" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25748,22 +25984,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="54" priority="4">
+    <cfRule type="expression" dxfId="64" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="53" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="52" priority="2">
+    <cfRule type="expression" dxfId="62" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="51" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27551,22 +27787,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="50" priority="4">
+    <cfRule type="expression" dxfId="60" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="49" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="48" priority="2">
+    <cfRule type="expression" dxfId="58" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="47" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29354,22 +29590,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="46" priority="4">
+    <cfRule type="expression" dxfId="56" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="45" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="44" priority="2">
+    <cfRule type="expression" dxfId="54" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="43" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31157,22 +31393,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="42" priority="4">
+    <cfRule type="expression" dxfId="52" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="41" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="40" priority="2">
+    <cfRule type="expression" dxfId="50" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="39" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/game_template/model/data/floor builder Level 9.xlsx
+++ b/game_template/model/data/floor builder Level 9.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="1" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5533" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5519" uniqueCount="242">
   <si>
     <t>width</t>
   </si>
@@ -2010,88 +2010,11 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="83">
+  <dxfs count="75">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2210,7 +2133,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2519,6 +2449,20 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5305,12 +5249,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="82" priority="2">
+    <cfRule type="expression" dxfId="74" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="81" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5528,7 +5472,7 @@
         <v>6</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="P3" s="12" t="s">
         <v>6</v>
@@ -5552,11 +5496,11 @@
       <c r="Y3" s="7"/>
       <c r="AA3" t="str">
         <f t="shared" si="0"/>
-        <v>)        `         (</v>
+        <v>)        `    Z    (</v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="1"/>
-        <v>')        `         (',</v>
+        <v>')        `    Z    (',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -5570,7 +5514,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>6</v>
@@ -5627,11 +5571,11 @@
       <c r="Y4" s="7"/>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">         `         /</v>
+        <v xml:space="preserve">   Z     `         /</v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="1"/>
-        <v>'         `         /',</v>
+        <v>'   Z     `         /',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -5720,7 +5664,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>6</v>
@@ -5777,11 +5721,11 @@
       <c r="Y6" s="7"/>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v>\     /w```w\     (:</v>
+        <v>\  Z  /w```w\     (:</v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>'\     /w```w\     (:',</v>
+        <v>'\  Z  /w```w\     (:',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -6353,7 +6297,7 @@
         <v>6</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="P14" s="12" t="s">
         <v>6</v>
@@ -6377,11 +6321,11 @@
       <c r="Y14" s="7"/>
       <c r="AA14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">         `         :</v>
+        <v xml:space="preserve">         `    Z    :</v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>'         `         :',</v>
+        <v>'         `    Z    :',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -6392,7 +6336,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>6</v>
@@ -6452,11 +6396,11 @@
       <c r="Y15" s="7"/>
       <c r="AA15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">         `         (</v>
+        <v xml:space="preserve">  Z      `         (</v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="1"/>
-        <v>'         `         (',</v>
+        <v>'  Z      `         (',</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -6491,7 +6435,7 @@
         <v>132</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="L16" s="12" t="s">
         <v>6</v>
@@ -6527,11 +6471,11 @@
       <c r="Y16" s="7"/>
       <c r="AA16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">         `          </v>
+        <v xml:space="preserve">         `Z         </v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
-        <v>'         `          ',</v>
+        <v>'         `Z         ',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -6551,7 +6495,7 @@
         <v>6</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>6</v>
@@ -6602,11 +6546,11 @@
       <c r="Y17" s="7"/>
       <c r="AA17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">         `          </v>
+        <v xml:space="preserve">     Z   `          </v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="1"/>
-        <v>'         `          ',</v>
+        <v>'     Z   `          ',</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -6656,7 +6600,7 @@
         <v>6</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>6</v>
@@ -6677,11 +6621,11 @@
       <c r="Y18" s="7"/>
       <c r="AA18" t="str">
         <f t="shared" si="0"/>
-        <v>\        `         /</v>
+        <v>\        `     Z   /</v>
       </c>
       <c r="AB18" t="str">
         <f t="shared" si="1"/>
-        <v>'\        `         /',</v>
+        <v>'\        `     Z   /',</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -7097,22 +7041,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="48" priority="4">
+    <cfRule type="expression" dxfId="38" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="47" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="46" priority="2">
+    <cfRule type="expression" dxfId="36" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="45" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7129,7 +7073,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AB20"/>
+      <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7372,7 +7316,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>6</v>
@@ -7432,11 +7376,11 @@
       <c r="Y4" s="7"/>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">     :: ```  (:)    </v>
+        <v xml:space="preserve">  Z  :: ```  (:)    </v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="1"/>
-        <v>'     :: ```  (:)    ',</v>
+        <v>'  Z  :: ```  (:)    ',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -7873,7 +7817,7 @@
         <v>6</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
@@ -7882,11 +7826,11 @@
       <c r="Y10" s="7"/>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  /:::::::::::::\   </v>
+        <v xml:space="preserve">  /:::::::::::::\  Z</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>'  /:::::::::::::\   ',</v>
+        <v>'  /:::::::::::::\  Z',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -8305,7 +8249,7 @@
         <v>6</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="O16" s="12" t="s">
         <v>6</v>
@@ -8332,11 +8276,11 @@
       <c r="Y16" s="7"/>
       <c r="AA16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ()   `      /\  </v>
+        <v xml:space="preserve">    ()   `   Z  /\  </v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
-        <v>'    ()   `      /\  ',</v>
+        <v>'    ()   `   Z  /\  ',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -8578,7 +8522,7 @@
         <v>6</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>6</v>
@@ -8632,11 +8576,11 @@
       <c r="Y20" s="7"/>
       <c r="AA20" t="str">
         <f t="shared" si="0"/>
-        <v>(:\   /:wSw::\/:\/:)</v>
+        <v>(:\ Z /:wSw::\/:\/:)</v>
       </c>
       <c r="AB20" t="str">
         <f t="shared" si="1"/>
-        <v>'(:\   /:wSw::\/:\/:)',</v>
+        <v>'(:\ Z /:wSw::\/:\/:)',</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -8902,22 +8846,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="44" priority="4">
+    <cfRule type="expression" dxfId="34" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="43" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="42" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="41" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9220,7 +9164,7 @@
         <v>6</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="R4" s="12" t="s">
         <v>6</v>
@@ -9238,11 +9182,11 @@
       <c r="Y4" s="7"/>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
-        <v>:   _    M   _     :</v>
+        <v>:   _    M   _  Z  :</v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="1"/>
-        <v>':   _    M   _     :',</v>
+        <v>':   _    M   _  Z  :',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -9478,7 +9422,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>6</v>
@@ -9538,11 +9482,11 @@
       <c r="Y8" s="7"/>
       <c r="AA8" t="str">
         <f t="shared" si="0"/>
-        <v>:w  _        _    ww</v>
+        <v>:wZ _        _    ww</v>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="1"/>
-        <v>':w  _        _    ww',</v>
+        <v>':wZ _        _    ww',</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -9571,7 +9515,7 @@
         <v>6</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>6</v>
@@ -9613,11 +9557,11 @@
       <c r="Y9" s="7"/>
       <c r="AA9" t="str">
         <f t="shared" si="0"/>
-        <v>www               `w</v>
+        <v>www     Z         `w</v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="1"/>
-        <v>'www               `w',</v>
+        <v>'www     Z         `w',</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -10090,7 +10034,7 @@
         <v>6</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>6</v>
@@ -10138,11 +10082,11 @@
       <c r="Y16" s="7"/>
       <c r="AA16" t="str">
         <f t="shared" si="0"/>
-        <v>:       wDw  _  _  :</v>
+        <v>:     Z wDw  _  _  :</v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
-        <v>':       wDw  _  _  :',</v>
+        <v>':     Z wDw  _  _  :',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -10342,7 +10286,7 @@
         <v>6</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="12" t="s">
         <v>6</v>
@@ -10363,11 +10307,11 @@
       <c r="Y19" s="7"/>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v>:\     /w,w\      /:</v>
+        <v>:\     /w,w\   Z  /:</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>':\     /w,w\      /:',</v>
+        <v>':\     /w,w\   Z  /:',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -10708,22 +10652,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="40" priority="4">
+    <cfRule type="expression" dxfId="30" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="39" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="38" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="37" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10739,7 +10683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
@@ -10850,14 +10794,14 @@
       <c r="H2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>6</v>
+      <c r="I2" s="12">
+        <v>8</v>
+      </c>
+      <c r="J2" s="12">
+        <v>8</v>
+      </c>
+      <c r="K2" s="12">
+        <v>8</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>6</v>
@@ -10893,11 +10837,11 @@
       <c r="Y2" s="7"/>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v>)                  (</v>
+        <v>)       888        (</v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB25" si="1">"'"&amp;AA2&amp;"',"</f>
-        <v>')                  (',</v>
+        <v>')       888        (',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -11127,7 +11071,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>6</v>
@@ -11184,7 +11128,7 @@
         <v>6</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
@@ -11193,16 +11137,16 @@
       <c r="Y6" s="7"/>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v>!                  !</v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'!                  !',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>6</v>
@@ -11259,7 +11203,7 @@
         <v>6</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
@@ -11268,19 +11212,19 @@
       <c r="Y7" s="7"/>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v>!                  !</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'!                  !',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>6</v>
+        <v>228</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>6</v>
@@ -11331,10 +11275,10 @@
         <v>6</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
@@ -11343,11 +11287,11 @@
       <c r="Y8" s="7"/>
       <c r="AA8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">     !       !      </v>
+        <v>!\   !       !    /!</v>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="1"/>
-        <v>'     !       !      ',</v>
+        <v>'!\   !       !    /!',</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -11355,10 +11299,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="C9" s="12">
+        <v>8</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>6</v>
@@ -11402,11 +11346,11 @@
       <c r="Q9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="R9" s="12" t="s">
-        <v>6</v>
+      <c r="R9" s="12">
+        <v>8</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="T9" s="12" t="s">
         <v>2</v>
@@ -11418,22 +11362,22 @@
       <c r="Y9" s="7"/>
       <c r="AA9" t="str">
         <f t="shared" si="0"/>
-        <v>:    !   !   !     :</v>
+        <v>:)8  !   !   !   8(:</v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="1"/>
-        <v>':    !   !   !     :',</v>
+        <v>':)8  !   !   !   8(:',</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>6</v>
+      <c r="B10" s="12">
+        <v>8</v>
+      </c>
+      <c r="C10" s="12">
+        <v>8</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>6</v>
@@ -11477,11 +11421,11 @@
       <c r="Q10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="R10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="S10" s="12" t="s">
-        <v>6</v>
+      <c r="R10" s="12">
+        <v>8</v>
+      </c>
+      <c r="S10" s="12">
+        <v>8</v>
       </c>
       <c r="T10" s="12" t="s">
         <v>47</v>
@@ -11493,11 +11437,11 @@
       <c r="Y10" s="7"/>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v>R    !   !   !     R</v>
+        <v>R88  !   !   !   88R</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>'R    !   !   !     R',</v>
+        <v>'R88  !   !   !   88R',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -11505,10 +11449,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>6</v>
+        <v>228</v>
+      </c>
+      <c r="C11" s="12">
+        <v>8</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>6</v>
@@ -11552,11 +11496,11 @@
       <c r="Q11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="R11" s="12" t="s">
-        <v>6</v>
+      <c r="R11" s="12">
+        <v>8</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T11" s="12" t="s">
         <v>2</v>
@@ -11568,19 +11512,19 @@
       <c r="Y11" s="7"/>
       <c r="AA11" t="str">
         <f t="shared" si="0"/>
-        <v>:    !   !   !     :</v>
+        <v>:\8  !   !   !   8/:</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="1"/>
-        <v>':    !   !   !     :',</v>
+        <v>':\8  !   !   !   8/:',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>6</v>
@@ -11631,10 +11575,10 @@
         <v>6</v>
       </c>
       <c r="S12" s="12" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
@@ -11643,16 +11587,16 @@
       <c r="Y12" s="7"/>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">     !       !      </v>
+        <v>!)   !       !    (!</v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>'     !       !      ',</v>
+        <v>'!)   !       !    (!',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>6</v>
@@ -11709,7 +11653,7 @@
         <v>6</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
@@ -11718,16 +11662,16 @@
       <c r="Y13" s="7"/>
       <c r="AA13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v>!                  !</v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'!                  !',</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>6</v>
@@ -11784,7 +11728,7 @@
         <v>6</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
@@ -11793,11 +11737,11 @@
       <c r="Y14" s="7"/>
       <c r="AA14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v>!                  !</v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'!                  !',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -12050,14 +11994,14 @@
       <c r="H18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>6</v>
+      <c r="I18" s="12">
+        <v>8</v>
+      </c>
+      <c r="J18" s="12">
+        <v>8</v>
+      </c>
+      <c r="K18" s="12">
+        <v>8</v>
       </c>
       <c r="L18" s="12" t="s">
         <v>6</v>
@@ -12093,11 +12037,11 @@
       <c r="Y18" s="7"/>
       <c r="AA18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">        888         </v>
       </c>
       <c r="AB18" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'        888         ',</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -12513,22 +12457,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="36" priority="4">
+    <cfRule type="expression" dxfId="26" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="35" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="33" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12544,8 +12488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB30" sqref="AB30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12807,7 +12751,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>6</v>
@@ -12840,7 +12784,7 @@
         <v>6</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>6</v>
@@ -12865,11 +12809,11 @@
       </c>
       <c r="AA4" t="str">
         <f t="shared" si="1"/>
-        <v>:       ```        (</v>
+        <v>:   Z   ```    Z   (</v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="2"/>
-        <v>':       ```        (',</v>
+        <v>':   Z   ```    Z   (',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -13682,7 +13626,7 @@
         <v>6</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>6</v>
@@ -13700,7 +13644,7 @@
         <v>6</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="N15" s="12" t="s">
         <v>6</v>
@@ -13734,11 +13678,11 @@
       </c>
       <c r="AA15" t="str">
         <f t="shared" si="1"/>
-        <v>:        `         /</v>
+        <v>:     Z  `  Z      /</v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="2"/>
-        <v>':        `         /',</v>
+        <v>':     Z  `  Z      /',</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -14399,32 +14343,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="32" priority="6">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Y20">
-    <cfRule type="cellIs" dxfId="31" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="30" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="29" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z20">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z20">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16570,7 +16514,7 @@
         <v>13</v>
       </c>
       <c r="D66" s="17" t="b">
-        <f t="shared" ref="D66:D97" si="10">SUMPRODUCT(--(EXACT(C:C,C66)))&gt;1</f>
+        <f t="shared" ref="D66:D73" si="10">SUMPRODUCT(--(EXACT(C:C,C66)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E66" t="str">
@@ -16589,7 +16533,7 @@
         <v>(</v>
       </c>
       <c r="K66" s="17" t="b">
-        <f t="shared" ref="K66:K97" si="11">SUMPRODUCT(--(EXACT(J:J,J66)))&gt;1</f>
+        <f t="shared" ref="K66:K72" si="11">SUMPRODUCT(--(EXACT(J:J,J66)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -16825,87 +16769,87 @@
     <sortCondition ref="B2:B71"/>
   </sortState>
   <conditionalFormatting sqref="D1:D5 D74:D1048576 D34:D72 D26:D28 D12:D20 D7:D10 D22:D24 D31:D32">
-    <cfRule type="cellIs" dxfId="28" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5 K34:K72 K26:K28 K12:K20 K7:K10 K22:K24 K31:K32">
-    <cfRule type="cellIs" dxfId="27" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="26" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33">
-    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18693,22 +18637,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="80" priority="4">
+    <cfRule type="expression" dxfId="72" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="79" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="78" priority="2">
+    <cfRule type="expression" dxfId="70" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="77" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18722,7 +18666,7 @@
   <dimension ref="A1:AB27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z20" sqref="Z1:Z20"/>
+      <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19536,7 +19480,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>6</v>
@@ -19594,11 +19538,11 @@
       </c>
       <c r="AA11" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">             /\ ` ::</v>
+        <v xml:space="preserve">    Z        /\ ` ::</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="2"/>
-        <v>'             /\ ` ::',</v>
+        <v>'    Z        /\ ` ::',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -20250,7 +20194,7 @@
         <v>6</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>6</v>
@@ -20274,7 +20218,7 @@
         <v>6</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="O20" s="12" t="s">
         <v>6</v>
@@ -20283,7 +20227,7 @@
         <v>6</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="R20" s="12" t="s">
         <v>6</v>
@@ -20305,11 +20249,11 @@
       </c>
       <c r="AA20" t="str">
         <f t="shared" si="1"/>
-        <v>:::\    :S:        H</v>
+        <v>:::\ Z  :S:  Z  Z  H</v>
       </c>
       <c r="AB20" t="str">
         <f t="shared" si="2"/>
-        <v>':::\    :S:        H',</v>
+        <v>':::\ Z  :S:  Z  Z  H',</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -20565,32 +20509,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="76" priority="6">
+    <cfRule type="expression" dxfId="68" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Y20">
-    <cfRule type="cellIs" dxfId="75" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="74" priority="4">
+    <cfRule type="expression" dxfId="66" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="73" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z20">
-    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z20">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="63" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22378,22 +22322,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="72" priority="4">
+    <cfRule type="expression" dxfId="62" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="71" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="70" priority="2">
+    <cfRule type="expression" dxfId="60" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="69" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22816,7 +22760,7 @@
         <v>6</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>6</v>
@@ -22831,7 +22775,7 @@
         <v>6</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="N6" s="12" t="s">
         <v>6</v>
@@ -22861,11 +22805,11 @@
       <c r="Y6" s="7"/>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v>!!:              :!!</v>
+        <v>!!:    Z    Z    :!!</v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>'!!:              :!!',</v>
+        <v>'!!:    Z    Z    :!!',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -23293,7 +23237,7 @@
         <v>6</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="R12" s="12" t="s">
         <v>30</v>
@@ -23311,11 +23255,11 @@
       <c r="Y12" s="7"/>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v>!ww\     `       ww!</v>
+        <v>!ww\     `      Zww!</v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>'!ww\     `       ww!',</v>
+        <v>'!ww\     `      Zww!',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -23641,7 +23585,7 @@
         <v>6</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>6</v>
@@ -23686,11 +23630,11 @@
       <c r="Y17" s="7"/>
       <c r="AA17" t="str">
         <f t="shared" si="0"/>
-        <v>!!!:\          /:!!!</v>
+        <v>!!!:\  Z       /:!!!</v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="1"/>
-        <v>'!!!:\          /:!!!',</v>
+        <v>'!!!:\  Z       /:!!!',</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -24181,22 +24125,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="68" priority="4">
+    <cfRule type="expression" dxfId="58" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="67" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="66" priority="2">
+    <cfRule type="expression" dxfId="56" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="65" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24210,7 +24154,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AB20"/>
+      <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24835,7 +24779,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>6</v>
@@ -24889,11 +24833,11 @@
       <c r="Y9" s="7"/>
       <c r="AA9" t="str">
         <f t="shared" si="0"/>
-        <v>w`       `        ww</v>
+        <v>w`  Z    `        ww</v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="1"/>
-        <v>'w`       `        ww',</v>
+        <v>'w`  Z    `        ww',</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -25009,7 +24953,7 @@
         <v>6</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="N11" s="12" t="s">
         <v>6</v>
@@ -25039,11 +24983,11 @@
       <c r="Y11" s="7"/>
       <c r="AA11" t="str">
         <f t="shared" si="0"/>
-        <v>w`  ``````      ```E</v>
+        <v>w`  ``````  Z   ```E</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="1"/>
-        <v>'w`  ``````      ```E',</v>
+        <v>'w`  ``````  Z   ```E',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -25360,7 +25304,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>6</v>
@@ -25414,11 +25358,11 @@
       <c r="Y16" s="7"/>
       <c r="AA16" t="str">
         <f t="shared" si="0"/>
-        <v>:        ````ww    :</v>
+        <v>:   Z    ````ww    :</v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
-        <v>':        ````ww    :',</v>
+        <v>':   Z    ````ww    :',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -25984,22 +25928,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="64" priority="4">
+    <cfRule type="expression" dxfId="54" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="63" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="62" priority="2">
+    <cfRule type="expression" dxfId="52" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="61" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26013,7 +25957,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AB20"/>
+      <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26371,7 +26315,7 @@
         <v>6</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>6</v>
@@ -26392,11 +26336,11 @@
       <c r="Y5" s="7"/>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v>:   T          T   :</v>
+        <v>:   T          Z   :</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>':   T          T   :',</v>
+        <v>':   T          Z   :',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -26497,7 +26441,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>132</v>
@@ -26527,7 +26471,7 @@
         <v>6</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="S7" s="12" t="s">
         <v>6</v>
@@ -26542,11 +26486,11 @@
       <c r="Y7" s="7"/>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v>:       ```        :</v>
+        <v>:      Z```      Z :</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>':       ```        :',</v>
+        <v>':      Z```      Z :',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -27385,7 +27329,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>6</v>
@@ -27394,7 +27338,7 @@
         <v>6</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>6</v>
@@ -27415,7 +27359,7 @@
         <v>6</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="O19" s="12" t="s">
         <v>6</v>
@@ -27427,7 +27371,7 @@
         <v>6</v>
       </c>
       <c r="R19" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="S19" s="12" t="s">
         <v>11</v>
@@ -27442,11 +27386,11 @@
       <c r="Y19" s="7"/>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v>:\                /:</v>
+        <v>:\ Z  Z      Z   Z/:</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>':\                /:',</v>
+        <v>':\ Z  Z      Z   Z/:',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -27787,22 +27731,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="60" priority="4">
+    <cfRule type="expression" dxfId="50" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="59" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="58" priority="2">
+    <cfRule type="expression" dxfId="48" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="57" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27816,7 +27760,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB1:AB20"/>
+      <selection activeCell="AB1" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28087,7 +28031,7 @@
         <v>6</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>6</v>
@@ -28120,11 +28064,11 @@
       <c r="Y4" s="7"/>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
-        <v>wwDw     `      wDww</v>
+        <v>wwDw     ` Z    wDww</v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="1"/>
-        <v>'wwDw     `      wDww',</v>
+        <v>'wwDw     ` Z    wDww',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -28402,7 +28346,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="R8" s="12" t="s">
         <v>6</v>
@@ -28420,11 +28364,11 @@
       <c r="Y8" s="7"/>
       <c r="AA8" t="str">
         <f t="shared" si="0"/>
-        <v>:      ww`ww       :</v>
+        <v>:      ww`ww    Z  :</v>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="1"/>
-        <v>':      ww`ww       :',</v>
+        <v>':      ww`ww    Z  :',</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -28438,7 +28382,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>6</v>
@@ -28495,11 +28439,11 @@
       <c r="Y9" s="7"/>
       <c r="AA9" t="str">
         <f t="shared" si="0"/>
-        <v>:     Bw```wB      :</v>
+        <v>:  Z  Bw```wB      :</v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="1"/>
-        <v>':     Bw```wB      :',</v>
+        <v>':  Z  Bw```wB      :',</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -28813,7 +28757,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>6</v>
@@ -28870,11 +28814,11 @@
       <c r="Y14" s="7"/>
       <c r="AA14" t="str">
         <f t="shared" si="0"/>
-        <v>:                ? (</v>
+        <v>:  Z             ? (</v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>':                ? (',</v>
+        <v>':  Z             ? (',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -28975,7 +28919,7 @@
         <v>6</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>6</v>
@@ -29020,11 +28964,11 @@
       <c r="Y16" s="7"/>
       <c r="AA16" t="str">
         <f t="shared" si="0"/>
-        <v>:                 /:</v>
+        <v>:      Z          /:</v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
-        <v>':                 /:',</v>
+        <v>':      Z          /:',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -29200,7 +29144,7 @@
         <v>6</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>6</v>
@@ -29221,7 +29165,7 @@
         <v>6</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="P19" s="12" t="s">
         <v>11</v>
@@ -29245,11 +29189,11 @@
       <c r="Y19" s="7"/>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v>::::\    /\    /w`,w</v>
+        <v>::::\  Z /\   Z/w`,w</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>'::::\    /\    /w`,w',</v>
+        <v>'::::\  Z /\   Z/w`,w',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -29590,22 +29534,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="56" priority="4">
+    <cfRule type="expression" dxfId="46" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="55" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="54" priority="2">
+    <cfRule type="expression" dxfId="44" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="53" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31393,22 +31337,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="52" priority="4">
+    <cfRule type="expression" dxfId="42" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="51" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="50" priority="2">
+    <cfRule type="expression" dxfId="40" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="49" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
